--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deven\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B04E7D-F4BF-4B80-A36B-4CCF02B23B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4857CE2F-C8E6-4D50-B9F6-84DA5B1A9EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{7A5C3E06-9109-4415-A31A-FCDDF2E0260C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{7A5C3E06-9109-4415-A31A-FCDDF2E0260C}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="7" r:id="rId1"/>
@@ -21,10 +21,20 @@
     <sheet name="Dropdown Data" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="expenses_header_row">ROW(Expenses[[#Headers],[Expenses]])</definedName>
+    <definedName name="expenses_max_row">MAX(ROW(Expenses[]))</definedName>
+    <definedName name="expenses_min_row">MIN(ROW(Expenses[]))</definedName>
+    <definedName name="expenses_total_row">ROW('Budget Planning'!$C$37)</definedName>
     <definedName name="income_header_row">ROW(Income[[#Headers],[Income]])</definedName>
     <definedName name="income_max_row">MAX(ROW(Income[]))</definedName>
     <definedName name="income_min_row">MIN(ROW(Income[]))</definedName>
     <definedName name="income_total_row">ROW('Budget Planning'!$C$21)</definedName>
+    <definedName name="savings_header_row">ROW(Savings[[#Headers],[Savings]])</definedName>
+    <definedName name="savings_max_row">MAX(ROW(Savings[]))</definedName>
+    <definedName name="savings_min_row">MIN(ROW(Savings[]))</definedName>
+    <definedName name="savings_total_row">ROW('Budget Planning'!$C$53)</definedName>
+    <definedName name="shift_late_income_starting_date">Settings!$E$16</definedName>
+    <definedName name="shift_late_income_status">Settings!$E$14</definedName>
     <definedName name="starting_year">Settings!$E$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -46,7 +56,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -68,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>Settings</t>
   </si>
@@ -97,9 +107,6 @@
     <t>Dropdown Data</t>
   </si>
   <si>
-    <t>Define this Year in Settings.</t>
-  </si>
-  <si>
     <t>Income</t>
   </si>
   <si>
@@ -117,6 +124,87 @@
   <si>
     <t xml:space="preserve">Dividends </t>
   </si>
+  <si>
+    <t>Housing</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Groceries</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Enter Expenses Category</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>Emergancy Funds</t>
+  </si>
+  <si>
+    <t>Accounts</t>
+  </si>
+  <si>
+    <t>Stocks</t>
+  </si>
+  <si>
+    <t>Enter Savings Category</t>
+  </si>
+  <si>
+    <t>⏬ : Underallocated</t>
+  </si>
+  <si>
+    <t>⏫ : Overallocated</t>
+  </si>
+  <si>
+    <t>✅ : Allocated</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Effective Date</t>
+  </si>
+  <si>
+    <t>Budget Tracking &amp; Dashboard</t>
+  </si>
+  <si>
+    <t>Late Monthly Income</t>
+  </si>
+  <si>
+    <t>Shift Late Income:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active </t>
+  </si>
+  <si>
+    <t>Startting on day x in month:</t>
+  </si>
+  <si>
+    <t>Activate this option to treat late income received on or after a certain day of month as income for next month.This is recommended if you receive paycheck at end of month.prefer this as disposable income for next month.</t>
+  </si>
 </sst>
 </file>
 
@@ -124,10 +212,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="mmm"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="mmm"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,8 +307,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,8 +392,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -370,21 +529,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -394,20 +613,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -418,28 +629,168 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="11" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="15" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="67">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+      <numFmt numFmtId="5" formatCode="#,##0_);\(#,##0\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -455,11 +806,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -475,6 +851,41 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1"/>
       </font>
       <fill>
@@ -482,6 +893,314 @@
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -554,33 +1273,175 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -616,12 +1477,60 @@
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+  <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Expense Table Style" pivot="0" count="2" xr9:uid="{0942EF1D-60EF-468E-8EAC-BF71999432B9}">
+      <tableStyleElement type="wholeTable" dxfId="66"/>
+      <tableStyleElement type="headerRow" dxfId="65"/>
+    </tableStyle>
     <tableStyle name="Income Table Style" pivot="0" count="0" xr9:uid="{19E38E3C-AAAD-42BF-8908-780C611BADF8}"/>
     <tableStyle name="Income Table Style1" pivot="0" count="2" xr9:uid="{14D8EDB0-342C-4C52-92AA-439E47EB81F1}">
-      <tableStyleElement type="wholeTable" dxfId="12"/>
-      <tableStyleElement type="headerRow" dxfId="11"/>
+      <tableStyleElement type="wholeTable" dxfId="64"/>
+      <tableStyleElement type="headerRow" dxfId="63"/>
+    </tableStyle>
+    <tableStyle name="Savings Table Style" pivot="0" count="2" xr9:uid="{CD8C189E-32C2-4CFE-9ED2-F17F04201444}">
+      <tableStyleElement type="wholeTable" dxfId="62"/>
+      <tableStyleElement type="headerRow" dxfId="61"/>
+    </tableStyle>
+    <tableStyle name="Tracking table style" pivot="0" count="4" xr9:uid="{86EC194D-5430-4AB6-A2C4-C16AB6EB4BD1}">
+      <tableStyleElement type="wholeTable" dxfId="51"/>
+      <tableStyleElement type="headerRow" dxfId="50"/>
+      <tableStyleElement type="firstRowStripe" dxfId="49"/>
+      <tableStyleElement type="secondRowStripe" dxfId="48"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -636,14 +1545,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EFC4D99F-BC14-4919-93CD-DA1414200B57}" name="Income" displayName="Income" ref="C8:C13" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="C8:C13" xr:uid="{EFC4D99F-BC14-4919-93CD-DA1414200B57}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EFC4D99F-BC14-4919-93CD-DA1414200B57}" name="Income" displayName="Income" ref="C8:C12" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+  <autoFilter ref="C8:C12" xr:uid="{EFC4D99F-BC14-4919-93CD-DA1414200B57}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{EE7D3E22-4D20-4608-9AC7-666336B439A7}" name="Income" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{EE7D3E22-4D20-4608-9AC7-666336B439A7}" name="Income" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="Income Table Style1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0880E43B-35FA-4643-AE18-06C62E37CF71}" name="Expenses" displayName="Expenses" ref="C24:C28" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+  <autoFilter ref="C24:C28" xr:uid="{0880E43B-35FA-4643-AE18-06C62E37CF71}">
+    <filterColumn colId="0" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{9FF8006E-641D-4245-BF69-9B6997542C28}" name="Expenses" dataDxfId="55"/>
+  </tableColumns>
+  <tableStyleInfo name="Expense Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{85D18FEA-ABEE-4A12-BA2A-0C017D65D635}" name="Savings" displayName="Savings" ref="C40:C44" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+  <autoFilter ref="C40:C44" xr:uid="{85D18FEA-ABEE-4A12-BA2A-0C017D65D635}">
+    <filterColumn colId="0" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{662A2D9C-6457-4651-B635-93FB5EB8289F}" name="Savings" dataDxfId="52"/>
+  </tableColumns>
+  <tableStyleInfo name="Savings Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15260CEE-AFAD-4667-B352-DF97F7B3DB8B}" name="Table1" displayName="Table1" ref="C11:I14" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45">
+  <autoFilter ref="C11:I14" xr:uid="{15260CEE-AFAD-4667-B352-DF97F7B3DB8B}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{54F4823D-83FE-4699-83A2-D2A113876861}" name="Date" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{025E3FA5-5B8A-43A0-844F-25257305FEA6}" name="Type" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{2141A36F-F703-45FF-A64D-093E70D7EF8B}" name="Category" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{133095F4-E6AA-4D7F-BBCE-ABB9339E2910}" name="Amount" dataDxfId="42" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{9BCC9512-A40A-4DED-AA19-41DCAFEBE48E}" name="Details" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{6DEBC14F-239B-4833-8E9C-CAC2B729AF2D}" name="Balance" dataDxfId="1" dataCellStyle="Comma">
+      <calculatedColumnFormula array="1">SUMPRODUCT(Table1[Amount],--(Table1[Date]&lt;=Table1[[#This Row],[Date]]),(Table1[Type]&lt;&gt;"Income")*(-1) +(Table1[Type]="Income"))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{14F6F0F5-FD4F-467B-BCD3-18F6583C690B}" name="Effective Date" dataDxfId="0" dataCellStyle="Comma">
+      <calculatedColumnFormula>IF(AND(Table1[[#This Row],[Type]]="Income",shift_late_income_status="Active",DAY(Table1[[#This Row],[Date]])&gt;=shift_late_income_starting_date),DATE(YEAR(Table1[[#This Row],[Date]]),MONTH(Table1[[#This Row],[Date]])+1,1),Table1[[#This Row],[Date]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="Tracking table style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -944,71 +1897,200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1DD728-1660-4726-BD6E-0205B413C4A0}">
-  <dimension ref="C1:H7"/>
+  <dimension ref="C1:H22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="2.88671875" customWidth="1"/>
     <col min="3" max="3" width="3.33203125" customWidth="1"/>
-    <col min="4" max="5" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
     <col min="6" max="6" width="1.77734375" customWidth="1"/>
-    <col min="7" max="7" width="44.33203125" customWidth="1"/>
-    <col min="8" max="8" width="3.33203125" customWidth="1"/>
+    <col min="7" max="7" width="50.77734375" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:8" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="3"/>
-      <c r="D6" s="5" t="s">
+    <row r="6" spans="3:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="2"/>
+      <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>2024</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
+      <c r="D12" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="3:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="3:8" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="46"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="47"/>
+    </row>
+    <row r="16" spans="3:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="46"/>
+      <c r="D16" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="4">
+        <v>20</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="47"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="46"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="47"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="46"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="47"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="46"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="47"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="46"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="47"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="46"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="47"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="G14:G16"/>
   </mergeCells>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>shift_late_income_status="Inactive"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14" xr:uid="{6B192520-5A4C-4D5F-8536-BD2F2AFF5C8B}">
+      <formula1>"Active ,Inactive"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1016,485 +2098,7734 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71143E16-495D-40B9-BE9F-59CF5F496BCC}">
-  <dimension ref="C1:Q21"/>
+  <dimension ref="C1:CW53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="2.88671875" customWidth="1"/>
     <col min="3" max="3" width="26.109375" customWidth="1"/>
     <col min="4" max="4" width="1.6640625" customWidth="1"/>
-    <col min="14" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="8.88671875" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="16" width="9.5546875" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="1.5546875" customWidth="1"/>
+    <col min="19" max="27" width="8.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="30" width="9.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="8.88671875" collapsed="1"/>
+    <col min="32" max="32" width="1.5546875" customWidth="1"/>
+    <col min="33" max="41" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="42" max="44" width="9.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="45" max="45" width="8.88671875" collapsed="1"/>
+    <col min="46" max="46" width="1.5546875" customWidth="1"/>
+    <col min="47" max="55" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="56" max="58" width="9.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="59" max="59" width="8.88671875" collapsed="1"/>
+    <col min="60" max="60" width="1.5546875" customWidth="1"/>
+    <col min="61" max="69" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="70" max="72" width="9.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="73" max="73" width="8.88671875" collapsed="1"/>
+    <col min="74" max="74" width="1.5546875" customWidth="1"/>
+    <col min="75" max="83" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="84" max="86" width="9.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="87" max="87" width="8.88671875" collapsed="1"/>
+    <col min="88" max="88" width="1.5546875" customWidth="1"/>
+    <col min="89" max="97" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="98" max="100" width="9.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="101" max="101" width="8.88671875" collapsed="1"/>
+    <col min="102" max="102" width="1.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:17" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="18" t="s">
+    <row r="1" spans="3:101" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="E2" s="17"/>
-    </row>
-    <row r="4" spans="3:17" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="15">
+    <row r="4" spans="3:101" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="35">
         <f>starting_year</f>
         <v>2024</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="S4" s="35">
+        <f>E4+1</f>
+        <v>2025</v>
+      </c>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AG4" s="35">
+        <f>S4+1</f>
+        <v>2026</v>
+      </c>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35"/>
+      <c r="AM4" s="35"/>
+      <c r="AN4" s="35"/>
+      <c r="AO4" s="35"/>
+      <c r="AP4" s="35"/>
+      <c r="AQ4" s="35"/>
+      <c r="AR4" s="35"/>
+      <c r="AS4" s="35"/>
+      <c r="AU4" s="35">
+        <f>AG4+1</f>
+        <v>2027</v>
+      </c>
+      <c r="AV4" s="35"/>
+      <c r="AW4" s="35"/>
+      <c r="AX4" s="35"/>
+      <c r="AY4" s="35"/>
+      <c r="AZ4" s="35"/>
+      <c r="BA4" s="35"/>
+      <c r="BB4" s="35"/>
+      <c r="BC4" s="35"/>
+      <c r="BD4" s="35"/>
+      <c r="BE4" s="35"/>
+      <c r="BF4" s="35"/>
+      <c r="BG4" s="35"/>
+      <c r="BI4" s="35">
+        <f>AU4+1</f>
+        <v>2028</v>
+      </c>
+      <c r="BJ4" s="35"/>
+      <c r="BK4" s="35"/>
+      <c r="BL4" s="35"/>
+      <c r="BM4" s="35"/>
+      <c r="BN4" s="35"/>
+      <c r="BO4" s="35"/>
+      <c r="BP4" s="35"/>
+      <c r="BQ4" s="35"/>
+      <c r="BR4" s="35"/>
+      <c r="BS4" s="35"/>
+      <c r="BT4" s="35"/>
+      <c r="BU4" s="35"/>
+      <c r="BW4" s="35">
+        <f>BI4+1</f>
+        <v>2029</v>
+      </c>
+      <c r="BX4" s="35"/>
+      <c r="BY4" s="35"/>
+      <c r="BZ4" s="35"/>
+      <c r="CA4" s="35"/>
+      <c r="CB4" s="35"/>
+      <c r="CC4" s="35"/>
+      <c r="CD4" s="35"/>
+      <c r="CE4" s="35"/>
+      <c r="CF4" s="35"/>
+      <c r="CG4" s="35"/>
+      <c r="CH4" s="35"/>
+      <c r="CI4" s="35"/>
+      <c r="CK4" s="35">
+        <f>BW4+1</f>
+        <v>2030</v>
+      </c>
+      <c r="CL4" s="35"/>
+      <c r="CM4" s="35"/>
+      <c r="CN4" s="35"/>
+      <c r="CO4" s="35"/>
+      <c r="CP4" s="35"/>
+      <c r="CQ4" s="35"/>
+      <c r="CR4" s="35"/>
+      <c r="CS4" s="35"/>
+      <c r="CT4" s="35"/>
+      <c r="CU4" s="35"/>
+      <c r="CV4" s="35"/>
+      <c r="CW4" s="35"/>
     </row>
-    <row r="5" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
+    <row r="5" spans="3:101" x14ac:dyDescent="0.3">
+      <c r="C5" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="28" t="str">
+        <f ca="1">IF(F6=0,"Jan ✅",IF(F6&lt;0,"Jan ⏫","Jan ⏬"))</f>
+        <v>Jan ✅</v>
+      </c>
+      <c r="F5" s="28" t="str">
+        <f ca="1">IF(F6=0,"Feb ✅",IF(F6&lt;0,"Feb ⏫","Feb ⏬"))</f>
+        <v>Feb ✅</v>
+      </c>
+      <c r="G5" s="28" t="str">
+        <f ca="1">IF(G6=0,"Mar ✅",IF(G6&lt;0,"Mar ⏫","Mar ⏬"))</f>
+        <v>Mar ✅</v>
+      </c>
+      <c r="H5" s="28" t="str">
+        <f ca="1">IF(H6=0,"Apr ✅",IF(H6&lt;0,"Apr ⏫","Apr ⏬"))</f>
+        <v>Apr ✅</v>
+      </c>
+      <c r="I5" s="28" t="str">
+        <f ca="1">IF(I6=0,"May ✅",IF(I6&lt;0,"May ⏫","May ⏬"))</f>
+        <v>May ✅</v>
+      </c>
+      <c r="J5" s="28" t="str">
+        <f ca="1">IF(J6=0,"Jun ✅",IF(J6&lt;0,"Jun ⏫","Jun ⏬"))</f>
+        <v>Jun ✅</v>
+      </c>
+      <c r="K5" s="28" t="str">
+        <f ca="1">IF(K6=0,"Jul ✅",IF(K6&lt;0,"Jul ⏫","Jul ⏬"))</f>
+        <v>Jul ✅</v>
+      </c>
+      <c r="L5" s="28" t="str">
+        <f ca="1">IF(L6=0,"Aug ✅",IF(L6&lt;0,"Aug ⏫","Aug ⏬"))</f>
+        <v>Aug ✅</v>
+      </c>
+      <c r="M5" s="28" t="str">
+        <f ca="1">IF(M6=0,"Sep ✅",IF(M6&lt;0,"Sep ⏫","Sep ⏬"))</f>
+        <v>Sep ✅</v>
+      </c>
+      <c r="N5" s="28" t="str">
+        <f ca="1">IF(N6=0,"Oct ✅",IF(N6&lt;0,"Oct ⏫","Oct ⏬"))</f>
+        <v>Oct ✅</v>
+      </c>
+      <c r="O5" s="28" t="str">
+        <f ca="1">IF(O6=0,"Nov ✅",IF(O6&lt;0,"Nov ⏫","Nov ⏬"))</f>
+        <v>Nov ✅</v>
+      </c>
+      <c r="P5" s="28" t="str">
+        <f ca="1">IF(P6=0,"Dec ✅",IF(P6&lt;0,"Dec ⏫","Dec ⏬"))</f>
+        <v>Dec ✅</v>
+      </c>
+      <c r="Q5" s="29" t="str">
+        <f ca="1">IF(Q6=0,"Total ✅",IF(Q6&lt;0,"Total ⏫","Total ⏬"))</f>
+        <v>Total ✅</v>
+      </c>
+      <c r="S5" s="28" t="str">
+        <f ca="1">IF(S6=0,"Jan ✅",IF(S6&lt;0,"Jan ⏫","Jan ⏬"))</f>
+        <v>Jan ⏬</v>
+      </c>
+      <c r="T5" s="28" t="str">
+        <f ca="1">IF(T6=0,"Feb ✅",IF(T6&lt;0,"Feb ⏫","Feb ⏬"))</f>
+        <v>Feb ✅</v>
+      </c>
+      <c r="U5" s="28" t="str">
+        <f ca="1">IF(U6=0,"Mar ✅",IF(U6&lt;0,"Mar ⏫","Mar ⏬"))</f>
+        <v>Mar ⏬</v>
+      </c>
+      <c r="V5" s="28" t="str">
+        <f ca="1">IF(V6=0,"Apr ✅",IF(V6&lt;0,"Apr ⏫","Apr ⏬"))</f>
+        <v>Apr ✅</v>
+      </c>
+      <c r="W5" s="28" t="str">
+        <f ca="1">IF(W6=0,"May ✅",IF(W6&lt;0,"May ⏫","May ⏬"))</f>
+        <v>May ✅</v>
+      </c>
+      <c r="X5" s="28" t="str">
+        <f ca="1">IF(X6=0,"Jun ✅",IF(X6&lt;0,"Jun ⏫","Jun ⏬"))</f>
+        <v>Jun ✅</v>
+      </c>
+      <c r="Y5" s="28" t="str">
+        <f ca="1">IF(Y6=0,"Jul ✅",IF(Y6&lt;0,"Jul ⏫","Jul ⏬"))</f>
+        <v>Jul ✅</v>
+      </c>
+      <c r="Z5" s="28" t="str">
+        <f ca="1">IF(Z6=0,"Aug ✅",IF(Z6&lt;0,"Aug ⏫","Aug ⏬"))</f>
+        <v>Aug ✅</v>
+      </c>
+      <c r="AA5" s="28" t="str">
+        <f ca="1">IF(AA6=0,"Sep ✅",IF(AA6&lt;0,"Sep ⏫","Sep ⏬"))</f>
+        <v>Sep ✅</v>
+      </c>
+      <c r="AB5" s="28" t="str">
+        <f ca="1">IF(AB6=0,"Oct ✅",IF(AB6&lt;0,"Oct ⏫","Oct ⏬"))</f>
+        <v>Oct ✅</v>
+      </c>
+      <c r="AC5" s="28" t="str">
+        <f ca="1">IF(AC6=0,"Nov ✅",IF(AC6&lt;0,"Nov ⏫","Nov ⏬"))</f>
+        <v>Nov ✅</v>
+      </c>
+      <c r="AD5" s="28" t="str">
+        <f ca="1">IF(AD6=0,"Dec ✅",IF(AD6&lt;0,"Dec ⏫","Dec ⏬"))</f>
+        <v>Dec ✅</v>
+      </c>
+      <c r="AE5" s="29" t="str">
+        <f ca="1">IF(AE6=0,"Total ✅",IF(AE6&lt;0,"Total ⏫","Total ⏬"))</f>
+        <v>Total ⏬</v>
+      </c>
+      <c r="AG5" s="28" t="str">
+        <f ca="1">IF(AG6=0,"Jan ✅",IF(AG6&lt;0,"Jan ⏫","Jan ⏬"))</f>
+        <v>Jan ⏬</v>
+      </c>
+      <c r="AH5" s="28" t="str">
+        <f ca="1">IF(AH6=0,"Feb ✅",IF(AH6&lt;0,"Feb ⏫","Feb ⏬"))</f>
+        <v>Feb ✅</v>
+      </c>
+      <c r="AI5" s="28" t="str">
+        <f ca="1">IF(AI6=0,"Mar ✅",IF(AI6&lt;0,"Mar ⏫","Mar ⏬"))</f>
+        <v>Mar ⏬</v>
+      </c>
+      <c r="AJ5" s="28" t="str">
+        <f ca="1">IF(AJ6=0,"Apr ✅",IF(AJ6&lt;0,"Apr ⏫","Apr ⏬"))</f>
+        <v>Apr ✅</v>
+      </c>
+      <c r="AK5" s="28" t="str">
+        <f ca="1">IF(AK6=0,"May ✅",IF(AK6&lt;0,"May ⏫","May ⏬"))</f>
+        <v>May ✅</v>
+      </c>
+      <c r="AL5" s="28" t="str">
+        <f ca="1">IF(AL6=0,"Jun ✅",IF(AL6&lt;0,"Jun ⏫","Jun ⏬"))</f>
+        <v>Jun ✅</v>
+      </c>
+      <c r="AM5" s="28" t="str">
+        <f ca="1">IF(AM6=0,"Jul ✅",IF(AM6&lt;0,"Jul ⏫","Jul ⏬"))</f>
+        <v>Jul ✅</v>
+      </c>
+      <c r="AN5" s="28" t="str">
+        <f ca="1">IF(AN6=0,"Aug ✅",IF(AN6&lt;0,"Aug ⏫","Aug ⏬"))</f>
+        <v>Aug ✅</v>
+      </c>
+      <c r="AO5" s="28" t="str">
+        <f ca="1">IF(AO6=0,"Sep ✅",IF(AO6&lt;0,"Sep ⏫","Sep ⏬"))</f>
+        <v>Sep ✅</v>
+      </c>
+      <c r="AP5" s="28" t="str">
+        <f ca="1">IF(AP6=0,"Oct ✅",IF(AP6&lt;0,"Oct ⏫","Oct ⏬"))</f>
+        <v>Oct ✅</v>
+      </c>
+      <c r="AQ5" s="28" t="str">
+        <f ca="1">IF(AQ6=0,"Nov ✅",IF(AQ6&lt;0,"Nov ⏫","Nov ⏬"))</f>
+        <v>Nov ✅</v>
+      </c>
+      <c r="AR5" s="28" t="str">
+        <f ca="1">IF(AR6=0,"Dec ✅",IF(AR6&lt;0,"Dec ⏫","Dec ⏬"))</f>
+        <v>Dec ✅</v>
+      </c>
+      <c r="AS5" s="29" t="str">
+        <f ca="1">IF(AS6=0,"Total ✅",IF(AS6&lt;0,"Total ⏫","Total ⏬"))</f>
+        <v>Total ⏬</v>
+      </c>
+      <c r="AU5" s="28" t="str">
+        <f ca="1">IF(AU6=0,"Jan ✅",IF(AU6&lt;0,"Jan ⏫","Jan ⏬"))</f>
+        <v>Jan ⏬</v>
+      </c>
+      <c r="AV5" s="28" t="str">
+        <f ca="1">IF(AV6=0,"Feb ✅",IF(AV6&lt;0,"Feb ⏫","Feb ⏬"))</f>
+        <v>Feb ✅</v>
+      </c>
+      <c r="AW5" s="28" t="str">
+        <f ca="1">IF(AW6=0,"Mar ✅",IF(AW6&lt;0,"Mar ⏫","Mar ⏬"))</f>
+        <v>Mar ⏬</v>
+      </c>
+      <c r="AX5" s="28" t="str">
+        <f ca="1">IF(AX6=0,"Apr ✅",IF(AX6&lt;0,"Apr ⏫","Apr ⏬"))</f>
+        <v>Apr ✅</v>
+      </c>
+      <c r="AY5" s="28" t="str">
+        <f ca="1">IF(AY6=0,"May ✅",IF(AY6&lt;0,"May ⏫","May ⏬"))</f>
+        <v>May ✅</v>
+      </c>
+      <c r="AZ5" s="28" t="str">
+        <f ca="1">IF(AZ6=0,"Jun ✅",IF(AZ6&lt;0,"Jun ⏫","Jun ⏬"))</f>
+        <v>Jun ✅</v>
+      </c>
+      <c r="BA5" s="28" t="str">
+        <f ca="1">IF(BA6=0,"Jul ✅",IF(BA6&lt;0,"Jul ⏫","Jul ⏬"))</f>
+        <v>Jul ✅</v>
+      </c>
+      <c r="BB5" s="28" t="str">
+        <f ca="1">IF(BB6=0,"Aug ✅",IF(BB6&lt;0,"Aug ⏫","Aug ⏬"))</f>
+        <v>Aug ✅</v>
+      </c>
+      <c r="BC5" s="28" t="str">
+        <f ca="1">IF(BC6=0,"Sep ✅",IF(BC6&lt;0,"Sep ⏫","Sep ⏬"))</f>
+        <v>Sep ✅</v>
+      </c>
+      <c r="BD5" s="28" t="str">
+        <f ca="1">IF(BD6=0,"Oct ✅",IF(BD6&lt;0,"Oct ⏫","Oct ⏬"))</f>
+        <v>Oct ✅</v>
+      </c>
+      <c r="BE5" s="28" t="str">
+        <f ca="1">IF(BE6=0,"Nov ✅",IF(BE6&lt;0,"Nov ⏫","Nov ⏬"))</f>
+        <v>Nov ✅</v>
+      </c>
+      <c r="BF5" s="28" t="str">
+        <f ca="1">IF(BF6=0,"Dec ✅",IF(BF6&lt;0,"Dec ⏫","Dec ⏬"))</f>
+        <v>Dec ✅</v>
+      </c>
+      <c r="BG5" s="29" t="str">
+        <f ca="1">IF(BG6=0,"Total ✅",IF(BG6&lt;0,"Total ⏫","Total ⏬"))</f>
+        <v>Total ⏬</v>
+      </c>
+      <c r="BI5" s="28" t="str">
+        <f ca="1">IF(BI6=0,"Jan ✅",IF(BI6&lt;0,"Jan ⏫","Jan ⏬"))</f>
+        <v>Jan ⏬</v>
+      </c>
+      <c r="BJ5" s="28" t="str">
+        <f ca="1">IF(BJ6=0,"Feb ✅",IF(BJ6&lt;0,"Feb ⏫","Feb ⏬"))</f>
+        <v>Feb ✅</v>
+      </c>
+      <c r="BK5" s="28" t="str">
+        <f ca="1">IF(BK6=0,"Mar ✅",IF(BK6&lt;0,"Mar ⏫","Mar ⏬"))</f>
+        <v>Mar ⏬</v>
+      </c>
+      <c r="BL5" s="28" t="str">
+        <f ca="1">IF(BL6=0,"Apr ✅",IF(BL6&lt;0,"Apr ⏫","Apr ⏬"))</f>
+        <v>Apr ✅</v>
+      </c>
+      <c r="BM5" s="28" t="str">
+        <f ca="1">IF(BM6=0,"May ✅",IF(BM6&lt;0,"May ⏫","May ⏬"))</f>
+        <v>May ✅</v>
+      </c>
+      <c r="BN5" s="28" t="str">
+        <f ca="1">IF(BN6=0,"Jun ✅",IF(BN6&lt;0,"Jun ⏫","Jun ⏬"))</f>
+        <v>Jun ✅</v>
+      </c>
+      <c r="BO5" s="28" t="str">
+        <f ca="1">IF(BO6=0,"Jul ✅",IF(BO6&lt;0,"Jul ⏫","Jul ⏬"))</f>
+        <v>Jul ✅</v>
+      </c>
+      <c r="BP5" s="28" t="str">
+        <f ca="1">IF(BP6=0,"Aug ✅",IF(BP6&lt;0,"Aug ⏫","Aug ⏬"))</f>
+        <v>Aug ✅</v>
+      </c>
+      <c r="BQ5" s="28" t="str">
+        <f ca="1">IF(BQ6=0,"Sep ✅",IF(BQ6&lt;0,"Sep ⏫","Sep ⏬"))</f>
+        <v>Sep ✅</v>
+      </c>
+      <c r="BR5" s="28" t="str">
+        <f ca="1">IF(BR6=0,"Oct ✅",IF(BR6&lt;0,"Oct ⏫","Oct ⏬"))</f>
+        <v>Oct ✅</v>
+      </c>
+      <c r="BS5" s="28" t="str">
+        <f ca="1">IF(BS6=0,"Nov ✅",IF(BS6&lt;0,"Nov ⏫","Nov ⏬"))</f>
+        <v>Nov ✅</v>
+      </c>
+      <c r="BT5" s="28" t="str">
+        <f ca="1">IF(BT6=0,"Dec ✅",IF(BT6&lt;0,"Dec ⏫","Dec ⏬"))</f>
+        <v>Dec ✅</v>
+      </c>
+      <c r="BU5" s="29" t="str">
+        <f ca="1">IF(BU6=0,"Total ✅",IF(BU6&lt;0,"Total ⏫","Total ⏬"))</f>
+        <v>Total ⏬</v>
+      </c>
+      <c r="BW5" s="28" t="str">
+        <f ca="1">IF(BW6=0,"Jan ✅",IF(BW6&lt;0,"Jan ⏫","Jan ⏬"))</f>
+        <v>Jan ⏬</v>
+      </c>
+      <c r="BX5" s="28" t="str">
+        <f ca="1">IF(BX6=0,"Feb ✅",IF(BX6&lt;0,"Feb ⏫","Feb ⏬"))</f>
+        <v>Feb ✅</v>
+      </c>
+      <c r="BY5" s="28" t="str">
+        <f ca="1">IF(BY6=0,"Mar ✅",IF(BY6&lt;0,"Mar ⏫","Mar ⏬"))</f>
+        <v>Mar ⏬</v>
+      </c>
+      <c r="BZ5" s="28" t="str">
+        <f ca="1">IF(BZ6=0,"Apr ✅",IF(BZ6&lt;0,"Apr ⏫","Apr ⏬"))</f>
+        <v>Apr ✅</v>
+      </c>
+      <c r="CA5" s="28" t="str">
+        <f ca="1">IF(CA6=0,"May ✅",IF(CA6&lt;0,"May ⏫","May ⏬"))</f>
+        <v>May ✅</v>
+      </c>
+      <c r="CB5" s="28" t="str">
+        <f ca="1">IF(CB6=0,"Jun ✅",IF(CB6&lt;0,"Jun ⏫","Jun ⏬"))</f>
+        <v>Jun ✅</v>
+      </c>
+      <c r="CC5" s="28" t="str">
+        <f ca="1">IF(CC6=0,"Jul ✅",IF(CC6&lt;0,"Jul ⏫","Jul ⏬"))</f>
+        <v>Jul ✅</v>
+      </c>
+      <c r="CD5" s="28" t="str">
+        <f ca="1">IF(CD6=0,"Aug ✅",IF(CD6&lt;0,"Aug ⏫","Aug ⏬"))</f>
+        <v>Aug ✅</v>
+      </c>
+      <c r="CE5" s="28" t="str">
+        <f ca="1">IF(CE6=0,"Sep ✅",IF(CE6&lt;0,"Sep ⏫","Sep ⏬"))</f>
+        <v>Sep ✅</v>
+      </c>
+      <c r="CF5" s="28" t="str">
+        <f ca="1">IF(CF6=0,"Oct ✅",IF(CF6&lt;0,"Oct ⏫","Oct ⏬"))</f>
+        <v>Oct ✅</v>
+      </c>
+      <c r="CG5" s="28" t="str">
+        <f ca="1">IF(CG6=0,"Nov ✅",IF(CG6&lt;0,"Nov ⏫","Nov ⏬"))</f>
+        <v>Nov ✅</v>
+      </c>
+      <c r="CH5" s="28" t="str">
+        <f ca="1">IF(CH6=0,"Dec ✅",IF(CH6&lt;0,"Dec ⏫","Dec ⏬"))</f>
+        <v>Dec ✅</v>
+      </c>
+      <c r="CI5" s="29" t="str">
+        <f ca="1">IF(CI6=0,"Total ✅",IF(CI6&lt;0,"Total ⏫","Total ⏬"))</f>
+        <v>Total ⏬</v>
+      </c>
+      <c r="CK5" s="28" t="str">
+        <f ca="1">IF(CK6=0,"Jan ✅",IF(CK6&lt;0,"Jan ⏫","Jan ⏬"))</f>
+        <v>Jan ⏬</v>
+      </c>
+      <c r="CL5" s="28" t="str">
+        <f ca="1">IF(CL6=0,"Feb ✅",IF(CL6&lt;0,"Feb ⏫","Feb ⏬"))</f>
+        <v>Feb ✅</v>
+      </c>
+      <c r="CM5" s="28" t="str">
+        <f ca="1">IF(CM6=0,"Mar ✅",IF(CM6&lt;0,"Mar ⏫","Mar ⏬"))</f>
+        <v>Mar ⏬</v>
+      </c>
+      <c r="CN5" s="28" t="str">
+        <f ca="1">IF(CN6=0,"Apr ✅",IF(CN6&lt;0,"Apr ⏫","Apr ⏬"))</f>
+        <v>Apr ✅</v>
+      </c>
+      <c r="CO5" s="28" t="str">
+        <f ca="1">IF(CO6=0,"May ✅",IF(CO6&lt;0,"May ⏫","May ⏬"))</f>
+        <v>May ✅</v>
+      </c>
+      <c r="CP5" s="28" t="str">
+        <f ca="1">IF(CP6=0,"Jun ✅",IF(CP6&lt;0,"Jun ⏫","Jun ⏬"))</f>
+        <v>Jun ✅</v>
+      </c>
+      <c r="CQ5" s="28" t="str">
+        <f ca="1">IF(CQ6=0,"Jul ✅",IF(CQ6&lt;0,"Jul ⏫","Jul ⏬"))</f>
+        <v>Jul ✅</v>
+      </c>
+      <c r="CR5" s="28" t="str">
+        <f ca="1">IF(CR6=0,"Aug ✅",IF(CR6&lt;0,"Aug ⏫","Aug ⏬"))</f>
+        <v>Aug ✅</v>
+      </c>
+      <c r="CS5" s="28" t="str">
+        <f ca="1">IF(CS6=0,"Sep ✅",IF(CS6&lt;0,"Sep ⏫","Sep ⏬"))</f>
+        <v>Sep ✅</v>
+      </c>
+      <c r="CT5" s="28" t="str">
+        <f ca="1">IF(CT6=0,"Oct ✅",IF(CT6&lt;0,"Oct ⏫","Oct ⏬"))</f>
+        <v>Oct ✅</v>
+      </c>
+      <c r="CU5" s="28" t="str">
+        <f ca="1">IF(CU6=0,"Nov ✅",IF(CU6&lt;0,"Nov ⏫","Nov ⏬"))</f>
+        <v>Nov ✅</v>
+      </c>
+      <c r="CV5" s="28" t="str">
+        <f ca="1">IF(CV6=0,"Dec ✅",IF(CV6&lt;0,"Dec ⏫","Dec ⏬"))</f>
+        <v>Dec ✅</v>
+      </c>
+      <c r="CW5" s="29" t="str">
+        <f ca="1">IF(CW6=0,"Total ✅",IF(CW6&lt;0,"Total ⏫","Total ⏬"))</f>
+        <v>Total ⏬</v>
+      </c>
     </row>
-    <row r="6" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
+    <row r="6" spans="3:101" x14ac:dyDescent="0.3">
+      <c r="C6" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="27">
+        <f ca="1">E21-(E37+E53)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="27">
+        <f t="shared" ref="F6:Q6" ca="1" si="0">F21-(F37+F53)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="27">
+        <f ca="1">S21-(S37+S53)</f>
+        <v>68</v>
+      </c>
+      <c r="T6" s="27">
+        <f t="shared" ref="T6:AE6" ca="1" si="1">T21-(T37+T53)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="V6" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="AG6" s="27">
+        <f ca="1">AG21-(AG37+AG53)</f>
+        <v>68</v>
+      </c>
+      <c r="AH6" s="27">
+        <f t="shared" ref="AH6:AS6" ca="1" si="2">AH21-(AH37+AH53)</f>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="27">
+        <f t="shared" ca="1" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="AJ6" s="27">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK6" s="27">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="27">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AM6" s="27">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AN6" s="27">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO6" s="27">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AP6" s="27">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="27">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AR6" s="27">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AS6" s="27">
+        <f t="shared" ca="1" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="AU6" s="27">
+        <f ca="1">AU21-(AU37+AU53)</f>
+        <v>68</v>
+      </c>
+      <c r="AV6" s="27">
+        <f t="shared" ref="AV6:BG6" ca="1" si="3">AV21-(AV37+AV53)</f>
+        <v>0</v>
+      </c>
+      <c r="AW6" s="27">
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="AX6" s="27">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AY6" s="27">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="27">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BA6" s="27">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BB6" s="27">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BC6" s="27">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD6" s="27">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BE6" s="27">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BF6" s="27">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BG6" s="27">
+        <f t="shared" ca="1" si="3"/>
+        <v>108</v>
+      </c>
+      <c r="BI6" s="27">
+        <f ca="1">BI21-(BI37+BI53)</f>
+        <v>68</v>
+      </c>
+      <c r="BJ6" s="27">
+        <f t="shared" ref="BJ6:BU6" ca="1" si="4">BJ21-(BJ37+BJ53)</f>
+        <v>0</v>
+      </c>
+      <c r="BK6" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="BL6" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BM6" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BN6" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BO6" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BP6" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BR6" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BS6" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BT6" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BU6" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="BW6" s="27">
+        <f ca="1">BW21-(BW37+BW53)</f>
+        <v>68</v>
+      </c>
+      <c r="BX6" s="27">
+        <f t="shared" ref="BX6:CI6" ca="1" si="5">BX21-(BX37+BX53)</f>
+        <v>0</v>
+      </c>
+      <c r="BY6" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="BZ6" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CA6" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CB6" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CC6" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CD6" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CE6" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF6" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CG6" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CH6" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CI6" s="27">
+        <f t="shared" ca="1" si="5"/>
+        <v>108</v>
+      </c>
+      <c r="CK6" s="27">
+        <f ca="1">CK21-(CK37+CK53)</f>
+        <v>68</v>
+      </c>
+      <c r="CL6" s="27">
+        <f t="shared" ref="CL6:CW6" ca="1" si="6">CL21-(CL37+CL53)</f>
+        <v>0</v>
+      </c>
+      <c r="CM6" s="27">
+        <f t="shared" ca="1" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="CN6" s="27">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="CO6" s="27">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="CP6" s="27">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="27">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="CR6" s="27">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="CS6" s="27">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="CT6" s="27">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="CU6" s="27">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="CV6" s="27">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="CW6" s="27">
+        <f t="shared" ca="1" si="6"/>
+        <v>108</v>
+      </c>
     </row>
-    <row r="8" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C8" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="24">
+    <row r="8" spans="3:101" x14ac:dyDescent="0.3">
+      <c r="C8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="18">
         <f>DATE(E$4,1,1)</f>
         <v>45292</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="18">
         <f>DATE(E$4,2,1)</f>
         <v>45323</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="18">
         <f>DATE(E$4,3,1)</f>
         <v>45352</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="18">
         <f>DATE(E$4,4,1)</f>
         <v>45383</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="18">
         <f>DATE(E$4,5,1)</f>
         <v>45413</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="18">
         <f>DATE(E$4,6,1)</f>
         <v>45444</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="18">
         <f>DATE(E$4,7,1)</f>
         <v>45474</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="18">
         <f>DATE(E$4,8,1)</f>
         <v>45505</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="18">
         <f>DATE(E$4,9,1)</f>
         <v>45536</v>
       </c>
-      <c r="N8" s="24">
+      <c r="N8" s="18">
         <f>DATE(E$4,10,1)</f>
         <v>45566</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="18">
         <f>DATE(E$4,11,1)</f>
         <v>45597</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8" s="18">
         <f>DATE(E$4,12,1)</f>
         <v>45627</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="17">
         <f>E$4</f>
         <v>2024</v>
       </c>
+      <c r="S8" s="18">
+        <f>DATE(S$4,1,1)</f>
+        <v>45658</v>
+      </c>
+      <c r="T8" s="18">
+        <f>DATE(S$4,2,1)</f>
+        <v>45689</v>
+      </c>
+      <c r="U8" s="18">
+        <f>DATE(S$4,3,1)</f>
+        <v>45717</v>
+      </c>
+      <c r="V8" s="18">
+        <f>DATE(S$4,4,1)</f>
+        <v>45748</v>
+      </c>
+      <c r="W8" s="18">
+        <f>DATE(S$4,5,1)</f>
+        <v>45778</v>
+      </c>
+      <c r="X8" s="18">
+        <f>DATE(S$4,6,1)</f>
+        <v>45809</v>
+      </c>
+      <c r="Y8" s="18">
+        <f>DATE(S$4,7,1)</f>
+        <v>45839</v>
+      </c>
+      <c r="Z8" s="18">
+        <f>DATE(S$4,8,1)</f>
+        <v>45870</v>
+      </c>
+      <c r="AA8" s="18">
+        <f>DATE(S$4,9,1)</f>
+        <v>45901</v>
+      </c>
+      <c r="AB8" s="18">
+        <f>DATE(S$4,10,1)</f>
+        <v>45931</v>
+      </c>
+      <c r="AC8" s="18">
+        <f>DATE(S$4,11,1)</f>
+        <v>45962</v>
+      </c>
+      <c r="AD8" s="18">
+        <f>DATE(S$4,12,1)</f>
+        <v>45992</v>
+      </c>
+      <c r="AE8" s="17">
+        <f>S$4</f>
+        <v>2025</v>
+      </c>
+      <c r="AG8" s="18">
+        <f>DATE(AG$4,1,1)</f>
+        <v>46023</v>
+      </c>
+      <c r="AH8" s="18">
+        <f>DATE(AG$4,2,1)</f>
+        <v>46054</v>
+      </c>
+      <c r="AI8" s="18">
+        <f>DATE(AG$4,3,1)</f>
+        <v>46082</v>
+      </c>
+      <c r="AJ8" s="18">
+        <f>DATE(AG$4,4,1)</f>
+        <v>46113</v>
+      </c>
+      <c r="AK8" s="18">
+        <f>DATE(AG$4,5,1)</f>
+        <v>46143</v>
+      </c>
+      <c r="AL8" s="18">
+        <f>DATE(AG$4,6,1)</f>
+        <v>46174</v>
+      </c>
+      <c r="AM8" s="18">
+        <f>DATE(AG$4,7,1)</f>
+        <v>46204</v>
+      </c>
+      <c r="AN8" s="18">
+        <f>DATE(AG$4,8,1)</f>
+        <v>46235</v>
+      </c>
+      <c r="AO8" s="18">
+        <f>DATE(AG$4,9,1)</f>
+        <v>46266</v>
+      </c>
+      <c r="AP8" s="18">
+        <f>DATE(AG$4,10,1)</f>
+        <v>46296</v>
+      </c>
+      <c r="AQ8" s="18">
+        <f>DATE(AG$4,11,1)</f>
+        <v>46327</v>
+      </c>
+      <c r="AR8" s="18">
+        <f>DATE(AG$4,12,1)</f>
+        <v>46357</v>
+      </c>
+      <c r="AS8" s="17">
+        <f>AG$4</f>
+        <v>2026</v>
+      </c>
+      <c r="AU8" s="18">
+        <f>DATE(AU$4,1,1)</f>
+        <v>46388</v>
+      </c>
+      <c r="AV8" s="18">
+        <f>DATE(AU$4,2,1)</f>
+        <v>46419</v>
+      </c>
+      <c r="AW8" s="18">
+        <f>DATE(AU$4,3,1)</f>
+        <v>46447</v>
+      </c>
+      <c r="AX8" s="18">
+        <f>DATE(AU$4,4,1)</f>
+        <v>46478</v>
+      </c>
+      <c r="AY8" s="18">
+        <f>DATE(AU$4,5,1)</f>
+        <v>46508</v>
+      </c>
+      <c r="AZ8" s="18">
+        <f>DATE(AU$4,6,1)</f>
+        <v>46539</v>
+      </c>
+      <c r="BA8" s="18">
+        <f>DATE(AU$4,7,1)</f>
+        <v>46569</v>
+      </c>
+      <c r="BB8" s="18">
+        <f>DATE(AU$4,8,1)</f>
+        <v>46600</v>
+      </c>
+      <c r="BC8" s="18">
+        <f>DATE(AU$4,9,1)</f>
+        <v>46631</v>
+      </c>
+      <c r="BD8" s="18">
+        <f>DATE(AU$4,10,1)</f>
+        <v>46661</v>
+      </c>
+      <c r="BE8" s="18">
+        <f>DATE(AU$4,11,1)</f>
+        <v>46692</v>
+      </c>
+      <c r="BF8" s="18">
+        <f>DATE(AU$4,12,1)</f>
+        <v>46722</v>
+      </c>
+      <c r="BG8" s="17">
+        <f>AU$4</f>
+        <v>2027</v>
+      </c>
+      <c r="BI8" s="18">
+        <f>DATE(BI$4,1,1)</f>
+        <v>46753</v>
+      </c>
+      <c r="BJ8" s="18">
+        <f>DATE(BI$4,2,1)</f>
+        <v>46784</v>
+      </c>
+      <c r="BK8" s="18">
+        <f>DATE(BI$4,3,1)</f>
+        <v>46813</v>
+      </c>
+      <c r="BL8" s="18">
+        <f>DATE(BI$4,4,1)</f>
+        <v>46844</v>
+      </c>
+      <c r="BM8" s="18">
+        <f>DATE(BI$4,5,1)</f>
+        <v>46874</v>
+      </c>
+      <c r="BN8" s="18">
+        <f>DATE(BI$4,6,1)</f>
+        <v>46905</v>
+      </c>
+      <c r="BO8" s="18">
+        <f>DATE(BI$4,7,1)</f>
+        <v>46935</v>
+      </c>
+      <c r="BP8" s="18">
+        <f>DATE(BI$4,8,1)</f>
+        <v>46966</v>
+      </c>
+      <c r="BQ8" s="18">
+        <f>DATE(BI$4,9,1)</f>
+        <v>46997</v>
+      </c>
+      <c r="BR8" s="18">
+        <f>DATE(BI$4,10,1)</f>
+        <v>47027</v>
+      </c>
+      <c r="BS8" s="18">
+        <f>DATE(BI$4,11,1)</f>
+        <v>47058</v>
+      </c>
+      <c r="BT8" s="18">
+        <f>DATE(BI$4,12,1)</f>
+        <v>47088</v>
+      </c>
+      <c r="BU8" s="17">
+        <f>BI$4</f>
+        <v>2028</v>
+      </c>
+      <c r="BW8" s="18">
+        <f>DATE(BW$4,1,1)</f>
+        <v>47119</v>
+      </c>
+      <c r="BX8" s="18">
+        <f>DATE(BW$4,2,1)</f>
+        <v>47150</v>
+      </c>
+      <c r="BY8" s="18">
+        <f>DATE(BW$4,3,1)</f>
+        <v>47178</v>
+      </c>
+      <c r="BZ8" s="18">
+        <f>DATE(BW$4,4,1)</f>
+        <v>47209</v>
+      </c>
+      <c r="CA8" s="18">
+        <f>DATE(BW$4,5,1)</f>
+        <v>47239</v>
+      </c>
+      <c r="CB8" s="18">
+        <f>DATE(BW$4,6,1)</f>
+        <v>47270</v>
+      </c>
+      <c r="CC8" s="18">
+        <f>DATE(BW$4,7,1)</f>
+        <v>47300</v>
+      </c>
+      <c r="CD8" s="18">
+        <f>DATE(BW$4,8,1)</f>
+        <v>47331</v>
+      </c>
+      <c r="CE8" s="18">
+        <f>DATE(BW$4,9,1)</f>
+        <v>47362</v>
+      </c>
+      <c r="CF8" s="18">
+        <f>DATE(BW$4,10,1)</f>
+        <v>47392</v>
+      </c>
+      <c r="CG8" s="18">
+        <f>DATE(BW$4,11,1)</f>
+        <v>47423</v>
+      </c>
+      <c r="CH8" s="18">
+        <f>DATE(BW$4,12,1)</f>
+        <v>47453</v>
+      </c>
+      <c r="CI8" s="17">
+        <f>BW$4</f>
+        <v>2029</v>
+      </c>
+      <c r="CK8" s="18">
+        <f>DATE(CK$4,1,1)</f>
+        <v>47484</v>
+      </c>
+      <c r="CL8" s="18">
+        <f>DATE(CK$4,2,1)</f>
+        <v>47515</v>
+      </c>
+      <c r="CM8" s="18">
+        <f>DATE(CK$4,3,1)</f>
+        <v>47543</v>
+      </c>
+      <c r="CN8" s="18">
+        <f>DATE(CK$4,4,1)</f>
+        <v>47574</v>
+      </c>
+      <c r="CO8" s="18">
+        <f>DATE(CK$4,5,1)</f>
+        <v>47604</v>
+      </c>
+      <c r="CP8" s="18">
+        <f>DATE(CK$4,6,1)</f>
+        <v>47635</v>
+      </c>
+      <c r="CQ8" s="18">
+        <f>DATE(CK$4,7,1)</f>
+        <v>47665</v>
+      </c>
+      <c r="CR8" s="18">
+        <f>DATE(CK$4,8,1)</f>
+        <v>47696</v>
+      </c>
+      <c r="CS8" s="18">
+        <f>DATE(CK$4,9,1)</f>
+        <v>47727</v>
+      </c>
+      <c r="CT8" s="18">
+        <f>DATE(CK$4,10,1)</f>
+        <v>47757</v>
+      </c>
+      <c r="CU8" s="18">
+        <f>DATE(CK$4,11,1)</f>
+        <v>47788</v>
+      </c>
+      <c r="CV8" s="18">
+        <f>DATE(CK$4,12,1)</f>
+        <v>47818</v>
+      </c>
+      <c r="CW8" s="17">
+        <f>CK$4</f>
+        <v>2030</v>
+      </c>
     </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C9" s="25" t="s">
+    <row r="9" spans="3:101" x14ac:dyDescent="0.3">
+      <c r="C9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20">
+        <f>SUM(E9:P9)</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="20">
+        <v>2</v>
+      </c>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="22">
+        <f>SUM(S9:AD9)</f>
+        <v>2</v>
+      </c>
+      <c r="AG9" s="20">
+        <v>2</v>
+      </c>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="20"/>
+      <c r="AL9" s="20"/>
+      <c r="AM9" s="20"/>
+      <c r="AN9" s="20"/>
+      <c r="AO9" s="20"/>
+      <c r="AP9" s="20"/>
+      <c r="AQ9" s="20"/>
+      <c r="AR9" s="20"/>
+      <c r="AS9" s="22">
+        <f>SUM(AG9:AR9)</f>
+        <v>2</v>
+      </c>
+      <c r="AU9" s="20">
+        <v>2</v>
+      </c>
+      <c r="AV9" s="20"/>
+      <c r="AW9" s="20"/>
+      <c r="AX9" s="20"/>
+      <c r="AY9" s="20"/>
+      <c r="AZ9" s="20"/>
+      <c r="BA9" s="20"/>
+      <c r="BB9" s="20"/>
+      <c r="BC9" s="20"/>
+      <c r="BD9" s="20"/>
+      <c r="BE9" s="20"/>
+      <c r="BF9" s="20"/>
+      <c r="BG9" s="22">
+        <f>SUM(AU9:BF9)</f>
+        <v>2</v>
+      </c>
+      <c r="BI9" s="20">
+        <v>2</v>
+      </c>
+      <c r="BJ9" s="20"/>
+      <c r="BK9" s="20"/>
+      <c r="BL9" s="20"/>
+      <c r="BM9" s="20"/>
+      <c r="BN9" s="20"/>
+      <c r="BO9" s="20"/>
+      <c r="BP9" s="20"/>
+      <c r="BQ9" s="20"/>
+      <c r="BR9" s="20"/>
+      <c r="BS9" s="20"/>
+      <c r="BT9" s="20"/>
+      <c r="BU9" s="22">
+        <f>SUM(BI9:BT9)</f>
+        <v>2</v>
+      </c>
+      <c r="BW9" s="20">
+        <v>2</v>
+      </c>
+      <c r="BX9" s="20"/>
+      <c r="BY9" s="20"/>
+      <c r="BZ9" s="20"/>
+      <c r="CA9" s="20"/>
+      <c r="CB9" s="20"/>
+      <c r="CC9" s="20"/>
+      <c r="CD9" s="20"/>
+      <c r="CE9" s="20"/>
+      <c r="CF9" s="20"/>
+      <c r="CG9" s="20"/>
+      <c r="CH9" s="20"/>
+      <c r="CI9" s="22">
+        <f>SUM(BW9:CH9)</f>
+        <v>2</v>
+      </c>
+      <c r="CK9" s="20">
+        <v>2</v>
+      </c>
+      <c r="CL9" s="20"/>
+      <c r="CM9" s="20"/>
+      <c r="CN9" s="20"/>
+      <c r="CO9" s="20"/>
+      <c r="CP9" s="20"/>
+      <c r="CQ9" s="20"/>
+      <c r="CR9" s="20"/>
+      <c r="CS9" s="20"/>
+      <c r="CT9" s="20"/>
+      <c r="CU9" s="20"/>
+      <c r="CV9" s="20"/>
+      <c r="CW9" s="22">
+        <f>SUM(CK9:CV9)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:101" x14ac:dyDescent="0.3">
+      <c r="C10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="26">
-        <v>1</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="28">
-        <f>SUM(E9:P9)</f>
-        <v>1</v>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20">
+        <f t="shared" ref="Q10:Q12" si="7">SUM(E10:P10)</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="20">
+        <v>21</v>
+      </c>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="22">
+        <f t="shared" ref="AE10:AE20" si="8">SUM(S10:AD10)</f>
+        <v>21</v>
+      </c>
+      <c r="AG10" s="20">
+        <v>21</v>
+      </c>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20"/>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="20"/>
+      <c r="AL10" s="20"/>
+      <c r="AM10" s="20"/>
+      <c r="AN10" s="20"/>
+      <c r="AO10" s="20"/>
+      <c r="AP10" s="20"/>
+      <c r="AQ10" s="20"/>
+      <c r="AR10" s="20"/>
+      <c r="AS10" s="22">
+        <f t="shared" ref="AS10:AS20" si="9">SUM(AG10:AR10)</f>
+        <v>21</v>
+      </c>
+      <c r="AU10" s="20">
+        <v>21</v>
+      </c>
+      <c r="AV10" s="20"/>
+      <c r="AW10" s="20"/>
+      <c r="AX10" s="20"/>
+      <c r="AY10" s="20"/>
+      <c r="AZ10" s="20"/>
+      <c r="BA10" s="20"/>
+      <c r="BB10" s="20"/>
+      <c r="BC10" s="20"/>
+      <c r="BD10" s="20"/>
+      <c r="BE10" s="20"/>
+      <c r="BF10" s="20"/>
+      <c r="BG10" s="22">
+        <f t="shared" ref="BG10:BG20" si="10">SUM(AU10:BF10)</f>
+        <v>21</v>
+      </c>
+      <c r="BI10" s="20">
+        <v>21</v>
+      </c>
+      <c r="BJ10" s="20"/>
+      <c r="BK10" s="20"/>
+      <c r="BL10" s="20"/>
+      <c r="BM10" s="20"/>
+      <c r="BN10" s="20"/>
+      <c r="BO10" s="20"/>
+      <c r="BP10" s="20"/>
+      <c r="BQ10" s="20"/>
+      <c r="BR10" s="20"/>
+      <c r="BS10" s="20"/>
+      <c r="BT10" s="20"/>
+      <c r="BU10" s="22">
+        <f t="shared" ref="BU10:BU20" si="11">SUM(BI10:BT10)</f>
+        <v>21</v>
+      </c>
+      <c r="BW10" s="20">
+        <v>21</v>
+      </c>
+      <c r="BX10" s="20"/>
+      <c r="BY10" s="20"/>
+      <c r="BZ10" s="20"/>
+      <c r="CA10" s="20"/>
+      <c r="CB10" s="20"/>
+      <c r="CC10" s="20"/>
+      <c r="CD10" s="20"/>
+      <c r="CE10" s="20"/>
+      <c r="CF10" s="20"/>
+      <c r="CG10" s="20"/>
+      <c r="CH10" s="20"/>
+      <c r="CI10" s="22">
+        <f t="shared" ref="CI10:CI20" si="12">SUM(BW10:CH10)</f>
+        <v>21</v>
+      </c>
+      <c r="CK10" s="20">
+        <v>21</v>
+      </c>
+      <c r="CL10" s="20"/>
+      <c r="CM10" s="20"/>
+      <c r="CN10" s="20"/>
+      <c r="CO10" s="20"/>
+      <c r="CP10" s="20"/>
+      <c r="CQ10" s="20"/>
+      <c r="CR10" s="20"/>
+      <c r="CS10" s="20"/>
+      <c r="CT10" s="20"/>
+      <c r="CU10" s="20"/>
+      <c r="CV10" s="20"/>
+      <c r="CW10" s="22">
+        <f t="shared" ref="CW10:CW20" si="13">SUM(CK10:CV10)</f>
+        <v>21</v>
       </c>
     </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C10" s="25" t="s">
+    <row r="11" spans="3:101" x14ac:dyDescent="0.3">
+      <c r="C11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="20">
+        <v>191</v>
+      </c>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="22">
+        <f t="shared" si="8"/>
+        <v>191</v>
+      </c>
+      <c r="AG11" s="20">
+        <v>191</v>
+      </c>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="20"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="20"/>
+      <c r="AN11" s="20"/>
+      <c r="AO11" s="20"/>
+      <c r="AP11" s="20"/>
+      <c r="AQ11" s="20"/>
+      <c r="AR11" s="20"/>
+      <c r="AS11" s="22">
+        <f t="shared" si="9"/>
+        <v>191</v>
+      </c>
+      <c r="AU11" s="20">
+        <v>191</v>
+      </c>
+      <c r="AV11" s="20"/>
+      <c r="AW11" s="20"/>
+      <c r="AX11" s="20"/>
+      <c r="AY11" s="20"/>
+      <c r="AZ11" s="20"/>
+      <c r="BA11" s="20"/>
+      <c r="BB11" s="20"/>
+      <c r="BC11" s="20"/>
+      <c r="BD11" s="20"/>
+      <c r="BE11" s="20"/>
+      <c r="BF11" s="20"/>
+      <c r="BG11" s="22">
+        <f t="shared" si="10"/>
+        <v>191</v>
+      </c>
+      <c r="BI11" s="20">
+        <v>191</v>
+      </c>
+      <c r="BJ11" s="20"/>
+      <c r="BK11" s="20"/>
+      <c r="BL11" s="20"/>
+      <c r="BM11" s="20"/>
+      <c r="BN11" s="20"/>
+      <c r="BO11" s="20"/>
+      <c r="BP11" s="20"/>
+      <c r="BQ11" s="20"/>
+      <c r="BR11" s="20"/>
+      <c r="BS11" s="20"/>
+      <c r="BT11" s="20"/>
+      <c r="BU11" s="22">
+        <f t="shared" si="11"/>
+        <v>191</v>
+      </c>
+      <c r="BW11" s="20">
+        <v>191</v>
+      </c>
+      <c r="BX11" s="20"/>
+      <c r="BY11" s="20"/>
+      <c r="BZ11" s="20"/>
+      <c r="CA11" s="20"/>
+      <c r="CB11" s="20"/>
+      <c r="CC11" s="20"/>
+      <c r="CD11" s="20"/>
+      <c r="CE11" s="20"/>
+      <c r="CF11" s="20"/>
+      <c r="CG11" s="20"/>
+      <c r="CH11" s="20"/>
+      <c r="CI11" s="22">
+        <f t="shared" si="12"/>
+        <v>191</v>
+      </c>
+      <c r="CK11" s="20">
+        <v>191</v>
+      </c>
+      <c r="CL11" s="20"/>
+      <c r="CM11" s="20"/>
+      <c r="CN11" s="20"/>
+      <c r="CO11" s="20"/>
+      <c r="CP11" s="20"/>
+      <c r="CQ11" s="20"/>
+      <c r="CR11" s="20"/>
+      <c r="CS11" s="20"/>
+      <c r="CT11" s="20"/>
+      <c r="CU11" s="20"/>
+      <c r="CV11" s="20"/>
+      <c r="CW11" s="22">
+        <f t="shared" si="13"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="3:101" x14ac:dyDescent="0.3">
+      <c r="C12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="20"/>
+      <c r="AL12" s="20"/>
+      <c r="AM12" s="20"/>
+      <c r="AN12" s="20"/>
+      <c r="AO12" s="20"/>
+      <c r="AP12" s="20"/>
+      <c r="AQ12" s="20"/>
+      <c r="AR12" s="20"/>
+      <c r="AS12" s="22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AU12" s="20"/>
+      <c r="AV12" s="20"/>
+      <c r="AW12" s="20"/>
+      <c r="AX12" s="20"/>
+      <c r="AY12" s="20"/>
+      <c r="AZ12" s="20"/>
+      <c r="BA12" s="20"/>
+      <c r="BB12" s="20"/>
+      <c r="BC12" s="20"/>
+      <c r="BD12" s="20"/>
+      <c r="BE12" s="20"/>
+      <c r="BF12" s="20"/>
+      <c r="BG12" s="22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BI12" s="20"/>
+      <c r="BJ12" s="20"/>
+      <c r="BK12" s="20"/>
+      <c r="BL12" s="20"/>
+      <c r="BM12" s="20"/>
+      <c r="BN12" s="20"/>
+      <c r="BO12" s="20"/>
+      <c r="BP12" s="20"/>
+      <c r="BQ12" s="20"/>
+      <c r="BR12" s="20"/>
+      <c r="BS12" s="20"/>
+      <c r="BT12" s="20"/>
+      <c r="BU12" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BW12" s="20"/>
+      <c r="BX12" s="20"/>
+      <c r="BY12" s="20"/>
+      <c r="BZ12" s="20"/>
+      <c r="CA12" s="20"/>
+      <c r="CB12" s="20"/>
+      <c r="CC12" s="20"/>
+      <c r="CD12" s="20"/>
+      <c r="CE12" s="20"/>
+      <c r="CF12" s="20"/>
+      <c r="CG12" s="20"/>
+      <c r="CH12" s="20"/>
+      <c r="CI12" s="22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="CK12" s="20"/>
+      <c r="CL12" s="20"/>
+      <c r="CM12" s="20"/>
+      <c r="CN12" s="20"/>
+      <c r="CO12" s="20"/>
+      <c r="CP12" s="20"/>
+      <c r="CQ12" s="20"/>
+      <c r="CR12" s="20"/>
+      <c r="CS12" s="20"/>
+      <c r="CT12" s="20"/>
+      <c r="CU12" s="20"/>
+      <c r="CV12" s="20"/>
+      <c r="CW12" s="22">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:101" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="20"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="20"/>
+      <c r="AN13" s="20"/>
+      <c r="AO13" s="20"/>
+      <c r="AP13" s="20"/>
+      <c r="AQ13" s="20"/>
+      <c r="AR13" s="20"/>
+      <c r="AS13" s="22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AU13" s="20"/>
+      <c r="AV13" s="20"/>
+      <c r="AW13" s="20"/>
+      <c r="AX13" s="20"/>
+      <c r="AY13" s="20"/>
+      <c r="AZ13" s="20"/>
+      <c r="BA13" s="20"/>
+      <c r="BB13" s="20"/>
+      <c r="BC13" s="20"/>
+      <c r="BD13" s="20"/>
+      <c r="BE13" s="20"/>
+      <c r="BF13" s="20"/>
+      <c r="BG13" s="22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BI13" s="20"/>
+      <c r="BJ13" s="20"/>
+      <c r="BK13" s="20"/>
+      <c r="BL13" s="20"/>
+      <c r="BM13" s="20"/>
+      <c r="BN13" s="20"/>
+      <c r="BO13" s="20"/>
+      <c r="BP13" s="20"/>
+      <c r="BQ13" s="20"/>
+      <c r="BR13" s="20"/>
+      <c r="BS13" s="20"/>
+      <c r="BT13" s="20"/>
+      <c r="BU13" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BW13" s="20"/>
+      <c r="BX13" s="20"/>
+      <c r="BY13" s="20"/>
+      <c r="BZ13" s="20"/>
+      <c r="CA13" s="20"/>
+      <c r="CB13" s="20"/>
+      <c r="CC13" s="20"/>
+      <c r="CD13" s="20"/>
+      <c r="CE13" s="20"/>
+      <c r="CF13" s="20"/>
+      <c r="CG13" s="20"/>
+      <c r="CH13" s="20"/>
+      <c r="CI13" s="22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="CK13" s="20"/>
+      <c r="CL13" s="20"/>
+      <c r="CM13" s="20"/>
+      <c r="CN13" s="20"/>
+      <c r="CO13" s="20"/>
+      <c r="CP13" s="20"/>
+      <c r="CQ13" s="20"/>
+      <c r="CR13" s="20"/>
+      <c r="CS13" s="20"/>
+      <c r="CT13" s="20"/>
+      <c r="CU13" s="20"/>
+      <c r="CV13" s="20"/>
+      <c r="CW13" s="22">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:101" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="20"/>
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="20"/>
+      <c r="AJ14" s="20"/>
+      <c r="AK14" s="20"/>
+      <c r="AL14" s="20"/>
+      <c r="AM14" s="20"/>
+      <c r="AN14" s="20"/>
+      <c r="AO14" s="20"/>
+      <c r="AP14" s="20"/>
+      <c r="AQ14" s="20"/>
+      <c r="AR14" s="20"/>
+      <c r="AS14" s="22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AU14" s="20"/>
+      <c r="AV14" s="20"/>
+      <c r="AW14" s="20"/>
+      <c r="AX14" s="20"/>
+      <c r="AY14" s="20"/>
+      <c r="AZ14" s="20"/>
+      <c r="BA14" s="20"/>
+      <c r="BB14" s="20"/>
+      <c r="BC14" s="20"/>
+      <c r="BD14" s="20"/>
+      <c r="BE14" s="20"/>
+      <c r="BF14" s="20"/>
+      <c r="BG14" s="22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BI14" s="20"/>
+      <c r="BJ14" s="20"/>
+      <c r="BK14" s="20"/>
+      <c r="BL14" s="20"/>
+      <c r="BM14" s="20"/>
+      <c r="BN14" s="20"/>
+      <c r="BO14" s="20"/>
+      <c r="BP14" s="20"/>
+      <c r="BQ14" s="20"/>
+      <c r="BR14" s="20"/>
+      <c r="BS14" s="20"/>
+      <c r="BT14" s="20"/>
+      <c r="BU14" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BW14" s="20"/>
+      <c r="BX14" s="20"/>
+      <c r="BY14" s="20"/>
+      <c r="BZ14" s="20"/>
+      <c r="CA14" s="20"/>
+      <c r="CB14" s="20"/>
+      <c r="CC14" s="20"/>
+      <c r="CD14" s="20"/>
+      <c r="CE14" s="20"/>
+      <c r="CF14" s="20"/>
+      <c r="CG14" s="20"/>
+      <c r="CH14" s="20"/>
+      <c r="CI14" s="22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="CK14" s="20"/>
+      <c r="CL14" s="20"/>
+      <c r="CM14" s="20"/>
+      <c r="CN14" s="20"/>
+      <c r="CO14" s="20"/>
+      <c r="CP14" s="20"/>
+      <c r="CQ14" s="20"/>
+      <c r="CR14" s="20"/>
+      <c r="CS14" s="20"/>
+      <c r="CT14" s="20"/>
+      <c r="CU14" s="20"/>
+      <c r="CV14" s="20"/>
+      <c r="CW14" s="22">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:101" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="20"/>
+      <c r="AE15" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="20"/>
+      <c r="AH15" s="20"/>
+      <c r="AI15" s="20"/>
+      <c r="AJ15" s="20"/>
+      <c r="AK15" s="20"/>
+      <c r="AL15" s="20"/>
+      <c r="AM15" s="20"/>
+      <c r="AN15" s="20"/>
+      <c r="AO15" s="20"/>
+      <c r="AP15" s="20"/>
+      <c r="AQ15" s="20"/>
+      <c r="AR15" s="20"/>
+      <c r="AS15" s="22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AU15" s="20"/>
+      <c r="AV15" s="20"/>
+      <c r="AW15" s="20"/>
+      <c r="AX15" s="20"/>
+      <c r="AY15" s="20"/>
+      <c r="AZ15" s="20"/>
+      <c r="BA15" s="20"/>
+      <c r="BB15" s="20"/>
+      <c r="BC15" s="20"/>
+      <c r="BD15" s="20"/>
+      <c r="BE15" s="20"/>
+      <c r="BF15" s="20"/>
+      <c r="BG15" s="22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BI15" s="20"/>
+      <c r="BJ15" s="20"/>
+      <c r="BK15" s="20"/>
+      <c r="BL15" s="20"/>
+      <c r="BM15" s="20"/>
+      <c r="BN15" s="20"/>
+      <c r="BO15" s="20"/>
+      <c r="BP15" s="20"/>
+      <c r="BQ15" s="20"/>
+      <c r="BR15" s="20"/>
+      <c r="BS15" s="20"/>
+      <c r="BT15" s="20"/>
+      <c r="BU15" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BW15" s="20"/>
+      <c r="BX15" s="20"/>
+      <c r="BY15" s="20"/>
+      <c r="BZ15" s="20"/>
+      <c r="CA15" s="20"/>
+      <c r="CB15" s="20"/>
+      <c r="CC15" s="20"/>
+      <c r="CD15" s="20"/>
+      <c r="CE15" s="20"/>
+      <c r="CF15" s="20"/>
+      <c r="CG15" s="20"/>
+      <c r="CH15" s="20"/>
+      <c r="CI15" s="22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="CK15" s="20"/>
+      <c r="CL15" s="20"/>
+      <c r="CM15" s="20"/>
+      <c r="CN15" s="20"/>
+      <c r="CO15" s="20"/>
+      <c r="CP15" s="20"/>
+      <c r="CQ15" s="20"/>
+      <c r="CR15" s="20"/>
+      <c r="CS15" s="20"/>
+      <c r="CT15" s="20"/>
+      <c r="CU15" s="20"/>
+      <c r="CV15" s="20"/>
+      <c r="CW15" s="22">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:101" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="20"/>
+      <c r="AE16" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="20"/>
+      <c r="AH16" s="20"/>
+      <c r="AI16" s="20"/>
+      <c r="AJ16" s="20"/>
+      <c r="AK16" s="20"/>
+      <c r="AL16" s="20"/>
+      <c r="AM16" s="20"/>
+      <c r="AN16" s="20"/>
+      <c r="AO16" s="20"/>
+      <c r="AP16" s="20"/>
+      <c r="AQ16" s="20"/>
+      <c r="AR16" s="20"/>
+      <c r="AS16" s="22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AU16" s="20"/>
+      <c r="AV16" s="20"/>
+      <c r="AW16" s="20"/>
+      <c r="AX16" s="20"/>
+      <c r="AY16" s="20"/>
+      <c r="AZ16" s="20"/>
+      <c r="BA16" s="20"/>
+      <c r="BB16" s="20"/>
+      <c r="BC16" s="20"/>
+      <c r="BD16" s="20"/>
+      <c r="BE16" s="20"/>
+      <c r="BF16" s="20"/>
+      <c r="BG16" s="22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BI16" s="20"/>
+      <c r="BJ16" s="20"/>
+      <c r="BK16" s="20"/>
+      <c r="BL16" s="20"/>
+      <c r="BM16" s="20"/>
+      <c r="BN16" s="20"/>
+      <c r="BO16" s="20"/>
+      <c r="BP16" s="20"/>
+      <c r="BQ16" s="20"/>
+      <c r="BR16" s="20"/>
+      <c r="BS16" s="20"/>
+      <c r="BT16" s="20"/>
+      <c r="BU16" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BW16" s="20"/>
+      <c r="BX16" s="20"/>
+      <c r="BY16" s="20"/>
+      <c r="BZ16" s="20"/>
+      <c r="CA16" s="20"/>
+      <c r="CB16" s="20"/>
+      <c r="CC16" s="20"/>
+      <c r="CD16" s="20"/>
+      <c r="CE16" s="20"/>
+      <c r="CF16" s="20"/>
+      <c r="CG16" s="20"/>
+      <c r="CH16" s="20"/>
+      <c r="CI16" s="22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="CK16" s="20"/>
+      <c r="CL16" s="20"/>
+      <c r="CM16" s="20"/>
+      <c r="CN16" s="20"/>
+      <c r="CO16" s="20"/>
+      <c r="CP16" s="20"/>
+      <c r="CQ16" s="20"/>
+      <c r="CR16" s="20"/>
+      <c r="CS16" s="20"/>
+      <c r="CT16" s="20"/>
+      <c r="CU16" s="20"/>
+      <c r="CV16" s="20"/>
+      <c r="CW16" s="22">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:101" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="20"/>
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="20"/>
+      <c r="AJ17" s="20"/>
+      <c r="AK17" s="20"/>
+      <c r="AL17" s="20"/>
+      <c r="AM17" s="20"/>
+      <c r="AN17" s="20"/>
+      <c r="AO17" s="20"/>
+      <c r="AP17" s="20"/>
+      <c r="AQ17" s="20"/>
+      <c r="AR17" s="20"/>
+      <c r="AS17" s="22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AU17" s="20"/>
+      <c r="AV17" s="20"/>
+      <c r="AW17" s="20"/>
+      <c r="AX17" s="20"/>
+      <c r="AY17" s="20"/>
+      <c r="AZ17" s="20"/>
+      <c r="BA17" s="20"/>
+      <c r="BB17" s="20"/>
+      <c r="BC17" s="20"/>
+      <c r="BD17" s="20"/>
+      <c r="BE17" s="20"/>
+      <c r="BF17" s="20"/>
+      <c r="BG17" s="22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BI17" s="20"/>
+      <c r="BJ17" s="20"/>
+      <c r="BK17" s="20"/>
+      <c r="BL17" s="20"/>
+      <c r="BM17" s="20"/>
+      <c r="BN17" s="20"/>
+      <c r="BO17" s="20"/>
+      <c r="BP17" s="20"/>
+      <c r="BQ17" s="20"/>
+      <c r="BR17" s="20"/>
+      <c r="BS17" s="20"/>
+      <c r="BT17" s="20"/>
+      <c r="BU17" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BW17" s="20"/>
+      <c r="BX17" s="20"/>
+      <c r="BY17" s="20"/>
+      <c r="BZ17" s="20"/>
+      <c r="CA17" s="20"/>
+      <c r="CB17" s="20"/>
+      <c r="CC17" s="20"/>
+      <c r="CD17" s="20"/>
+      <c r="CE17" s="20"/>
+      <c r="CF17" s="20"/>
+      <c r="CG17" s="20"/>
+      <c r="CH17" s="20"/>
+      <c r="CI17" s="22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="CK17" s="20"/>
+      <c r="CL17" s="20"/>
+      <c r="CM17" s="20"/>
+      <c r="CN17" s="20"/>
+      <c r="CO17" s="20"/>
+      <c r="CP17" s="20"/>
+      <c r="CQ17" s="20"/>
+      <c r="CR17" s="20"/>
+      <c r="CS17" s="20"/>
+      <c r="CT17" s="20"/>
+      <c r="CU17" s="20"/>
+      <c r="CV17" s="20"/>
+      <c r="CW17" s="22">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:101" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="20"/>
+      <c r="AI18" s="20"/>
+      <c r="AJ18" s="20"/>
+      <c r="AK18" s="20"/>
+      <c r="AL18" s="20"/>
+      <c r="AM18" s="20"/>
+      <c r="AN18" s="20"/>
+      <c r="AO18" s="20"/>
+      <c r="AP18" s="20"/>
+      <c r="AQ18" s="20"/>
+      <c r="AR18" s="20"/>
+      <c r="AS18" s="22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AU18" s="20"/>
+      <c r="AV18" s="20"/>
+      <c r="AW18" s="20"/>
+      <c r="AX18" s="20"/>
+      <c r="AY18" s="20"/>
+      <c r="AZ18" s="20"/>
+      <c r="BA18" s="20"/>
+      <c r="BB18" s="20"/>
+      <c r="BC18" s="20"/>
+      <c r="BD18" s="20"/>
+      <c r="BE18" s="20"/>
+      <c r="BF18" s="20"/>
+      <c r="BG18" s="22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BI18" s="20"/>
+      <c r="BJ18" s="20"/>
+      <c r="BK18" s="20"/>
+      <c r="BL18" s="20"/>
+      <c r="BM18" s="20"/>
+      <c r="BN18" s="20"/>
+      <c r="BO18" s="20"/>
+      <c r="BP18" s="20"/>
+      <c r="BQ18" s="20"/>
+      <c r="BR18" s="20"/>
+      <c r="BS18" s="20"/>
+      <c r="BT18" s="20"/>
+      <c r="BU18" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BW18" s="20"/>
+      <c r="BX18" s="20"/>
+      <c r="BY18" s="20"/>
+      <c r="BZ18" s="20"/>
+      <c r="CA18" s="20"/>
+      <c r="CB18" s="20"/>
+      <c r="CC18" s="20"/>
+      <c r="CD18" s="20"/>
+      <c r="CE18" s="20"/>
+      <c r="CF18" s="20"/>
+      <c r="CG18" s="20"/>
+      <c r="CH18" s="20"/>
+      <c r="CI18" s="22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="CK18" s="20"/>
+      <c r="CL18" s="20"/>
+      <c r="CM18" s="20"/>
+      <c r="CN18" s="20"/>
+      <c r="CO18" s="20"/>
+      <c r="CP18" s="20"/>
+      <c r="CQ18" s="20"/>
+      <c r="CR18" s="20"/>
+      <c r="CS18" s="20"/>
+      <c r="CT18" s="20"/>
+      <c r="CU18" s="20"/>
+      <c r="CV18" s="20"/>
+      <c r="CW18" s="22">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:101" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="20"/>
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="20"/>
+      <c r="AJ19" s="20"/>
+      <c r="AK19" s="20"/>
+      <c r="AL19" s="20"/>
+      <c r="AM19" s="20"/>
+      <c r="AN19" s="20"/>
+      <c r="AO19" s="20"/>
+      <c r="AP19" s="20"/>
+      <c r="AQ19" s="20"/>
+      <c r="AR19" s="20"/>
+      <c r="AS19" s="22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AU19" s="20"/>
+      <c r="AV19" s="20"/>
+      <c r="AW19" s="20"/>
+      <c r="AX19" s="20"/>
+      <c r="AY19" s="20"/>
+      <c r="AZ19" s="20"/>
+      <c r="BA19" s="20"/>
+      <c r="BB19" s="20"/>
+      <c r="BC19" s="20"/>
+      <c r="BD19" s="20"/>
+      <c r="BE19" s="20"/>
+      <c r="BF19" s="20"/>
+      <c r="BG19" s="22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BI19" s="20"/>
+      <c r="BJ19" s="20"/>
+      <c r="BK19" s="20"/>
+      <c r="BL19" s="20"/>
+      <c r="BM19" s="20"/>
+      <c r="BN19" s="20"/>
+      <c r="BO19" s="20"/>
+      <c r="BP19" s="20"/>
+      <c r="BQ19" s="20"/>
+      <c r="BR19" s="20"/>
+      <c r="BS19" s="20"/>
+      <c r="BT19" s="20"/>
+      <c r="BU19" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BW19" s="20"/>
+      <c r="BX19" s="20"/>
+      <c r="BY19" s="20"/>
+      <c r="BZ19" s="20"/>
+      <c r="CA19" s="20"/>
+      <c r="CB19" s="20"/>
+      <c r="CC19" s="20"/>
+      <c r="CD19" s="20"/>
+      <c r="CE19" s="20"/>
+      <c r="CF19" s="20"/>
+      <c r="CG19" s="20"/>
+      <c r="CH19" s="20"/>
+      <c r="CI19" s="22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="CK19" s="20"/>
+      <c r="CL19" s="20"/>
+      <c r="CM19" s="20"/>
+      <c r="CN19" s="20"/>
+      <c r="CO19" s="20"/>
+      <c r="CP19" s="20"/>
+      <c r="CQ19" s="20"/>
+      <c r="CR19" s="20"/>
+      <c r="CS19" s="20"/>
+      <c r="CT19" s="20"/>
+      <c r="CU19" s="20"/>
+      <c r="CV19" s="20"/>
+      <c r="CW19" s="22">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:101" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="20"/>
+      <c r="AJ20" s="20"/>
+      <c r="AK20" s="20"/>
+      <c r="AL20" s="20"/>
+      <c r="AM20" s="20"/>
+      <c r="AN20" s="20"/>
+      <c r="AO20" s="20"/>
+      <c r="AP20" s="20"/>
+      <c r="AQ20" s="20"/>
+      <c r="AR20" s="20"/>
+      <c r="AS20" s="22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AU20" s="20"/>
+      <c r="AV20" s="20"/>
+      <c r="AW20" s="20"/>
+      <c r="AX20" s="20"/>
+      <c r="AY20" s="20"/>
+      <c r="AZ20" s="20"/>
+      <c r="BA20" s="20"/>
+      <c r="BB20" s="20"/>
+      <c r="BC20" s="20"/>
+      <c r="BD20" s="20"/>
+      <c r="BE20" s="20"/>
+      <c r="BF20" s="20"/>
+      <c r="BG20" s="22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BI20" s="20"/>
+      <c r="BJ20" s="20"/>
+      <c r="BK20" s="20"/>
+      <c r="BL20" s="20"/>
+      <c r="BM20" s="20"/>
+      <c r="BN20" s="20"/>
+      <c r="BO20" s="20"/>
+      <c r="BP20" s="20"/>
+      <c r="BQ20" s="20"/>
+      <c r="BR20" s="20"/>
+      <c r="BS20" s="20"/>
+      <c r="BT20" s="20"/>
+      <c r="BU20" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BW20" s="20"/>
+      <c r="BX20" s="20"/>
+      <c r="BY20" s="20"/>
+      <c r="BZ20" s="20"/>
+      <c r="CA20" s="20"/>
+      <c r="CB20" s="20"/>
+      <c r="CC20" s="20"/>
+      <c r="CD20" s="20"/>
+      <c r="CE20" s="20"/>
+      <c r="CF20" s="20"/>
+      <c r="CG20" s="20"/>
+      <c r="CH20" s="20"/>
+      <c r="CI20" s="22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="CK20" s="20"/>
+      <c r="CL20" s="20"/>
+      <c r="CM20" s="20"/>
+      <c r="CN20" s="20"/>
+      <c r="CO20" s="20"/>
+      <c r="CP20" s="20"/>
+      <c r="CQ20" s="20"/>
+      <c r="CR20" s="20"/>
+      <c r="CS20" s="20"/>
+      <c r="CT20" s="20"/>
+      <c r="CU20" s="20"/>
+      <c r="CV20" s="20"/>
+      <c r="CW20" s="22">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:101" x14ac:dyDescent="0.3">
+      <c r="C21" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="21" cm="1">
+        <f t="array" aca="1" ref="E21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="21" cm="1">
+        <f t="array" aca="1" ref="F21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="21" cm="1">
+        <f t="array" aca="1" ref="G21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="21" cm="1">
+        <f t="array" aca="1" ref="H21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="21" cm="1">
+        <f t="array" aca="1" ref="I21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="21" cm="1">
+        <f t="array" aca="1" ref="J21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="21" cm="1">
+        <f t="array" aca="1" ref="K21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="21" cm="1">
+        <f t="array" aca="1" ref="L21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="21" cm="1">
+        <f t="array" aca="1" ref="M21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="21" cm="1">
+        <f t="array" aca="1" ref="N21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="21" cm="1">
+        <f t="array" aca="1" ref="O21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="21" cm="1">
+        <f t="array" aca="1" ref="P21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="21" cm="1">
+        <f t="array" aca="1" ref="Q21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="33" cm="1">
+        <f t="array" aca="1" ref="R21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="21" cm="1">
+        <f t="array" aca="1" ref="S21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>214</v>
+      </c>
+      <c r="T21" s="21" cm="1">
+        <f t="array" aca="1" ref="T21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="21" cm="1">
+        <f t="array" aca="1" ref="U21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="21" cm="1">
+        <f t="array" aca="1" ref="V21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="21" cm="1">
+        <f t="array" aca="1" ref="W21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="21" cm="1">
+        <f t="array" aca="1" ref="X21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="21" cm="1">
+        <f t="array" aca="1" ref="Y21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="21" cm="1">
+        <f t="array" aca="1" ref="Z21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="21" cm="1">
+        <f t="array" aca="1" ref="AA21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="21" cm="1">
+        <f t="array" aca="1" ref="AB21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="21" cm="1">
+        <f t="array" aca="1" ref="AC21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="21" cm="1">
+        <f t="array" aca="1" ref="AD21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="21" cm="1">
+        <f t="array" aca="1" ref="AE21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>214</v>
+      </c>
+      <c r="AG21" s="21" cm="1">
+        <f t="array" aca="1" ref="AG21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>214</v>
+      </c>
+      <c r="AH21" s="21" cm="1">
+        <f t="array" aca="1" ref="AH21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AI21" s="21" cm="1">
+        <f t="array" aca="1" ref="AI21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="21" cm="1">
+        <f t="array" aca="1" ref="AJ21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AK21" s="21" cm="1">
+        <f t="array" aca="1" ref="AK21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AL21" s="21" cm="1">
+        <f t="array" aca="1" ref="AL21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AM21" s="21" cm="1">
+        <f t="array" aca="1" ref="AM21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AN21" s="21" cm="1">
+        <f t="array" aca="1" ref="AN21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AO21" s="21" cm="1">
+        <f t="array" aca="1" ref="AO21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AP21" s="21" cm="1">
+        <f t="array" aca="1" ref="AP21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="21" cm="1">
+        <f t="array" aca="1" ref="AQ21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AR21" s="21" cm="1">
+        <f t="array" aca="1" ref="AR21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AS21" s="21" cm="1">
+        <f t="array" aca="1" ref="AS21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>214</v>
+      </c>
+      <c r="AU21" s="21" cm="1">
+        <f t="array" aca="1" ref="AU21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>214</v>
+      </c>
+      <c r="AV21" s="21" cm="1">
+        <f t="array" aca="1" ref="AV21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AW21" s="21" cm="1">
+        <f t="array" aca="1" ref="AW21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AX21" s="21" cm="1">
+        <f t="array" aca="1" ref="AX21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AY21" s="21" cm="1">
+        <f t="array" aca="1" ref="AY21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="21" cm="1">
+        <f t="array" aca="1" ref="AZ21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BA21" s="21" cm="1">
+        <f t="array" aca="1" ref="BA21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BB21" s="21" cm="1">
+        <f t="array" aca="1" ref="BB21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BC21" s="21" cm="1">
+        <f t="array" aca="1" ref="BC21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BD21" s="21" cm="1">
+        <f t="array" aca="1" ref="BD21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BE21" s="21" cm="1">
+        <f t="array" aca="1" ref="BE21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BF21" s="21" cm="1">
+        <f t="array" aca="1" ref="BF21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BG21" s="21" cm="1">
+        <f t="array" aca="1" ref="BG21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>214</v>
+      </c>
+      <c r="BI21" s="21" cm="1">
+        <f t="array" aca="1" ref="BI21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>214</v>
+      </c>
+      <c r="BJ21" s="21" cm="1">
+        <f t="array" aca="1" ref="BJ21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BK21" s="21" cm="1">
+        <f t="array" aca="1" ref="BK21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BL21" s="21" cm="1">
+        <f t="array" aca="1" ref="BL21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BM21" s="21" cm="1">
+        <f t="array" aca="1" ref="BM21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BN21" s="21" cm="1">
+        <f t="array" aca="1" ref="BN21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BO21" s="21" cm="1">
+        <f t="array" aca="1" ref="BO21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BP21" s="21" cm="1">
+        <f t="array" aca="1" ref="BP21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BQ21" s="21" cm="1">
+        <f t="array" aca="1" ref="BQ21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BR21" s="21" cm="1">
+        <f t="array" aca="1" ref="BR21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BS21" s="21" cm="1">
+        <f t="array" aca="1" ref="BS21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BT21" s="21" cm="1">
+        <f t="array" aca="1" ref="BT21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BU21" s="21" cm="1">
+        <f t="array" aca="1" ref="BU21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>214</v>
+      </c>
+      <c r="BW21" s="21" cm="1">
+        <f t="array" aca="1" ref="BW21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>214</v>
+      </c>
+      <c r="BX21" s="21" cm="1">
+        <f t="array" aca="1" ref="BX21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BY21" s="21" cm="1">
+        <f t="array" aca="1" ref="BY21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BZ21" s="21" cm="1">
+        <f t="array" aca="1" ref="BZ21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CA21" s="21" cm="1">
+        <f t="array" aca="1" ref="CA21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CB21" s="21" cm="1">
+        <f t="array" aca="1" ref="CB21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CC21" s="21" cm="1">
+        <f t="array" aca="1" ref="CC21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CD21" s="21" cm="1">
+        <f t="array" aca="1" ref="CD21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CE21" s="21" cm="1">
+        <f t="array" aca="1" ref="CE21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CF21" s="21" cm="1">
+        <f t="array" aca="1" ref="CF21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CG21" s="21" cm="1">
+        <f t="array" aca="1" ref="CG21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CH21" s="21" cm="1">
+        <f t="array" aca="1" ref="CH21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CI21" s="21" cm="1">
+        <f t="array" aca="1" ref="CI21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>214</v>
+      </c>
+      <c r="CK21" s="21" cm="1">
+        <f t="array" aca="1" ref="CK21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>214</v>
+      </c>
+      <c r="CL21" s="21" cm="1">
+        <f t="array" aca="1" ref="CL21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CM21" s="21" cm="1">
+        <f t="array" aca="1" ref="CM21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CN21" s="21" cm="1">
+        <f t="array" aca="1" ref="CN21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CO21" s="21" cm="1">
+        <f t="array" aca="1" ref="CO21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CP21" s="21" cm="1">
+        <f t="array" aca="1" ref="CP21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CQ21" s="21" cm="1">
+        <f t="array" aca="1" ref="CQ21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CR21" s="21" cm="1">
+        <f t="array" aca="1" ref="CR21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CS21" s="21" cm="1">
+        <f t="array" aca="1" ref="CS21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CT21" s="21" cm="1">
+        <f t="array" aca="1" ref="CT21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CU21" s="21" cm="1">
+        <f t="array" aca="1" ref="CU21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CV21" s="21" cm="1">
+        <f t="array" aca="1" ref="CV21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CW21" s="21" cm="1">
+        <f t="array" aca="1" ref="CW21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="3:101" x14ac:dyDescent="0.3">
+      <c r="C24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="23">
+        <f>DATE(E$4,1,1)</f>
+        <v>45292</v>
+      </c>
+      <c r="F24" s="23">
+        <f>DATE(E$4,2,1)</f>
+        <v>45323</v>
+      </c>
+      <c r="G24" s="23">
+        <f>DATE(E$4,3,1)</f>
+        <v>45352</v>
+      </c>
+      <c r="H24" s="23">
+        <f>DATE(E$4,4,1)</f>
+        <v>45383</v>
+      </c>
+      <c r="I24" s="23">
+        <f>DATE(E$4,5,1)</f>
+        <v>45413</v>
+      </c>
+      <c r="J24" s="23">
+        <f>DATE(E$4,6,1)</f>
+        <v>45444</v>
+      </c>
+      <c r="K24" s="23">
+        <f>DATE(E$4,7,1)</f>
+        <v>45474</v>
+      </c>
+      <c r="L24" s="23">
+        <f>DATE(E$4,8,1)</f>
+        <v>45505</v>
+      </c>
+      <c r="M24" s="23">
+        <f>DATE(E$4,9,1)</f>
+        <v>45536</v>
+      </c>
+      <c r="N24" s="23">
+        <f>DATE(E$4,10,1)</f>
+        <v>45566</v>
+      </c>
+      <c r="O24" s="23">
+        <f>DATE(E$4,11,1)</f>
+        <v>45597</v>
+      </c>
+      <c r="P24" s="23">
+        <f>DATE(E$4,12,1)</f>
+        <v>45627</v>
+      </c>
+      <c r="Q24" s="24">
+        <f>E$4</f>
+        <v>2024</v>
+      </c>
+      <c r="S24" s="23">
+        <f>DATE(S$4,1,1)</f>
+        <v>45658</v>
+      </c>
+      <c r="T24" s="23">
+        <f>DATE(S$4,2,1)</f>
+        <v>45689</v>
+      </c>
+      <c r="U24" s="23">
+        <f>DATE(S$4,3,1)</f>
+        <v>45717</v>
+      </c>
+      <c r="V24" s="23">
+        <f>DATE(S$4,4,1)</f>
+        <v>45748</v>
+      </c>
+      <c r="W24" s="23">
+        <f>DATE(S$4,5,1)</f>
+        <v>45778</v>
+      </c>
+      <c r="X24" s="23">
+        <f>DATE(S$4,6,1)</f>
+        <v>45809</v>
+      </c>
+      <c r="Y24" s="23">
+        <f>DATE(S$4,7,1)</f>
+        <v>45839</v>
+      </c>
+      <c r="Z24" s="23">
+        <f>DATE(S$4,8,1)</f>
+        <v>45870</v>
+      </c>
+      <c r="AA24" s="23">
+        <f>DATE(S$4,9,1)</f>
+        <v>45901</v>
+      </c>
+      <c r="AB24" s="23">
+        <f>DATE(S$4,10,1)</f>
+        <v>45931</v>
+      </c>
+      <c r="AC24" s="23">
+        <f>DATE(S$4,11,1)</f>
+        <v>45962</v>
+      </c>
+      <c r="AD24" s="23">
+        <f>DATE(S$4,12,1)</f>
+        <v>45992</v>
+      </c>
+      <c r="AE24" s="24">
+        <f>S$4</f>
+        <v>2025</v>
+      </c>
+      <c r="AG24" s="23">
+        <f>DATE(AG$4,1,1)</f>
+        <v>46023</v>
+      </c>
+      <c r="AH24" s="23">
+        <f>DATE(AG$4,2,1)</f>
+        <v>46054</v>
+      </c>
+      <c r="AI24" s="23">
+        <f>DATE(AG$4,3,1)</f>
+        <v>46082</v>
+      </c>
+      <c r="AJ24" s="23">
+        <f>DATE(AG$4,4,1)</f>
+        <v>46113</v>
+      </c>
+      <c r="AK24" s="23">
+        <f>DATE(AG$4,5,1)</f>
+        <v>46143</v>
+      </c>
+      <c r="AL24" s="23">
+        <f>DATE(AG$4,6,1)</f>
+        <v>46174</v>
+      </c>
+      <c r="AM24" s="23">
+        <f>DATE(AG$4,7,1)</f>
+        <v>46204</v>
+      </c>
+      <c r="AN24" s="23">
+        <f>DATE(AG$4,8,1)</f>
+        <v>46235</v>
+      </c>
+      <c r="AO24" s="23">
+        <f>DATE(AG$4,9,1)</f>
+        <v>46266</v>
+      </c>
+      <c r="AP24" s="23">
+        <f>DATE(AG$4,10,1)</f>
+        <v>46296</v>
+      </c>
+      <c r="AQ24" s="23">
+        <f>DATE(AG$4,11,1)</f>
+        <v>46327</v>
+      </c>
+      <c r="AR24" s="23">
+        <f>DATE(AG$4,12,1)</f>
+        <v>46357</v>
+      </c>
+      <c r="AS24" s="24">
+        <f>AG$4</f>
+        <v>2026</v>
+      </c>
+      <c r="AU24" s="23">
+        <f>DATE(AU$4,1,1)</f>
+        <v>46388</v>
+      </c>
+      <c r="AV24" s="23">
+        <f>DATE(AU$4,2,1)</f>
+        <v>46419</v>
+      </c>
+      <c r="AW24" s="23">
+        <f>DATE(AU$4,3,1)</f>
+        <v>46447</v>
+      </c>
+      <c r="AX24" s="23">
+        <f>DATE(AU$4,4,1)</f>
+        <v>46478</v>
+      </c>
+      <c r="AY24" s="23">
+        <f>DATE(AU$4,5,1)</f>
+        <v>46508</v>
+      </c>
+      <c r="AZ24" s="23">
+        <f>DATE(AU$4,6,1)</f>
+        <v>46539</v>
+      </c>
+      <c r="BA24" s="23">
+        <f>DATE(AU$4,7,1)</f>
+        <v>46569</v>
+      </c>
+      <c r="BB24" s="23">
+        <f>DATE(AU$4,8,1)</f>
+        <v>46600</v>
+      </c>
+      <c r="BC24" s="23">
+        <f>DATE(AU$4,9,1)</f>
+        <v>46631</v>
+      </c>
+      <c r="BD24" s="23">
+        <f>DATE(AU$4,10,1)</f>
+        <v>46661</v>
+      </c>
+      <c r="BE24" s="23">
+        <f>DATE(AU$4,11,1)</f>
+        <v>46692</v>
+      </c>
+      <c r="BF24" s="23">
+        <f>DATE(AU$4,12,1)</f>
+        <v>46722</v>
+      </c>
+      <c r="BG24" s="24">
+        <f>AU$4</f>
+        <v>2027</v>
+      </c>
+      <c r="BI24" s="23">
+        <f>DATE(BI$4,1,1)</f>
+        <v>46753</v>
+      </c>
+      <c r="BJ24" s="23">
+        <f>DATE(BI$4,2,1)</f>
+        <v>46784</v>
+      </c>
+      <c r="BK24" s="23">
+        <f>DATE(BI$4,3,1)</f>
+        <v>46813</v>
+      </c>
+      <c r="BL24" s="23">
+        <f>DATE(BI$4,4,1)</f>
+        <v>46844</v>
+      </c>
+      <c r="BM24" s="23">
+        <f>DATE(BI$4,5,1)</f>
+        <v>46874</v>
+      </c>
+      <c r="BN24" s="23">
+        <f>DATE(BI$4,6,1)</f>
+        <v>46905</v>
+      </c>
+      <c r="BO24" s="23">
+        <f>DATE(BI$4,7,1)</f>
+        <v>46935</v>
+      </c>
+      <c r="BP24" s="23">
+        <f>DATE(BI$4,8,1)</f>
+        <v>46966</v>
+      </c>
+      <c r="BQ24" s="23">
+        <f>DATE(BI$4,9,1)</f>
+        <v>46997</v>
+      </c>
+      <c r="BR24" s="23">
+        <f>DATE(BI$4,10,1)</f>
+        <v>47027</v>
+      </c>
+      <c r="BS24" s="23">
+        <f>DATE(BI$4,11,1)</f>
+        <v>47058</v>
+      </c>
+      <c r="BT24" s="23">
+        <f>DATE(BI$4,12,1)</f>
+        <v>47088</v>
+      </c>
+      <c r="BU24" s="24">
+        <f>BI$4</f>
+        <v>2028</v>
+      </c>
+      <c r="BW24" s="23">
+        <f>DATE(BW$4,1,1)</f>
+        <v>47119</v>
+      </c>
+      <c r="BX24" s="23">
+        <f>DATE(BW$4,2,1)</f>
+        <v>47150</v>
+      </c>
+      <c r="BY24" s="23">
+        <f>DATE(BW$4,3,1)</f>
+        <v>47178</v>
+      </c>
+      <c r="BZ24" s="23">
+        <f>DATE(BW$4,4,1)</f>
+        <v>47209</v>
+      </c>
+      <c r="CA24" s="23">
+        <f>DATE(BW$4,5,1)</f>
+        <v>47239</v>
+      </c>
+      <c r="CB24" s="23">
+        <f>DATE(BW$4,6,1)</f>
+        <v>47270</v>
+      </c>
+      <c r="CC24" s="23">
+        <f>DATE(BW$4,7,1)</f>
+        <v>47300</v>
+      </c>
+      <c r="CD24" s="23">
+        <f>DATE(BW$4,8,1)</f>
+        <v>47331</v>
+      </c>
+      <c r="CE24" s="23">
+        <f>DATE(BW$4,9,1)</f>
+        <v>47362</v>
+      </c>
+      <c r="CF24" s="23">
+        <f>DATE(BW$4,10,1)</f>
+        <v>47392</v>
+      </c>
+      <c r="CG24" s="23">
+        <f>DATE(BW$4,11,1)</f>
+        <v>47423</v>
+      </c>
+      <c r="CH24" s="23">
+        <f>DATE(BW$4,12,1)</f>
+        <v>47453</v>
+      </c>
+      <c r="CI24" s="24">
+        <f>BW$4</f>
+        <v>2029</v>
+      </c>
+      <c r="CK24" s="23">
+        <f>DATE(CK$4,1,1)</f>
+        <v>47484</v>
+      </c>
+      <c r="CL24" s="23">
+        <f>DATE(CK$4,2,1)</f>
+        <v>47515</v>
+      </c>
+      <c r="CM24" s="23">
+        <f>DATE(CK$4,3,1)</f>
+        <v>47543</v>
+      </c>
+      <c r="CN24" s="23">
+        <f>DATE(CK$4,4,1)</f>
+        <v>47574</v>
+      </c>
+      <c r="CO24" s="23">
+        <f>DATE(CK$4,5,1)</f>
+        <v>47604</v>
+      </c>
+      <c r="CP24" s="23">
+        <f>DATE(CK$4,6,1)</f>
+        <v>47635</v>
+      </c>
+      <c r="CQ24" s="23">
+        <f>DATE(CK$4,7,1)</f>
+        <v>47665</v>
+      </c>
+      <c r="CR24" s="23">
+        <f>DATE(CK$4,8,1)</f>
+        <v>47696</v>
+      </c>
+      <c r="CS24" s="23">
+        <f>DATE(CK$4,9,1)</f>
+        <v>47727</v>
+      </c>
+      <c r="CT24" s="23">
+        <f>DATE(CK$4,10,1)</f>
+        <v>47757</v>
+      </c>
+      <c r="CU24" s="23">
+        <f>DATE(CK$4,11,1)</f>
+        <v>47788</v>
+      </c>
+      <c r="CV24" s="23">
+        <f>DATE(CK$4,12,1)</f>
+        <v>47818</v>
+      </c>
+      <c r="CW24" s="24">
+        <f>CK$4</f>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="25" spans="3:101" x14ac:dyDescent="0.3">
+      <c r="C25" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20">
+        <f>SUM(E25:P25)</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="20">
         <v>2</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="28">
-        <f t="shared" ref="Q10:Q20" si="0">SUM(E10:P10)</f>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="22">
+        <f>SUM(S25:AD25)</f>
         <v>2</v>
       </c>
+      <c r="AG25" s="20">
+        <v>2</v>
+      </c>
+      <c r="AH25" s="20"/>
+      <c r="AI25" s="20"/>
+      <c r="AJ25" s="20"/>
+      <c r="AK25" s="20"/>
+      <c r="AL25" s="20"/>
+      <c r="AM25" s="20"/>
+      <c r="AN25" s="20"/>
+      <c r="AO25" s="20"/>
+      <c r="AP25" s="20"/>
+      <c r="AQ25" s="20"/>
+      <c r="AR25" s="20"/>
+      <c r="AS25" s="22">
+        <f>SUM(AG25:AR25)</f>
+        <v>2</v>
+      </c>
+      <c r="AU25" s="20">
+        <v>2</v>
+      </c>
+      <c r="AV25" s="20"/>
+      <c r="AW25" s="20"/>
+      <c r="AX25" s="20"/>
+      <c r="AY25" s="20"/>
+      <c r="AZ25" s="20"/>
+      <c r="BA25" s="20"/>
+      <c r="BB25" s="20"/>
+      <c r="BC25" s="20"/>
+      <c r="BD25" s="20"/>
+      <c r="BE25" s="20"/>
+      <c r="BF25" s="20"/>
+      <c r="BG25" s="22">
+        <f>SUM(AU25:BF25)</f>
+        <v>2</v>
+      </c>
+      <c r="BI25" s="20">
+        <v>2</v>
+      </c>
+      <c r="BJ25" s="20"/>
+      <c r="BK25" s="20"/>
+      <c r="BL25" s="20"/>
+      <c r="BM25" s="20"/>
+      <c r="BN25" s="20"/>
+      <c r="BO25" s="20"/>
+      <c r="BP25" s="20"/>
+      <c r="BQ25" s="20"/>
+      <c r="BR25" s="20"/>
+      <c r="BS25" s="20"/>
+      <c r="BT25" s="20"/>
+      <c r="BU25" s="22">
+        <f>SUM(BI25:BT25)</f>
+        <v>2</v>
+      </c>
+      <c r="BW25" s="20">
+        <v>2</v>
+      </c>
+      <c r="BX25" s="20"/>
+      <c r="BY25" s="20"/>
+      <c r="BZ25" s="20"/>
+      <c r="CA25" s="20"/>
+      <c r="CB25" s="20"/>
+      <c r="CC25" s="20"/>
+      <c r="CD25" s="20"/>
+      <c r="CE25" s="20"/>
+      <c r="CF25" s="20"/>
+      <c r="CG25" s="20"/>
+      <c r="CH25" s="20"/>
+      <c r="CI25" s="22">
+        <f>SUM(BW25:CH25)</f>
+        <v>2</v>
+      </c>
+      <c r="CK25" s="20">
+        <v>2</v>
+      </c>
+      <c r="CL25" s="20"/>
+      <c r="CM25" s="20"/>
+      <c r="CN25" s="20"/>
+      <c r="CO25" s="20"/>
+      <c r="CP25" s="20"/>
+      <c r="CQ25" s="20"/>
+      <c r="CR25" s="20"/>
+      <c r="CS25" s="20"/>
+      <c r="CT25" s="20"/>
+      <c r="CU25" s="20"/>
+      <c r="CV25" s="20"/>
+      <c r="CW25" s="22">
+        <f>SUM(CK25:CV25)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C11" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+    <row r="26" spans="3:101" x14ac:dyDescent="0.3">
+      <c r="C26" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20">
+        <f t="shared" ref="Q26:Q28" si="14">SUM(E26:P26)</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="20">
+        <v>-15</v>
+      </c>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20">
+        <v>-35</v>
+      </c>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="20"/>
+      <c r="AE26" s="22">
+        <f t="shared" ref="AE26:AE36" si="15">SUM(S26:AD26)</f>
+        <v>-50</v>
+      </c>
+      <c r="AG26" s="20">
+        <v>-15</v>
+      </c>
+      <c r="AH26" s="20"/>
+      <c r="AI26" s="20">
+        <v>-35</v>
+      </c>
+      <c r="AJ26" s="20"/>
+      <c r="AK26" s="20"/>
+      <c r="AL26" s="20"/>
+      <c r="AM26" s="20"/>
+      <c r="AN26" s="20"/>
+      <c r="AO26" s="20"/>
+      <c r="AP26" s="20"/>
+      <c r="AQ26" s="20"/>
+      <c r="AR26" s="20"/>
+      <c r="AS26" s="22">
+        <f t="shared" ref="AS26:AS36" si="16">SUM(AG26:AR26)</f>
+        <v>-50</v>
+      </c>
+      <c r="AU26" s="20">
+        <v>-15</v>
+      </c>
+      <c r="AV26" s="20"/>
+      <c r="AW26" s="20">
+        <v>-35</v>
+      </c>
+      <c r="AX26" s="20"/>
+      <c r="AY26" s="20"/>
+      <c r="AZ26" s="20"/>
+      <c r="BA26" s="20"/>
+      <c r="BB26" s="20"/>
+      <c r="BC26" s="20"/>
+      <c r="BD26" s="20"/>
+      <c r="BE26" s="20"/>
+      <c r="BF26" s="20"/>
+      <c r="BG26" s="22">
+        <f t="shared" ref="BG26:BG36" si="17">SUM(AU26:BF26)</f>
+        <v>-50</v>
+      </c>
+      <c r="BI26" s="20">
+        <v>-15</v>
+      </c>
+      <c r="BJ26" s="20"/>
+      <c r="BK26" s="20">
+        <v>-35</v>
+      </c>
+      <c r="BL26" s="20"/>
+      <c r="BM26" s="20"/>
+      <c r="BN26" s="20"/>
+      <c r="BO26" s="20"/>
+      <c r="BP26" s="20"/>
+      <c r="BQ26" s="20"/>
+      <c r="BR26" s="20"/>
+      <c r="BS26" s="20"/>
+      <c r="BT26" s="20"/>
+      <c r="BU26" s="22">
+        <f t="shared" ref="BU26:BU36" si="18">SUM(BI26:BT26)</f>
+        <v>-50</v>
+      </c>
+      <c r="BW26" s="20">
+        <v>-15</v>
+      </c>
+      <c r="BX26" s="20"/>
+      <c r="BY26" s="20">
+        <v>-35</v>
+      </c>
+      <c r="BZ26" s="20"/>
+      <c r="CA26" s="20"/>
+      <c r="CB26" s="20"/>
+      <c r="CC26" s="20"/>
+      <c r="CD26" s="20"/>
+      <c r="CE26" s="20"/>
+      <c r="CF26" s="20"/>
+      <c r="CG26" s="20"/>
+      <c r="CH26" s="20"/>
+      <c r="CI26" s="22">
+        <f t="shared" ref="CI26:CI36" si="19">SUM(BW26:CH26)</f>
+        <v>-50</v>
+      </c>
+      <c r="CK26" s="20">
+        <v>-15</v>
+      </c>
+      <c r="CL26" s="20"/>
+      <c r="CM26" s="20">
+        <v>-35</v>
+      </c>
+      <c r="CN26" s="20"/>
+      <c r="CO26" s="20"/>
+      <c r="CP26" s="20"/>
+      <c r="CQ26" s="20"/>
+      <c r="CR26" s="20"/>
+      <c r="CS26" s="20"/>
+      <c r="CT26" s="20"/>
+      <c r="CU26" s="20"/>
+      <c r="CV26" s="20"/>
+      <c r="CW26" s="22">
+        <f t="shared" ref="CW26:CW36" si="20">SUM(CK26:CV26)</f>
+        <v>-50</v>
       </c>
     </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C12" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+    <row r="27" spans="3:101" x14ac:dyDescent="0.3">
+      <c r="C27" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="20">
+        <v>24</v>
+      </c>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="20"/>
+      <c r="AE27" s="22">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="AG27" s="20">
+        <v>24</v>
+      </c>
+      <c r="AH27" s="20"/>
+      <c r="AI27" s="20"/>
+      <c r="AJ27" s="20"/>
+      <c r="AK27" s="20"/>
+      <c r="AL27" s="20"/>
+      <c r="AM27" s="20"/>
+      <c r="AN27" s="20"/>
+      <c r="AO27" s="20"/>
+      <c r="AP27" s="20"/>
+      <c r="AQ27" s="20"/>
+      <c r="AR27" s="20"/>
+      <c r="AS27" s="22">
+        <f t="shared" si="16"/>
+        <v>24</v>
+      </c>
+      <c r="AU27" s="20">
+        <v>24</v>
+      </c>
+      <c r="AV27" s="20"/>
+      <c r="AW27" s="20"/>
+      <c r="AX27" s="20"/>
+      <c r="AY27" s="20"/>
+      <c r="AZ27" s="20"/>
+      <c r="BA27" s="20"/>
+      <c r="BB27" s="20"/>
+      <c r="BC27" s="20"/>
+      <c r="BD27" s="20"/>
+      <c r="BE27" s="20"/>
+      <c r="BF27" s="20"/>
+      <c r="BG27" s="22">
+        <f t="shared" si="17"/>
+        <v>24</v>
+      </c>
+      <c r="BI27" s="20">
+        <v>24</v>
+      </c>
+      <c r="BJ27" s="20"/>
+      <c r="BK27" s="20"/>
+      <c r="BL27" s="20"/>
+      <c r="BM27" s="20"/>
+      <c r="BN27" s="20"/>
+      <c r="BO27" s="20"/>
+      <c r="BP27" s="20"/>
+      <c r="BQ27" s="20"/>
+      <c r="BR27" s="20"/>
+      <c r="BS27" s="20"/>
+      <c r="BT27" s="20"/>
+      <c r="BU27" s="22">
+        <f t="shared" si="18"/>
+        <v>24</v>
+      </c>
+      <c r="BW27" s="20">
+        <v>24</v>
+      </c>
+      <c r="BX27" s="20"/>
+      <c r="BY27" s="20"/>
+      <c r="BZ27" s="20"/>
+      <c r="CA27" s="20"/>
+      <c r="CB27" s="20"/>
+      <c r="CC27" s="20"/>
+      <c r="CD27" s="20"/>
+      <c r="CE27" s="20"/>
+      <c r="CF27" s="20"/>
+      <c r="CG27" s="20"/>
+      <c r="CH27" s="20"/>
+      <c r="CI27" s="22">
+        <f t="shared" si="19"/>
+        <v>24</v>
+      </c>
+      <c r="CK27" s="20">
+        <v>24</v>
+      </c>
+      <c r="CL27" s="20"/>
+      <c r="CM27" s="20"/>
+      <c r="CN27" s="20"/>
+      <c r="CO27" s="20"/>
+      <c r="CP27" s="20"/>
+      <c r="CQ27" s="20"/>
+      <c r="CR27" s="20"/>
+      <c r="CS27" s="20"/>
+      <c r="CT27" s="20"/>
+      <c r="CU27" s="20"/>
+      <c r="CV27" s="20"/>
+      <c r="CW27" s="22">
+        <f t="shared" si="20"/>
+        <v>24</v>
       </c>
     </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26">
-        <v>4</v>
-      </c>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="28">
-        <f t="shared" si="0"/>
-        <v>4</v>
+    <row r="28" spans="3:101" x14ac:dyDescent="0.3">
+      <c r="C28" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="20">
+        <v>104</v>
+      </c>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
+      <c r="AE28" s="22">
+        <f t="shared" si="15"/>
+        <v>104</v>
+      </c>
+      <c r="AG28" s="20">
+        <v>104</v>
+      </c>
+      <c r="AH28" s="20"/>
+      <c r="AI28" s="20"/>
+      <c r="AJ28" s="20"/>
+      <c r="AK28" s="20"/>
+      <c r="AL28" s="20"/>
+      <c r="AM28" s="20"/>
+      <c r="AN28" s="20"/>
+      <c r="AO28" s="20"/>
+      <c r="AP28" s="20"/>
+      <c r="AQ28" s="20"/>
+      <c r="AR28" s="20"/>
+      <c r="AS28" s="22">
+        <f t="shared" si="16"/>
+        <v>104</v>
+      </c>
+      <c r="AU28" s="20">
+        <v>104</v>
+      </c>
+      <c r="AV28" s="20"/>
+      <c r="AW28" s="20"/>
+      <c r="AX28" s="20"/>
+      <c r="AY28" s="20"/>
+      <c r="AZ28" s="20"/>
+      <c r="BA28" s="20"/>
+      <c r="BB28" s="20"/>
+      <c r="BC28" s="20"/>
+      <c r="BD28" s="20"/>
+      <c r="BE28" s="20"/>
+      <c r="BF28" s="20"/>
+      <c r="BG28" s="22">
+        <f t="shared" si="17"/>
+        <v>104</v>
+      </c>
+      <c r="BI28" s="20">
+        <v>104</v>
+      </c>
+      <c r="BJ28" s="20"/>
+      <c r="BK28" s="20"/>
+      <c r="BL28" s="20"/>
+      <c r="BM28" s="20"/>
+      <c r="BN28" s="20"/>
+      <c r="BO28" s="20"/>
+      <c r="BP28" s="20"/>
+      <c r="BQ28" s="20"/>
+      <c r="BR28" s="20"/>
+      <c r="BS28" s="20"/>
+      <c r="BT28" s="20"/>
+      <c r="BU28" s="22">
+        <f t="shared" si="18"/>
+        <v>104</v>
+      </c>
+      <c r="BW28" s="20">
+        <v>104</v>
+      </c>
+      <c r="BX28" s="20"/>
+      <c r="BY28" s="20"/>
+      <c r="BZ28" s="20"/>
+      <c r="CA28" s="20"/>
+      <c r="CB28" s="20"/>
+      <c r="CC28" s="20"/>
+      <c r="CD28" s="20"/>
+      <c r="CE28" s="20"/>
+      <c r="CF28" s="20"/>
+      <c r="CG28" s="20"/>
+      <c r="CH28" s="20"/>
+      <c r="CI28" s="22">
+        <f t="shared" si="19"/>
+        <v>104</v>
+      </c>
+      <c r="CK28" s="20">
+        <v>104</v>
+      </c>
+      <c r="CL28" s="20"/>
+      <c r="CM28" s="20"/>
+      <c r="CN28" s="20"/>
+      <c r="CO28" s="20"/>
+      <c r="CP28" s="20"/>
+      <c r="CQ28" s="20"/>
+      <c r="CR28" s="20"/>
+      <c r="CS28" s="20"/>
+      <c r="CT28" s="20"/>
+      <c r="CU28" s="20"/>
+      <c r="CV28" s="20"/>
+      <c r="CW28" s="22">
+        <f t="shared" si="20"/>
+        <v>104</v>
       </c>
     </row>
-    <row r="14" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C14" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="28">
-        <f t="shared" si="0"/>
+    <row r="29" spans="3:101" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="20"/>
+      <c r="AD29" s="20"/>
+      <c r="AE29" s="22">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="20"/>
+      <c r="AH29" s="20"/>
+      <c r="AI29" s="20"/>
+      <c r="AJ29" s="20"/>
+      <c r="AK29" s="20"/>
+      <c r="AL29" s="20"/>
+      <c r="AM29" s="20"/>
+      <c r="AN29" s="20"/>
+      <c r="AO29" s="20"/>
+      <c r="AP29" s="20"/>
+      <c r="AQ29" s="20"/>
+      <c r="AR29" s="20"/>
+      <c r="AS29" s="22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AU29" s="20"/>
+      <c r="AV29" s="20"/>
+      <c r="AW29" s="20"/>
+      <c r="AX29" s="20"/>
+      <c r="AY29" s="20"/>
+      <c r="AZ29" s="20"/>
+      <c r="BA29" s="20"/>
+      <c r="BB29" s="20"/>
+      <c r="BC29" s="20"/>
+      <c r="BD29" s="20"/>
+      <c r="BE29" s="20"/>
+      <c r="BF29" s="20"/>
+      <c r="BG29" s="22">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BI29" s="20"/>
+      <c r="BJ29" s="20"/>
+      <c r="BK29" s="20"/>
+      <c r="BL29" s="20"/>
+      <c r="BM29" s="20"/>
+      <c r="BN29" s="20"/>
+      <c r="BO29" s="20"/>
+      <c r="BP29" s="20"/>
+      <c r="BQ29" s="20"/>
+      <c r="BR29" s="20"/>
+      <c r="BS29" s="20"/>
+      <c r="BT29" s="20"/>
+      <c r="BU29" s="22">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BW29" s="20"/>
+      <c r="BX29" s="20"/>
+      <c r="BY29" s="20"/>
+      <c r="BZ29" s="20"/>
+      <c r="CA29" s="20"/>
+      <c r="CB29" s="20"/>
+      <c r="CC29" s="20"/>
+      <c r="CD29" s="20"/>
+      <c r="CE29" s="20"/>
+      <c r="CF29" s="20"/>
+      <c r="CG29" s="20"/>
+      <c r="CH29" s="20"/>
+      <c r="CI29" s="22">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="CK29" s="20"/>
+      <c r="CL29" s="20"/>
+      <c r="CM29" s="20"/>
+      <c r="CN29" s="20"/>
+      <c r="CO29" s="20"/>
+      <c r="CP29" s="20"/>
+      <c r="CQ29" s="20"/>
+      <c r="CR29" s="20"/>
+      <c r="CS29" s="20"/>
+      <c r="CT29" s="20"/>
+      <c r="CU29" s="20"/>
+      <c r="CV29" s="20"/>
+      <c r="CW29" s="22">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C15" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="28">
-        <f t="shared" si="0"/>
+    <row r="30" spans="3:101" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20"/>
+      <c r="AD30" s="20"/>
+      <c r="AE30" s="22">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="20"/>
+      <c r="AH30" s="20"/>
+      <c r="AI30" s="20"/>
+      <c r="AJ30" s="20"/>
+      <c r="AK30" s="20"/>
+      <c r="AL30" s="20"/>
+      <c r="AM30" s="20"/>
+      <c r="AN30" s="20"/>
+      <c r="AO30" s="20"/>
+      <c r="AP30" s="20"/>
+      <c r="AQ30" s="20"/>
+      <c r="AR30" s="20"/>
+      <c r="AS30" s="22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AU30" s="20"/>
+      <c r="AV30" s="20"/>
+      <c r="AW30" s="20"/>
+      <c r="AX30" s="20"/>
+      <c r="AY30" s="20"/>
+      <c r="AZ30" s="20"/>
+      <c r="BA30" s="20"/>
+      <c r="BB30" s="20"/>
+      <c r="BC30" s="20"/>
+      <c r="BD30" s="20"/>
+      <c r="BE30" s="20"/>
+      <c r="BF30" s="20"/>
+      <c r="BG30" s="22">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BI30" s="20"/>
+      <c r="BJ30" s="20"/>
+      <c r="BK30" s="20"/>
+      <c r="BL30" s="20"/>
+      <c r="BM30" s="20"/>
+      <c r="BN30" s="20"/>
+      <c r="BO30" s="20"/>
+      <c r="BP30" s="20"/>
+      <c r="BQ30" s="20"/>
+      <c r="BR30" s="20"/>
+      <c r="BS30" s="20"/>
+      <c r="BT30" s="20"/>
+      <c r="BU30" s="22">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BW30" s="20"/>
+      <c r="BX30" s="20"/>
+      <c r="BY30" s="20"/>
+      <c r="BZ30" s="20"/>
+      <c r="CA30" s="20"/>
+      <c r="CB30" s="20"/>
+      <c r="CC30" s="20"/>
+      <c r="CD30" s="20"/>
+      <c r="CE30" s="20"/>
+      <c r="CF30" s="20"/>
+      <c r="CG30" s="20"/>
+      <c r="CH30" s="20"/>
+      <c r="CI30" s="22">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="CK30" s="20"/>
+      <c r="CL30" s="20"/>
+      <c r="CM30" s="20"/>
+      <c r="CN30" s="20"/>
+      <c r="CO30" s="20"/>
+      <c r="CP30" s="20"/>
+      <c r="CQ30" s="20"/>
+      <c r="CR30" s="20"/>
+      <c r="CS30" s="20"/>
+      <c r="CT30" s="20"/>
+      <c r="CU30" s="20"/>
+      <c r="CV30" s="20"/>
+      <c r="CW30" s="22">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C16" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="28">
-        <f t="shared" si="0"/>
+    <row r="31" spans="3:101" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="20"/>
+      <c r="AB31" s="20"/>
+      <c r="AC31" s="20"/>
+      <c r="AD31" s="20"/>
+      <c r="AE31" s="22">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="20"/>
+      <c r="AH31" s="20"/>
+      <c r="AI31" s="20"/>
+      <c r="AJ31" s="20"/>
+      <c r="AK31" s="20"/>
+      <c r="AL31" s="20"/>
+      <c r="AM31" s="20"/>
+      <c r="AN31" s="20"/>
+      <c r="AO31" s="20"/>
+      <c r="AP31" s="20"/>
+      <c r="AQ31" s="20"/>
+      <c r="AR31" s="20"/>
+      <c r="AS31" s="22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AU31" s="20"/>
+      <c r="AV31" s="20"/>
+      <c r="AW31" s="20"/>
+      <c r="AX31" s="20"/>
+      <c r="AY31" s="20"/>
+      <c r="AZ31" s="20"/>
+      <c r="BA31" s="20"/>
+      <c r="BB31" s="20"/>
+      <c r="BC31" s="20"/>
+      <c r="BD31" s="20"/>
+      <c r="BE31" s="20"/>
+      <c r="BF31" s="20"/>
+      <c r="BG31" s="22">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BI31" s="20"/>
+      <c r="BJ31" s="20"/>
+      <c r="BK31" s="20"/>
+      <c r="BL31" s="20"/>
+      <c r="BM31" s="20"/>
+      <c r="BN31" s="20"/>
+      <c r="BO31" s="20"/>
+      <c r="BP31" s="20"/>
+      <c r="BQ31" s="20"/>
+      <c r="BR31" s="20"/>
+      <c r="BS31" s="20"/>
+      <c r="BT31" s="20"/>
+      <c r="BU31" s="22">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BW31" s="20"/>
+      <c r="BX31" s="20"/>
+      <c r="BY31" s="20"/>
+      <c r="BZ31" s="20"/>
+      <c r="CA31" s="20"/>
+      <c r="CB31" s="20"/>
+      <c r="CC31" s="20"/>
+      <c r="CD31" s="20"/>
+      <c r="CE31" s="20"/>
+      <c r="CF31" s="20"/>
+      <c r="CG31" s="20"/>
+      <c r="CH31" s="20"/>
+      <c r="CI31" s="22">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="CK31" s="20"/>
+      <c r="CL31" s="20"/>
+      <c r="CM31" s="20"/>
+      <c r="CN31" s="20"/>
+      <c r="CO31" s="20"/>
+      <c r="CP31" s="20"/>
+      <c r="CQ31" s="20"/>
+      <c r="CR31" s="20"/>
+      <c r="CS31" s="20"/>
+      <c r="CT31" s="20"/>
+      <c r="CU31" s="20"/>
+      <c r="CV31" s="20"/>
+      <c r="CW31" s="22">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C17" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="28">
-        <f t="shared" si="0"/>
+    <row r="32" spans="3:101" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="20"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="20"/>
+      <c r="AE32" s="22">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="20"/>
+      <c r="AH32" s="20"/>
+      <c r="AI32" s="20"/>
+      <c r="AJ32" s="20"/>
+      <c r="AK32" s="20"/>
+      <c r="AL32" s="20"/>
+      <c r="AM32" s="20"/>
+      <c r="AN32" s="20"/>
+      <c r="AO32" s="20"/>
+      <c r="AP32" s="20"/>
+      <c r="AQ32" s="20"/>
+      <c r="AR32" s="20"/>
+      <c r="AS32" s="22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AU32" s="20"/>
+      <c r="AV32" s="20"/>
+      <c r="AW32" s="20"/>
+      <c r="AX32" s="20"/>
+      <c r="AY32" s="20"/>
+      <c r="AZ32" s="20"/>
+      <c r="BA32" s="20"/>
+      <c r="BB32" s="20"/>
+      <c r="BC32" s="20"/>
+      <c r="BD32" s="20"/>
+      <c r="BE32" s="20"/>
+      <c r="BF32" s="20"/>
+      <c r="BG32" s="22">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BI32" s="20"/>
+      <c r="BJ32" s="20"/>
+      <c r="BK32" s="20"/>
+      <c r="BL32" s="20"/>
+      <c r="BM32" s="20"/>
+      <c r="BN32" s="20"/>
+      <c r="BO32" s="20"/>
+      <c r="BP32" s="20"/>
+      <c r="BQ32" s="20"/>
+      <c r="BR32" s="20"/>
+      <c r="BS32" s="20"/>
+      <c r="BT32" s="20"/>
+      <c r="BU32" s="22">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BW32" s="20"/>
+      <c r="BX32" s="20"/>
+      <c r="BY32" s="20"/>
+      <c r="BZ32" s="20"/>
+      <c r="CA32" s="20"/>
+      <c r="CB32" s="20"/>
+      <c r="CC32" s="20"/>
+      <c r="CD32" s="20"/>
+      <c r="CE32" s="20"/>
+      <c r="CF32" s="20"/>
+      <c r="CG32" s="20"/>
+      <c r="CH32" s="20"/>
+      <c r="CI32" s="22">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="CK32" s="20"/>
+      <c r="CL32" s="20"/>
+      <c r="CM32" s="20"/>
+      <c r="CN32" s="20"/>
+      <c r="CO32" s="20"/>
+      <c r="CP32" s="20"/>
+      <c r="CQ32" s="20"/>
+      <c r="CR32" s="20"/>
+      <c r="CS32" s="20"/>
+      <c r="CT32" s="20"/>
+      <c r="CU32" s="20"/>
+      <c r="CV32" s="20"/>
+      <c r="CW32" s="22">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C18" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="28">
-        <f t="shared" si="0"/>
+    <row r="33" spans="3:101" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="20"/>
+      <c r="AC33" s="20"/>
+      <c r="AD33" s="20"/>
+      <c r="AE33" s="22">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="20"/>
+      <c r="AH33" s="20"/>
+      <c r="AI33" s="20"/>
+      <c r="AJ33" s="20"/>
+      <c r="AK33" s="20"/>
+      <c r="AL33" s="20"/>
+      <c r="AM33" s="20"/>
+      <c r="AN33" s="20"/>
+      <c r="AO33" s="20"/>
+      <c r="AP33" s="20"/>
+      <c r="AQ33" s="20"/>
+      <c r="AR33" s="20"/>
+      <c r="AS33" s="22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AU33" s="20"/>
+      <c r="AV33" s="20"/>
+      <c r="AW33" s="20"/>
+      <c r="AX33" s="20"/>
+      <c r="AY33" s="20"/>
+      <c r="AZ33" s="20"/>
+      <c r="BA33" s="20"/>
+      <c r="BB33" s="20"/>
+      <c r="BC33" s="20"/>
+      <c r="BD33" s="20"/>
+      <c r="BE33" s="20"/>
+      <c r="BF33" s="20"/>
+      <c r="BG33" s="22">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BI33" s="20"/>
+      <c r="BJ33" s="20"/>
+      <c r="BK33" s="20"/>
+      <c r="BL33" s="20"/>
+      <c r="BM33" s="20"/>
+      <c r="BN33" s="20"/>
+      <c r="BO33" s="20"/>
+      <c r="BP33" s="20"/>
+      <c r="BQ33" s="20"/>
+      <c r="BR33" s="20"/>
+      <c r="BS33" s="20"/>
+      <c r="BT33" s="20"/>
+      <c r="BU33" s="22">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BW33" s="20"/>
+      <c r="BX33" s="20"/>
+      <c r="BY33" s="20"/>
+      <c r="BZ33" s="20"/>
+      <c r="CA33" s="20"/>
+      <c r="CB33" s="20"/>
+      <c r="CC33" s="20"/>
+      <c r="CD33" s="20"/>
+      <c r="CE33" s="20"/>
+      <c r="CF33" s="20"/>
+      <c r="CG33" s="20"/>
+      <c r="CH33" s="20"/>
+      <c r="CI33" s="22">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="CK33" s="20"/>
+      <c r="CL33" s="20"/>
+      <c r="CM33" s="20"/>
+      <c r="CN33" s="20"/>
+      <c r="CO33" s="20"/>
+      <c r="CP33" s="20"/>
+      <c r="CQ33" s="20"/>
+      <c r="CR33" s="20"/>
+      <c r="CS33" s="20"/>
+      <c r="CT33" s="20"/>
+      <c r="CU33" s="20"/>
+      <c r="CV33" s="20"/>
+      <c r="CW33" s="22">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C19" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="28">
-        <f t="shared" si="0"/>
+    <row r="34" spans="3:101" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="20"/>
+      <c r="AC34" s="20"/>
+      <c r="AD34" s="20"/>
+      <c r="AE34" s="22">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="20"/>
+      <c r="AH34" s="20"/>
+      <c r="AI34" s="20"/>
+      <c r="AJ34" s="20"/>
+      <c r="AK34" s="20"/>
+      <c r="AL34" s="20"/>
+      <c r="AM34" s="20"/>
+      <c r="AN34" s="20"/>
+      <c r="AO34" s="20"/>
+      <c r="AP34" s="20"/>
+      <c r="AQ34" s="20"/>
+      <c r="AR34" s="20"/>
+      <c r="AS34" s="22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AU34" s="20"/>
+      <c r="AV34" s="20"/>
+      <c r="AW34" s="20"/>
+      <c r="AX34" s="20"/>
+      <c r="AY34" s="20"/>
+      <c r="AZ34" s="20"/>
+      <c r="BA34" s="20"/>
+      <c r="BB34" s="20"/>
+      <c r="BC34" s="20"/>
+      <c r="BD34" s="20"/>
+      <c r="BE34" s="20"/>
+      <c r="BF34" s="20"/>
+      <c r="BG34" s="22">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BI34" s="20"/>
+      <c r="BJ34" s="20"/>
+      <c r="BK34" s="20"/>
+      <c r="BL34" s="20"/>
+      <c r="BM34" s="20"/>
+      <c r="BN34" s="20"/>
+      <c r="BO34" s="20"/>
+      <c r="BP34" s="20"/>
+      <c r="BQ34" s="20"/>
+      <c r="BR34" s="20"/>
+      <c r="BS34" s="20"/>
+      <c r="BT34" s="20"/>
+      <c r="BU34" s="22">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BW34" s="20"/>
+      <c r="BX34" s="20"/>
+      <c r="BY34" s="20"/>
+      <c r="BZ34" s="20"/>
+      <c r="CA34" s="20"/>
+      <c r="CB34" s="20"/>
+      <c r="CC34" s="20"/>
+      <c r="CD34" s="20"/>
+      <c r="CE34" s="20"/>
+      <c r="CF34" s="20"/>
+      <c r="CG34" s="20"/>
+      <c r="CH34" s="20"/>
+      <c r="CI34" s="22">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="CK34" s="20"/>
+      <c r="CL34" s="20"/>
+      <c r="CM34" s="20"/>
+      <c r="CN34" s="20"/>
+      <c r="CO34" s="20"/>
+      <c r="CP34" s="20"/>
+      <c r="CQ34" s="20"/>
+      <c r="CR34" s="20"/>
+      <c r="CS34" s="20"/>
+      <c r="CT34" s="20"/>
+      <c r="CU34" s="20"/>
+      <c r="CV34" s="20"/>
+      <c r="CW34" s="22">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C20" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="28">
-        <f t="shared" si="0"/>
+    <row r="35" spans="3:101" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="20"/>
+      <c r="AA35" s="20"/>
+      <c r="AB35" s="20"/>
+      <c r="AC35" s="20"/>
+      <c r="AD35" s="20"/>
+      <c r="AE35" s="22">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="20"/>
+      <c r="AH35" s="20"/>
+      <c r="AI35" s="20"/>
+      <c r="AJ35" s="20"/>
+      <c r="AK35" s="20"/>
+      <c r="AL35" s="20"/>
+      <c r="AM35" s="20"/>
+      <c r="AN35" s="20"/>
+      <c r="AO35" s="20"/>
+      <c r="AP35" s="20"/>
+      <c r="AQ35" s="20"/>
+      <c r="AR35" s="20"/>
+      <c r="AS35" s="22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AU35" s="20"/>
+      <c r="AV35" s="20"/>
+      <c r="AW35" s="20"/>
+      <c r="AX35" s="20"/>
+      <c r="AY35" s="20"/>
+      <c r="AZ35" s="20"/>
+      <c r="BA35" s="20"/>
+      <c r="BB35" s="20"/>
+      <c r="BC35" s="20"/>
+      <c r="BD35" s="20"/>
+      <c r="BE35" s="20"/>
+      <c r="BF35" s="20"/>
+      <c r="BG35" s="22">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BI35" s="20"/>
+      <c r="BJ35" s="20"/>
+      <c r="BK35" s="20"/>
+      <c r="BL35" s="20"/>
+      <c r="BM35" s="20"/>
+      <c r="BN35" s="20"/>
+      <c r="BO35" s="20"/>
+      <c r="BP35" s="20"/>
+      <c r="BQ35" s="20"/>
+      <c r="BR35" s="20"/>
+      <c r="BS35" s="20"/>
+      <c r="BT35" s="20"/>
+      <c r="BU35" s="22">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BW35" s="20"/>
+      <c r="BX35" s="20"/>
+      <c r="BY35" s="20"/>
+      <c r="BZ35" s="20"/>
+      <c r="CA35" s="20"/>
+      <c r="CB35" s="20"/>
+      <c r="CC35" s="20"/>
+      <c r="CD35" s="20"/>
+      <c r="CE35" s="20"/>
+      <c r="CF35" s="20"/>
+      <c r="CG35" s="20"/>
+      <c r="CH35" s="20"/>
+      <c r="CI35" s="22">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="CK35" s="20"/>
+      <c r="CL35" s="20"/>
+      <c r="CM35" s="20"/>
+      <c r="CN35" s="20"/>
+      <c r="CO35" s="20"/>
+      <c r="CP35" s="20"/>
+      <c r="CQ35" s="20"/>
+      <c r="CR35" s="20"/>
+      <c r="CS35" s="20"/>
+      <c r="CT35" s="20"/>
+      <c r="CU35" s="20"/>
+      <c r="CV35" s="20"/>
+      <c r="CW35" s="22">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C21" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="27" cm="1">
-        <f t="array" aca="1" ref="E21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
-        <v>3</v>
-      </c>
-      <c r="F21" s="27" cm="1">
-        <f t="array" aca="1" ref="F21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="27" cm="1">
-        <f t="array" aca="1" ref="G21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="27" cm="1">
-        <f t="array" aca="1" ref="H21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="27" cm="1">
-        <f t="array" aca="1" ref="I21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="27" cm="1">
-        <f t="array" aca="1" ref="J21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
-        <v>4</v>
-      </c>
-      <c r="K21" s="27" cm="1">
-        <f t="array" aca="1" ref="K21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="27" cm="1">
-        <f t="array" aca="1" ref="L21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="27" cm="1">
-        <f t="array" aca="1" ref="M21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="27" cm="1">
-        <f t="array" aca="1" ref="N21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="27" cm="1">
-        <f t="array" aca="1" ref="O21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="27" cm="1">
-        <f t="array" aca="1" ref="P21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="27" cm="1">
-        <f t="array" aca="1" ref="Q21" ca="1">SUM(INDIRECT(ADDRESS(income_min_row,COLUMN())&amp;":"&amp; ADDRESS(income_max_row,COLUMN())))</f>
-        <v>7</v>
+    <row r="36" spans="3:101" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="20"/>
+      <c r="AA36" s="20"/>
+      <c r="AB36" s="20"/>
+      <c r="AC36" s="20"/>
+      <c r="AD36" s="20"/>
+      <c r="AE36" s="22">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="20"/>
+      <c r="AH36" s="20"/>
+      <c r="AI36" s="20"/>
+      <c r="AJ36" s="20"/>
+      <c r="AK36" s="20"/>
+      <c r="AL36" s="20"/>
+      <c r="AM36" s="20"/>
+      <c r="AN36" s="20"/>
+      <c r="AO36" s="20"/>
+      <c r="AP36" s="20"/>
+      <c r="AQ36" s="20"/>
+      <c r="AR36" s="20"/>
+      <c r="AS36" s="22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AU36" s="20"/>
+      <c r="AV36" s="20"/>
+      <c r="AW36" s="20"/>
+      <c r="AX36" s="20"/>
+      <c r="AY36" s="20"/>
+      <c r="AZ36" s="20"/>
+      <c r="BA36" s="20"/>
+      <c r="BB36" s="20"/>
+      <c r="BC36" s="20"/>
+      <c r="BD36" s="20"/>
+      <c r="BE36" s="20"/>
+      <c r="BF36" s="20"/>
+      <c r="BG36" s="22">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BI36" s="20"/>
+      <c r="BJ36" s="20"/>
+      <c r="BK36" s="20"/>
+      <c r="BL36" s="20"/>
+      <c r="BM36" s="20"/>
+      <c r="BN36" s="20"/>
+      <c r="BO36" s="20"/>
+      <c r="BP36" s="20"/>
+      <c r="BQ36" s="20"/>
+      <c r="BR36" s="20"/>
+      <c r="BS36" s="20"/>
+      <c r="BT36" s="20"/>
+      <c r="BU36" s="22">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BW36" s="20"/>
+      <c r="BX36" s="20"/>
+      <c r="BY36" s="20"/>
+      <c r="BZ36" s="20"/>
+      <c r="CA36" s="20"/>
+      <c r="CB36" s="20"/>
+      <c r="CC36" s="20"/>
+      <c r="CD36" s="20"/>
+      <c r="CE36" s="20"/>
+      <c r="CF36" s="20"/>
+      <c r="CG36" s="20"/>
+      <c r="CH36" s="20"/>
+      <c r="CI36" s="22">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="CK36" s="20"/>
+      <c r="CL36" s="20"/>
+      <c r="CM36" s="20"/>
+      <c r="CN36" s="20"/>
+      <c r="CO36" s="20"/>
+      <c r="CP36" s="20"/>
+      <c r="CQ36" s="20"/>
+      <c r="CR36" s="20"/>
+      <c r="CS36" s="20"/>
+      <c r="CT36" s="20"/>
+      <c r="CU36" s="20"/>
+      <c r="CV36" s="20"/>
+      <c r="CW36" s="22">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:101" x14ac:dyDescent="0.3">
+      <c r="C37" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="21" cm="1">
+        <f t="array" aca="1" ref="E37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="21" cm="1">
+        <f t="array" aca="1" ref="F37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="21" cm="1">
+        <f t="array" aca="1" ref="G37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="21" cm="1">
+        <f t="array" aca="1" ref="H37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="21" cm="1">
+        <f t="array" aca="1" ref="I37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="21" cm="1">
+        <f t="array" aca="1" ref="J37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="21" cm="1">
+        <f t="array" aca="1" ref="K37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="21" cm="1">
+        <f t="array" aca="1" ref="L37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="21" cm="1">
+        <f t="array" aca="1" ref="M37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="21" cm="1">
+        <f t="array" aca="1" ref="N37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="21" cm="1">
+        <f t="array" aca="1" ref="O37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="P37" s="21" cm="1">
+        <f t="array" aca="1" ref="P37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="21" cm="1">
+        <f t="array" aca="1" ref="Q37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="33" cm="1">
+        <f t="array" aca="1" ref="R37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="21" cm="1">
+        <f t="array" aca="1" ref="S37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>115</v>
+      </c>
+      <c r="T37" s="21" cm="1">
+        <f t="array" aca="1" ref="T37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="U37" s="21" cm="1">
+        <f t="array" aca="1" ref="U37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>-35</v>
+      </c>
+      <c r="V37" s="21" cm="1">
+        <f t="array" aca="1" ref="V37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="W37" s="21" cm="1">
+        <f t="array" aca="1" ref="W37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="X37" s="21" cm="1">
+        <f t="array" aca="1" ref="X37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="21" cm="1">
+        <f t="array" aca="1" ref="Y37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="Z37" s="21" cm="1">
+        <f t="array" aca="1" ref="Z37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="21" cm="1">
+        <f t="array" aca="1" ref="AA37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AB37" s="21" cm="1">
+        <f t="array" aca="1" ref="AB37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AC37" s="21" cm="1">
+        <f t="array" aca="1" ref="AC37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AD37" s="21" cm="1">
+        <f t="array" aca="1" ref="AD37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AE37" s="21" cm="1">
+        <f t="array" aca="1" ref="AE37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>80</v>
+      </c>
+      <c r="AG37" s="21" cm="1">
+        <f t="array" aca="1" ref="AG37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>115</v>
+      </c>
+      <c r="AH37" s="21" cm="1">
+        <f t="array" aca="1" ref="AH37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AI37" s="21" cm="1">
+        <f t="array" aca="1" ref="AI37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>-35</v>
+      </c>
+      <c r="AJ37" s="21" cm="1">
+        <f t="array" aca="1" ref="AJ37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AK37" s="21" cm="1">
+        <f t="array" aca="1" ref="AK37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AL37" s="21" cm="1">
+        <f t="array" aca="1" ref="AL37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AM37" s="21" cm="1">
+        <f t="array" aca="1" ref="AM37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AN37" s="21" cm="1">
+        <f t="array" aca="1" ref="AN37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AO37" s="21" cm="1">
+        <f t="array" aca="1" ref="AO37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AP37" s="21" cm="1">
+        <f t="array" aca="1" ref="AP37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="21" cm="1">
+        <f t="array" aca="1" ref="AQ37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AR37" s="21" cm="1">
+        <f t="array" aca="1" ref="AR37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AS37" s="21" cm="1">
+        <f t="array" aca="1" ref="AS37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>80</v>
+      </c>
+      <c r="AU37" s="21" cm="1">
+        <f t="array" aca="1" ref="AU37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>115</v>
+      </c>
+      <c r="AV37" s="21" cm="1">
+        <f t="array" aca="1" ref="AV37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AW37" s="21" cm="1">
+        <f t="array" aca="1" ref="AW37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>-35</v>
+      </c>
+      <c r="AX37" s="21" cm="1">
+        <f t="array" aca="1" ref="AX37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AY37" s="21" cm="1">
+        <f t="array" aca="1" ref="AY37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AZ37" s="21" cm="1">
+        <f t="array" aca="1" ref="AZ37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BA37" s="21" cm="1">
+        <f t="array" aca="1" ref="BA37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BB37" s="21" cm="1">
+        <f t="array" aca="1" ref="BB37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BC37" s="21" cm="1">
+        <f t="array" aca="1" ref="BC37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BD37" s="21" cm="1">
+        <f t="array" aca="1" ref="BD37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BE37" s="21" cm="1">
+        <f t="array" aca="1" ref="BE37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BF37" s="21" cm="1">
+        <f t="array" aca="1" ref="BF37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BG37" s="21" cm="1">
+        <f t="array" aca="1" ref="BG37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>80</v>
+      </c>
+      <c r="BI37" s="21" cm="1">
+        <f t="array" aca="1" ref="BI37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>115</v>
+      </c>
+      <c r="BJ37" s="21" cm="1">
+        <f t="array" aca="1" ref="BJ37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BK37" s="21" cm="1">
+        <f t="array" aca="1" ref="BK37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>-35</v>
+      </c>
+      <c r="BL37" s="21" cm="1">
+        <f t="array" aca="1" ref="BL37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BM37" s="21" cm="1">
+        <f t="array" aca="1" ref="BM37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BN37" s="21" cm="1">
+        <f t="array" aca="1" ref="BN37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BO37" s="21" cm="1">
+        <f t="array" aca="1" ref="BO37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BP37" s="21" cm="1">
+        <f t="array" aca="1" ref="BP37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BQ37" s="21" cm="1">
+        <f t="array" aca="1" ref="BQ37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BR37" s="21" cm="1">
+        <f t="array" aca="1" ref="BR37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BS37" s="21" cm="1">
+        <f t="array" aca="1" ref="BS37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BT37" s="21" cm="1">
+        <f t="array" aca="1" ref="BT37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BU37" s="21" cm="1">
+        <f t="array" aca="1" ref="BU37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>80</v>
+      </c>
+      <c r="BW37" s="21" cm="1">
+        <f t="array" aca="1" ref="BW37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>115</v>
+      </c>
+      <c r="BX37" s="21" cm="1">
+        <f t="array" aca="1" ref="BX37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BY37" s="21" cm="1">
+        <f t="array" aca="1" ref="BY37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>-35</v>
+      </c>
+      <c r="BZ37" s="21" cm="1">
+        <f t="array" aca="1" ref="BZ37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CA37" s="21" cm="1">
+        <f t="array" aca="1" ref="CA37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CB37" s="21" cm="1">
+        <f t="array" aca="1" ref="CB37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CC37" s="21" cm="1">
+        <f t="array" aca="1" ref="CC37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CD37" s="21" cm="1">
+        <f t="array" aca="1" ref="CD37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CE37" s="21" cm="1">
+        <f t="array" aca="1" ref="CE37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CF37" s="21" cm="1">
+        <f t="array" aca="1" ref="CF37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CG37" s="21" cm="1">
+        <f t="array" aca="1" ref="CG37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CH37" s="21" cm="1">
+        <f t="array" aca="1" ref="CH37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CI37" s="21" cm="1">
+        <f t="array" aca="1" ref="CI37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>80</v>
+      </c>
+      <c r="CK37" s="21" cm="1">
+        <f t="array" aca="1" ref="CK37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>115</v>
+      </c>
+      <c r="CL37" s="21" cm="1">
+        <f t="array" aca="1" ref="CL37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CM37" s="21" cm="1">
+        <f t="array" aca="1" ref="CM37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>-35</v>
+      </c>
+      <c r="CN37" s="21" cm="1">
+        <f t="array" aca="1" ref="CN37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CO37" s="21" cm="1">
+        <f t="array" aca="1" ref="CO37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CP37" s="21" cm="1">
+        <f t="array" aca="1" ref="CP37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CQ37" s="21" cm="1">
+        <f t="array" aca="1" ref="CQ37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CR37" s="21" cm="1">
+        <f t="array" aca="1" ref="CR37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CS37" s="21" cm="1">
+        <f t="array" aca="1" ref="CS37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CT37" s="21" cm="1">
+        <f t="array" aca="1" ref="CT37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CU37" s="21" cm="1">
+        <f t="array" aca="1" ref="CU37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CV37" s="21" cm="1">
+        <f t="array" aca="1" ref="CV37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CW37" s="21" cm="1">
+        <f t="array" aca="1" ref="CW37" ca="1">SUM(INDIRECT(ADDRESS(expenses_min_row,COLUMN())&amp;":"&amp; ADDRESS(expenses_max_row,COLUMN())))</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="3:101" x14ac:dyDescent="0.3">
+      <c r="C40" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="25">
+        <f>DATE(E$4,1,1)</f>
+        <v>45292</v>
+      </c>
+      <c r="F40" s="25">
+        <f>DATE(E$4,2,1)</f>
+        <v>45323</v>
+      </c>
+      <c r="G40" s="25">
+        <f>DATE(E$4,3,1)</f>
+        <v>45352</v>
+      </c>
+      <c r="H40" s="25">
+        <f>DATE(E$4,4,1)</f>
+        <v>45383</v>
+      </c>
+      <c r="I40" s="25">
+        <f>DATE(E$4,5,1)</f>
+        <v>45413</v>
+      </c>
+      <c r="J40" s="25">
+        <f>DATE(E$4,6,1)</f>
+        <v>45444</v>
+      </c>
+      <c r="K40" s="25">
+        <f>DATE(E$4,7,1)</f>
+        <v>45474</v>
+      </c>
+      <c r="L40" s="25">
+        <f>DATE(E$4,8,1)</f>
+        <v>45505</v>
+      </c>
+      <c r="M40" s="25">
+        <f>DATE(E$4,9,1)</f>
+        <v>45536</v>
+      </c>
+      <c r="N40" s="25">
+        <f>DATE(E$4,10,1)</f>
+        <v>45566</v>
+      </c>
+      <c r="O40" s="25">
+        <f>DATE(E$4,11,1)</f>
+        <v>45597</v>
+      </c>
+      <c r="P40" s="25">
+        <f>DATE(E$4,12,1)</f>
+        <v>45627</v>
+      </c>
+      <c r="Q40" s="26">
+        <f>E$4</f>
+        <v>2024</v>
+      </c>
+      <c r="S40" s="25">
+        <f>DATE(S$4,1,1)</f>
+        <v>45658</v>
+      </c>
+      <c r="T40" s="25">
+        <f>DATE(S$4,2,1)</f>
+        <v>45689</v>
+      </c>
+      <c r="U40" s="25">
+        <f>DATE(S$4,3,1)</f>
+        <v>45717</v>
+      </c>
+      <c r="V40" s="25">
+        <f>DATE(S$4,4,1)</f>
+        <v>45748</v>
+      </c>
+      <c r="W40" s="25">
+        <f>DATE(S$4,5,1)</f>
+        <v>45778</v>
+      </c>
+      <c r="X40" s="25">
+        <f>DATE(S$4,6,1)</f>
+        <v>45809</v>
+      </c>
+      <c r="Y40" s="25">
+        <f>DATE(S$4,7,1)</f>
+        <v>45839</v>
+      </c>
+      <c r="Z40" s="25">
+        <f>DATE(S$4,8,1)</f>
+        <v>45870</v>
+      </c>
+      <c r="AA40" s="25">
+        <f>DATE(S$4,9,1)</f>
+        <v>45901</v>
+      </c>
+      <c r="AB40" s="25">
+        <f>DATE(S$4,10,1)</f>
+        <v>45931</v>
+      </c>
+      <c r="AC40" s="25">
+        <f>DATE(S$4,11,1)</f>
+        <v>45962</v>
+      </c>
+      <c r="AD40" s="25">
+        <f>DATE(S$4,12,1)</f>
+        <v>45992</v>
+      </c>
+      <c r="AE40" s="26">
+        <f>S$4</f>
+        <v>2025</v>
+      </c>
+      <c r="AG40" s="25">
+        <f>DATE(AG$4,1,1)</f>
+        <v>46023</v>
+      </c>
+      <c r="AH40" s="25">
+        <f>DATE(AG$4,2,1)</f>
+        <v>46054</v>
+      </c>
+      <c r="AI40" s="25">
+        <f>DATE(AG$4,3,1)</f>
+        <v>46082</v>
+      </c>
+      <c r="AJ40" s="25">
+        <f>DATE(AG$4,4,1)</f>
+        <v>46113</v>
+      </c>
+      <c r="AK40" s="25">
+        <f>DATE(AG$4,5,1)</f>
+        <v>46143</v>
+      </c>
+      <c r="AL40" s="25">
+        <f>DATE(AG$4,6,1)</f>
+        <v>46174</v>
+      </c>
+      <c r="AM40" s="25">
+        <f>DATE(AG$4,7,1)</f>
+        <v>46204</v>
+      </c>
+      <c r="AN40" s="25">
+        <f>DATE(AG$4,8,1)</f>
+        <v>46235</v>
+      </c>
+      <c r="AO40" s="25">
+        <f>DATE(AG$4,9,1)</f>
+        <v>46266</v>
+      </c>
+      <c r="AP40" s="25">
+        <f>DATE(AG$4,10,1)</f>
+        <v>46296</v>
+      </c>
+      <c r="AQ40" s="25">
+        <f>DATE(AG$4,11,1)</f>
+        <v>46327</v>
+      </c>
+      <c r="AR40" s="25">
+        <f>DATE(AG$4,12,1)</f>
+        <v>46357</v>
+      </c>
+      <c r="AS40" s="26">
+        <f>AG$4</f>
+        <v>2026</v>
+      </c>
+      <c r="AU40" s="25">
+        <f>DATE(AU$4,1,1)</f>
+        <v>46388</v>
+      </c>
+      <c r="AV40" s="25">
+        <f>DATE(AU$4,2,1)</f>
+        <v>46419</v>
+      </c>
+      <c r="AW40" s="25">
+        <f>DATE(AU$4,3,1)</f>
+        <v>46447</v>
+      </c>
+      <c r="AX40" s="25">
+        <f>DATE(AU$4,4,1)</f>
+        <v>46478</v>
+      </c>
+      <c r="AY40" s="25">
+        <f>DATE(AU$4,5,1)</f>
+        <v>46508</v>
+      </c>
+      <c r="AZ40" s="25">
+        <f>DATE(AU$4,6,1)</f>
+        <v>46539</v>
+      </c>
+      <c r="BA40" s="25">
+        <f>DATE(AU$4,7,1)</f>
+        <v>46569</v>
+      </c>
+      <c r="BB40" s="25">
+        <f>DATE(AU$4,8,1)</f>
+        <v>46600</v>
+      </c>
+      <c r="BC40" s="25">
+        <f>DATE(AU$4,9,1)</f>
+        <v>46631</v>
+      </c>
+      <c r="BD40" s="25">
+        <f>DATE(AU$4,10,1)</f>
+        <v>46661</v>
+      </c>
+      <c r="BE40" s="25">
+        <f>DATE(AU$4,11,1)</f>
+        <v>46692</v>
+      </c>
+      <c r="BF40" s="25">
+        <f>DATE(AU$4,12,1)</f>
+        <v>46722</v>
+      </c>
+      <c r="BG40" s="26">
+        <f>AU$4</f>
+        <v>2027</v>
+      </c>
+      <c r="BI40" s="25">
+        <f>DATE(BI$4,1,1)</f>
+        <v>46753</v>
+      </c>
+      <c r="BJ40" s="25">
+        <f>DATE(BI$4,2,1)</f>
+        <v>46784</v>
+      </c>
+      <c r="BK40" s="25">
+        <f>DATE(BI$4,3,1)</f>
+        <v>46813</v>
+      </c>
+      <c r="BL40" s="25">
+        <f>DATE(BI$4,4,1)</f>
+        <v>46844</v>
+      </c>
+      <c r="BM40" s="25">
+        <f>DATE(BI$4,5,1)</f>
+        <v>46874</v>
+      </c>
+      <c r="BN40" s="25">
+        <f>DATE(BI$4,6,1)</f>
+        <v>46905</v>
+      </c>
+      <c r="BO40" s="25">
+        <f>DATE(BI$4,7,1)</f>
+        <v>46935</v>
+      </c>
+      <c r="BP40" s="25">
+        <f>DATE(BI$4,8,1)</f>
+        <v>46966</v>
+      </c>
+      <c r="BQ40" s="25">
+        <f>DATE(BI$4,9,1)</f>
+        <v>46997</v>
+      </c>
+      <c r="BR40" s="25">
+        <f>DATE(BI$4,10,1)</f>
+        <v>47027</v>
+      </c>
+      <c r="BS40" s="25">
+        <f>DATE(BI$4,11,1)</f>
+        <v>47058</v>
+      </c>
+      <c r="BT40" s="25">
+        <f>DATE(BI$4,12,1)</f>
+        <v>47088</v>
+      </c>
+      <c r="BU40" s="26">
+        <f>BI$4</f>
+        <v>2028</v>
+      </c>
+      <c r="BW40" s="25">
+        <f>DATE(BW$4,1,1)</f>
+        <v>47119</v>
+      </c>
+      <c r="BX40" s="25">
+        <f>DATE(BW$4,2,1)</f>
+        <v>47150</v>
+      </c>
+      <c r="BY40" s="25">
+        <f>DATE(BW$4,3,1)</f>
+        <v>47178</v>
+      </c>
+      <c r="BZ40" s="25">
+        <f>DATE(BW$4,4,1)</f>
+        <v>47209</v>
+      </c>
+      <c r="CA40" s="25">
+        <f>DATE(BW$4,5,1)</f>
+        <v>47239</v>
+      </c>
+      <c r="CB40" s="25">
+        <f>DATE(BW$4,6,1)</f>
+        <v>47270</v>
+      </c>
+      <c r="CC40" s="25">
+        <f>DATE(BW$4,7,1)</f>
+        <v>47300</v>
+      </c>
+      <c r="CD40" s="25">
+        <f>DATE(BW$4,8,1)</f>
+        <v>47331</v>
+      </c>
+      <c r="CE40" s="25">
+        <f>DATE(BW$4,9,1)</f>
+        <v>47362</v>
+      </c>
+      <c r="CF40" s="25">
+        <f>DATE(BW$4,10,1)</f>
+        <v>47392</v>
+      </c>
+      <c r="CG40" s="25">
+        <f>DATE(BW$4,11,1)</f>
+        <v>47423</v>
+      </c>
+      <c r="CH40" s="25">
+        <f>DATE(BW$4,12,1)</f>
+        <v>47453</v>
+      </c>
+      <c r="CI40" s="26">
+        <f>BW$4</f>
+        <v>2029</v>
+      </c>
+      <c r="CK40" s="25">
+        <f>DATE(CK$4,1,1)</f>
+        <v>47484</v>
+      </c>
+      <c r="CL40" s="25">
+        <f>DATE(CK$4,2,1)</f>
+        <v>47515</v>
+      </c>
+      <c r="CM40" s="25">
+        <f>DATE(CK$4,3,1)</f>
+        <v>47543</v>
+      </c>
+      <c r="CN40" s="25">
+        <f>DATE(CK$4,4,1)</f>
+        <v>47574</v>
+      </c>
+      <c r="CO40" s="25">
+        <f>DATE(CK$4,5,1)</f>
+        <v>47604</v>
+      </c>
+      <c r="CP40" s="25">
+        <f>DATE(CK$4,6,1)</f>
+        <v>47635</v>
+      </c>
+      <c r="CQ40" s="25">
+        <f>DATE(CK$4,7,1)</f>
+        <v>47665</v>
+      </c>
+      <c r="CR40" s="25">
+        <f>DATE(CK$4,8,1)</f>
+        <v>47696</v>
+      </c>
+      <c r="CS40" s="25">
+        <f>DATE(CK$4,9,1)</f>
+        <v>47727</v>
+      </c>
+      <c r="CT40" s="25">
+        <f>DATE(CK$4,10,1)</f>
+        <v>47757</v>
+      </c>
+      <c r="CU40" s="25">
+        <f>DATE(CK$4,11,1)</f>
+        <v>47788</v>
+      </c>
+      <c r="CV40" s="25">
+        <f>DATE(CK$4,12,1)</f>
+        <v>47818</v>
+      </c>
+      <c r="CW40" s="26">
+        <f>CK$4</f>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="41" spans="3:101" x14ac:dyDescent="0.3">
+      <c r="C41" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20">
+        <f>SUM(E41:P41)</f>
+        <v>0</v>
+      </c>
+      <c r="S41" s="20">
+        <v>2</v>
+      </c>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="20"/>
+      <c r="X41" s="20"/>
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="20"/>
+      <c r="AA41" s="20"/>
+      <c r="AB41" s="20"/>
+      <c r="AC41" s="20"/>
+      <c r="AD41" s="20"/>
+      <c r="AE41" s="22">
+        <f>SUM(S41:AD41)</f>
+        <v>2</v>
+      </c>
+      <c r="AG41" s="20">
+        <v>2</v>
+      </c>
+      <c r="AH41" s="20"/>
+      <c r="AI41" s="20"/>
+      <c r="AJ41" s="20"/>
+      <c r="AK41" s="20"/>
+      <c r="AL41" s="20"/>
+      <c r="AM41" s="20"/>
+      <c r="AN41" s="20"/>
+      <c r="AO41" s="20"/>
+      <c r="AP41" s="20"/>
+      <c r="AQ41" s="20"/>
+      <c r="AR41" s="20"/>
+      <c r="AS41" s="22">
+        <f>SUM(AG41:AR41)</f>
+        <v>2</v>
+      </c>
+      <c r="AU41" s="20">
+        <v>2</v>
+      </c>
+      <c r="AV41" s="20"/>
+      <c r="AW41" s="20"/>
+      <c r="AX41" s="20"/>
+      <c r="AY41" s="20"/>
+      <c r="AZ41" s="20"/>
+      <c r="BA41" s="20"/>
+      <c r="BB41" s="20"/>
+      <c r="BC41" s="20"/>
+      <c r="BD41" s="20"/>
+      <c r="BE41" s="20"/>
+      <c r="BF41" s="20"/>
+      <c r="BG41" s="22">
+        <f>SUM(AU41:BF41)</f>
+        <v>2</v>
+      </c>
+      <c r="BI41" s="20">
+        <v>2</v>
+      </c>
+      <c r="BJ41" s="20"/>
+      <c r="BK41" s="20"/>
+      <c r="BL41" s="20"/>
+      <c r="BM41" s="20"/>
+      <c r="BN41" s="20"/>
+      <c r="BO41" s="20"/>
+      <c r="BP41" s="20"/>
+      <c r="BQ41" s="20"/>
+      <c r="BR41" s="20"/>
+      <c r="BS41" s="20"/>
+      <c r="BT41" s="20"/>
+      <c r="BU41" s="22">
+        <f>SUM(BI41:BT41)</f>
+        <v>2</v>
+      </c>
+      <c r="BW41" s="20">
+        <v>2</v>
+      </c>
+      <c r="BX41" s="20"/>
+      <c r="BY41" s="20"/>
+      <c r="BZ41" s="20"/>
+      <c r="CA41" s="20"/>
+      <c r="CB41" s="20"/>
+      <c r="CC41" s="20"/>
+      <c r="CD41" s="20"/>
+      <c r="CE41" s="20"/>
+      <c r="CF41" s="20"/>
+      <c r="CG41" s="20"/>
+      <c r="CH41" s="20"/>
+      <c r="CI41" s="22">
+        <f>SUM(BW41:CH41)</f>
+        <v>2</v>
+      </c>
+      <c r="CK41" s="20">
+        <v>2</v>
+      </c>
+      <c r="CL41" s="20"/>
+      <c r="CM41" s="20"/>
+      <c r="CN41" s="20"/>
+      <c r="CO41" s="20"/>
+      <c r="CP41" s="20"/>
+      <c r="CQ41" s="20"/>
+      <c r="CR41" s="20"/>
+      <c r="CS41" s="20"/>
+      <c r="CT41" s="20"/>
+      <c r="CU41" s="20"/>
+      <c r="CV41" s="20"/>
+      <c r="CW41" s="22">
+        <f>SUM(CK41:CV41)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:101" x14ac:dyDescent="0.3">
+      <c r="C42" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20">
+        <f t="shared" ref="Q42:Q44" si="21">SUM(E42:P42)</f>
+        <v>0</v>
+      </c>
+      <c r="S42" s="20">
+        <v>5</v>
+      </c>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20">
+        <v>-5</v>
+      </c>
+      <c r="V42" s="20"/>
+      <c r="W42" s="20"/>
+      <c r="X42" s="20"/>
+      <c r="Y42" s="20"/>
+      <c r="Z42" s="20"/>
+      <c r="AA42" s="20"/>
+      <c r="AB42" s="20"/>
+      <c r="AC42" s="20"/>
+      <c r="AD42" s="20"/>
+      <c r="AE42" s="22">
+        <f t="shared" ref="AE42:AE52" si="22">SUM(S42:AD42)</f>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="20">
+        <v>5</v>
+      </c>
+      <c r="AH42" s="20"/>
+      <c r="AI42" s="20">
+        <v>-5</v>
+      </c>
+      <c r="AJ42" s="20"/>
+      <c r="AK42" s="20"/>
+      <c r="AL42" s="20"/>
+      <c r="AM42" s="20"/>
+      <c r="AN42" s="20"/>
+      <c r="AO42" s="20"/>
+      <c r="AP42" s="20"/>
+      <c r="AQ42" s="20"/>
+      <c r="AR42" s="20"/>
+      <c r="AS42" s="22">
+        <f t="shared" ref="AS42:AS52" si="23">SUM(AG42:AR42)</f>
+        <v>0</v>
+      </c>
+      <c r="AU42" s="20">
+        <v>5</v>
+      </c>
+      <c r="AV42" s="20"/>
+      <c r="AW42" s="20">
+        <v>-5</v>
+      </c>
+      <c r="AX42" s="20"/>
+      <c r="AY42" s="20"/>
+      <c r="AZ42" s="20"/>
+      <c r="BA42" s="20"/>
+      <c r="BB42" s="20"/>
+      <c r="BC42" s="20"/>
+      <c r="BD42" s="20"/>
+      <c r="BE42" s="20"/>
+      <c r="BF42" s="20"/>
+      <c r="BG42" s="22">
+        <f t="shared" ref="BG42:BG52" si="24">SUM(AU42:BF42)</f>
+        <v>0</v>
+      </c>
+      <c r="BI42" s="20">
+        <v>5</v>
+      </c>
+      <c r="BJ42" s="20"/>
+      <c r="BK42" s="20">
+        <v>-5</v>
+      </c>
+      <c r="BL42" s="20"/>
+      <c r="BM42" s="20"/>
+      <c r="BN42" s="20"/>
+      <c r="BO42" s="20"/>
+      <c r="BP42" s="20"/>
+      <c r="BQ42" s="20"/>
+      <c r="BR42" s="20"/>
+      <c r="BS42" s="20"/>
+      <c r="BT42" s="20"/>
+      <c r="BU42" s="22">
+        <f t="shared" ref="BU42:BU52" si="25">SUM(BI42:BT42)</f>
+        <v>0</v>
+      </c>
+      <c r="BW42" s="20">
+        <v>5</v>
+      </c>
+      <c r="BX42" s="20"/>
+      <c r="BY42" s="20">
+        <v>-5</v>
+      </c>
+      <c r="BZ42" s="20"/>
+      <c r="CA42" s="20"/>
+      <c r="CB42" s="20"/>
+      <c r="CC42" s="20"/>
+      <c r="CD42" s="20"/>
+      <c r="CE42" s="20"/>
+      <c r="CF42" s="20"/>
+      <c r="CG42" s="20"/>
+      <c r="CH42" s="20"/>
+      <c r="CI42" s="22">
+        <f t="shared" ref="CI42:CI52" si="26">SUM(BW42:CH42)</f>
+        <v>0</v>
+      </c>
+      <c r="CK42" s="20">
+        <v>5</v>
+      </c>
+      <c r="CL42" s="20"/>
+      <c r="CM42" s="20">
+        <v>-5</v>
+      </c>
+      <c r="CN42" s="20"/>
+      <c r="CO42" s="20"/>
+      <c r="CP42" s="20"/>
+      <c r="CQ42" s="20"/>
+      <c r="CR42" s="20"/>
+      <c r="CS42" s="20"/>
+      <c r="CT42" s="20"/>
+      <c r="CU42" s="20"/>
+      <c r="CV42" s="20"/>
+      <c r="CW42" s="22">
+        <f t="shared" ref="CW42:CW52" si="27">SUM(CK42:CV42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:101" x14ac:dyDescent="0.3">
+      <c r="C43" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="20">
+        <v>24</v>
+      </c>
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="20"/>
+      <c r="X43" s="20"/>
+      <c r="Y43" s="20"/>
+      <c r="Z43" s="20"/>
+      <c r="AA43" s="20"/>
+      <c r="AB43" s="20"/>
+      <c r="AC43" s="20"/>
+      <c r="AD43" s="20"/>
+      <c r="AE43" s="22">
+        <f t="shared" si="22"/>
+        <v>24</v>
+      </c>
+      <c r="AG43" s="20">
+        <v>24</v>
+      </c>
+      <c r="AH43" s="20"/>
+      <c r="AI43" s="20"/>
+      <c r="AJ43" s="20"/>
+      <c r="AK43" s="20"/>
+      <c r="AL43" s="20"/>
+      <c r="AM43" s="20"/>
+      <c r="AN43" s="20"/>
+      <c r="AO43" s="20"/>
+      <c r="AP43" s="20"/>
+      <c r="AQ43" s="20"/>
+      <c r="AR43" s="20"/>
+      <c r="AS43" s="22">
+        <f t="shared" si="23"/>
+        <v>24</v>
+      </c>
+      <c r="AU43" s="20">
+        <v>24</v>
+      </c>
+      <c r="AV43" s="20"/>
+      <c r="AW43" s="20"/>
+      <c r="AX43" s="20"/>
+      <c r="AY43" s="20"/>
+      <c r="AZ43" s="20"/>
+      <c r="BA43" s="20"/>
+      <c r="BB43" s="20"/>
+      <c r="BC43" s="20"/>
+      <c r="BD43" s="20"/>
+      <c r="BE43" s="20"/>
+      <c r="BF43" s="20"/>
+      <c r="BG43" s="22">
+        <f t="shared" si="24"/>
+        <v>24</v>
+      </c>
+      <c r="BI43" s="20">
+        <v>24</v>
+      </c>
+      <c r="BJ43" s="20"/>
+      <c r="BK43" s="20"/>
+      <c r="BL43" s="20"/>
+      <c r="BM43" s="20"/>
+      <c r="BN43" s="20"/>
+      <c r="BO43" s="20"/>
+      <c r="BP43" s="20"/>
+      <c r="BQ43" s="20"/>
+      <c r="BR43" s="20"/>
+      <c r="BS43" s="20"/>
+      <c r="BT43" s="20"/>
+      <c r="BU43" s="22">
+        <f t="shared" si="25"/>
+        <v>24</v>
+      </c>
+      <c r="BW43" s="20">
+        <v>24</v>
+      </c>
+      <c r="BX43" s="20"/>
+      <c r="BY43" s="20"/>
+      <c r="BZ43" s="20"/>
+      <c r="CA43" s="20"/>
+      <c r="CB43" s="20"/>
+      <c r="CC43" s="20"/>
+      <c r="CD43" s="20"/>
+      <c r="CE43" s="20"/>
+      <c r="CF43" s="20"/>
+      <c r="CG43" s="20"/>
+      <c r="CH43" s="20"/>
+      <c r="CI43" s="22">
+        <f t="shared" si="26"/>
+        <v>24</v>
+      </c>
+      <c r="CK43" s="20">
+        <v>24</v>
+      </c>
+      <c r="CL43" s="20"/>
+      <c r="CM43" s="20"/>
+      <c r="CN43" s="20"/>
+      <c r="CO43" s="20"/>
+      <c r="CP43" s="20"/>
+      <c r="CQ43" s="20"/>
+      <c r="CR43" s="20"/>
+      <c r="CS43" s="20"/>
+      <c r="CT43" s="20"/>
+      <c r="CU43" s="20"/>
+      <c r="CV43" s="20"/>
+      <c r="CW43" s="22">
+        <f t="shared" si="27"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="3:101" x14ac:dyDescent="0.3">
+      <c r="C44" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="20"/>
+      <c r="Y44" s="20"/>
+      <c r="Z44" s="20"/>
+      <c r="AA44" s="20"/>
+      <c r="AB44" s="20"/>
+      <c r="AC44" s="20"/>
+      <c r="AD44" s="20"/>
+      <c r="AE44" s="22">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AG44" s="20"/>
+      <c r="AH44" s="20"/>
+      <c r="AI44" s="20"/>
+      <c r="AJ44" s="20"/>
+      <c r="AK44" s="20"/>
+      <c r="AL44" s="20"/>
+      <c r="AM44" s="20"/>
+      <c r="AN44" s="20"/>
+      <c r="AO44" s="20"/>
+      <c r="AP44" s="20"/>
+      <c r="AQ44" s="20"/>
+      <c r="AR44" s="20"/>
+      <c r="AS44" s="22">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AU44" s="20"/>
+      <c r="AV44" s="20"/>
+      <c r="AW44" s="20"/>
+      <c r="AX44" s="20"/>
+      <c r="AY44" s="20"/>
+      <c r="AZ44" s="20"/>
+      <c r="BA44" s="20"/>
+      <c r="BB44" s="20"/>
+      <c r="BC44" s="20"/>
+      <c r="BD44" s="20"/>
+      <c r="BE44" s="20"/>
+      <c r="BF44" s="20"/>
+      <c r="BG44" s="22">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BI44" s="20"/>
+      <c r="BJ44" s="20"/>
+      <c r="BK44" s="20"/>
+      <c r="BL44" s="20"/>
+      <c r="BM44" s="20"/>
+      <c r="BN44" s="20"/>
+      <c r="BO44" s="20"/>
+      <c r="BP44" s="20"/>
+      <c r="BQ44" s="20"/>
+      <c r="BR44" s="20"/>
+      <c r="BS44" s="20"/>
+      <c r="BT44" s="20"/>
+      <c r="BU44" s="22">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BW44" s="20"/>
+      <c r="BX44" s="20"/>
+      <c r="BY44" s="20"/>
+      <c r="BZ44" s="20"/>
+      <c r="CA44" s="20"/>
+      <c r="CB44" s="20"/>
+      <c r="CC44" s="20"/>
+      <c r="CD44" s="20"/>
+      <c r="CE44" s="20"/>
+      <c r="CF44" s="20"/>
+      <c r="CG44" s="20"/>
+      <c r="CH44" s="20"/>
+      <c r="CI44" s="22">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="CK44" s="20"/>
+      <c r="CL44" s="20"/>
+      <c r="CM44" s="20"/>
+      <c r="CN44" s="20"/>
+      <c r="CO44" s="20"/>
+      <c r="CP44" s="20"/>
+      <c r="CQ44" s="20"/>
+      <c r="CR44" s="20"/>
+      <c r="CS44" s="20"/>
+      <c r="CT44" s="20"/>
+      <c r="CU44" s="20"/>
+      <c r="CV44" s="20"/>
+      <c r="CW44" s="22">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:101" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="20"/>
+      <c r="Y45" s="20"/>
+      <c r="Z45" s="20"/>
+      <c r="AA45" s="20"/>
+      <c r="AB45" s="20"/>
+      <c r="AC45" s="20"/>
+      <c r="AD45" s="20"/>
+      <c r="AE45" s="22">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AG45" s="20"/>
+      <c r="AH45" s="20"/>
+      <c r="AI45" s="20"/>
+      <c r="AJ45" s="20"/>
+      <c r="AK45" s="20"/>
+      <c r="AL45" s="20"/>
+      <c r="AM45" s="20"/>
+      <c r="AN45" s="20"/>
+      <c r="AO45" s="20"/>
+      <c r="AP45" s="20"/>
+      <c r="AQ45" s="20"/>
+      <c r="AR45" s="20"/>
+      <c r="AS45" s="22">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AU45" s="20"/>
+      <c r="AV45" s="20"/>
+      <c r="AW45" s="20"/>
+      <c r="AX45" s="20"/>
+      <c r="AY45" s="20"/>
+      <c r="AZ45" s="20"/>
+      <c r="BA45" s="20"/>
+      <c r="BB45" s="20"/>
+      <c r="BC45" s="20"/>
+      <c r="BD45" s="20"/>
+      <c r="BE45" s="20"/>
+      <c r="BF45" s="20"/>
+      <c r="BG45" s="22">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BI45" s="20"/>
+      <c r="BJ45" s="20"/>
+      <c r="BK45" s="20"/>
+      <c r="BL45" s="20"/>
+      <c r="BM45" s="20"/>
+      <c r="BN45" s="20"/>
+      <c r="BO45" s="20"/>
+      <c r="BP45" s="20"/>
+      <c r="BQ45" s="20"/>
+      <c r="BR45" s="20"/>
+      <c r="BS45" s="20"/>
+      <c r="BT45" s="20"/>
+      <c r="BU45" s="22">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BW45" s="20"/>
+      <c r="BX45" s="20"/>
+      <c r="BY45" s="20"/>
+      <c r="BZ45" s="20"/>
+      <c r="CA45" s="20"/>
+      <c r="CB45" s="20"/>
+      <c r="CC45" s="20"/>
+      <c r="CD45" s="20"/>
+      <c r="CE45" s="20"/>
+      <c r="CF45" s="20"/>
+      <c r="CG45" s="20"/>
+      <c r="CH45" s="20"/>
+      <c r="CI45" s="22">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="CK45" s="20"/>
+      <c r="CL45" s="20"/>
+      <c r="CM45" s="20"/>
+      <c r="CN45" s="20"/>
+      <c r="CO45" s="20"/>
+      <c r="CP45" s="20"/>
+      <c r="CQ45" s="20"/>
+      <c r="CR45" s="20"/>
+      <c r="CS45" s="20"/>
+      <c r="CT45" s="20"/>
+      <c r="CU45" s="20"/>
+      <c r="CV45" s="20"/>
+      <c r="CW45" s="22">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:101" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="20"/>
+      <c r="X46" s="20"/>
+      <c r="Y46" s="20"/>
+      <c r="Z46" s="20"/>
+      <c r="AA46" s="20"/>
+      <c r="AB46" s="20"/>
+      <c r="AC46" s="20"/>
+      <c r="AD46" s="20"/>
+      <c r="AE46" s="22">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AG46" s="20"/>
+      <c r="AH46" s="20"/>
+      <c r="AI46" s="20"/>
+      <c r="AJ46" s="20"/>
+      <c r="AK46" s="20"/>
+      <c r="AL46" s="20"/>
+      <c r="AM46" s="20"/>
+      <c r="AN46" s="20"/>
+      <c r="AO46" s="20"/>
+      <c r="AP46" s="20"/>
+      <c r="AQ46" s="20"/>
+      <c r="AR46" s="20"/>
+      <c r="AS46" s="22">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AU46" s="20"/>
+      <c r="AV46" s="20"/>
+      <c r="AW46" s="20"/>
+      <c r="AX46" s="20"/>
+      <c r="AY46" s="20"/>
+      <c r="AZ46" s="20"/>
+      <c r="BA46" s="20"/>
+      <c r="BB46" s="20"/>
+      <c r="BC46" s="20"/>
+      <c r="BD46" s="20"/>
+      <c r="BE46" s="20"/>
+      <c r="BF46" s="20"/>
+      <c r="BG46" s="22">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BI46" s="20"/>
+      <c r="BJ46" s="20"/>
+      <c r="BK46" s="20"/>
+      <c r="BL46" s="20"/>
+      <c r="BM46" s="20"/>
+      <c r="BN46" s="20"/>
+      <c r="BO46" s="20"/>
+      <c r="BP46" s="20"/>
+      <c r="BQ46" s="20"/>
+      <c r="BR46" s="20"/>
+      <c r="BS46" s="20"/>
+      <c r="BT46" s="20"/>
+      <c r="BU46" s="22">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BW46" s="20"/>
+      <c r="BX46" s="20"/>
+      <c r="BY46" s="20"/>
+      <c r="BZ46" s="20"/>
+      <c r="CA46" s="20"/>
+      <c r="CB46" s="20"/>
+      <c r="CC46" s="20"/>
+      <c r="CD46" s="20"/>
+      <c r="CE46" s="20"/>
+      <c r="CF46" s="20"/>
+      <c r="CG46" s="20"/>
+      <c r="CH46" s="20"/>
+      <c r="CI46" s="22">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="CK46" s="20"/>
+      <c r="CL46" s="20"/>
+      <c r="CM46" s="20"/>
+      <c r="CN46" s="20"/>
+      <c r="CO46" s="20"/>
+      <c r="CP46" s="20"/>
+      <c r="CQ46" s="20"/>
+      <c r="CR46" s="20"/>
+      <c r="CS46" s="20"/>
+      <c r="CT46" s="20"/>
+      <c r="CU46" s="20"/>
+      <c r="CV46" s="20"/>
+      <c r="CW46" s="22">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:101" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="20"/>
+      <c r="X47" s="20"/>
+      <c r="Y47" s="20"/>
+      <c r="Z47" s="20"/>
+      <c r="AA47" s="20"/>
+      <c r="AB47" s="20"/>
+      <c r="AC47" s="20"/>
+      <c r="AD47" s="20"/>
+      <c r="AE47" s="22">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AG47" s="20"/>
+      <c r="AH47" s="20"/>
+      <c r="AI47" s="20"/>
+      <c r="AJ47" s="20"/>
+      <c r="AK47" s="20"/>
+      <c r="AL47" s="20"/>
+      <c r="AM47" s="20"/>
+      <c r="AN47" s="20"/>
+      <c r="AO47" s="20"/>
+      <c r="AP47" s="20"/>
+      <c r="AQ47" s="20"/>
+      <c r="AR47" s="20"/>
+      <c r="AS47" s="22">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AU47" s="20"/>
+      <c r="AV47" s="20"/>
+      <c r="AW47" s="20"/>
+      <c r="AX47" s="20"/>
+      <c r="AY47" s="20"/>
+      <c r="AZ47" s="20"/>
+      <c r="BA47" s="20"/>
+      <c r="BB47" s="20"/>
+      <c r="BC47" s="20"/>
+      <c r="BD47" s="20"/>
+      <c r="BE47" s="20"/>
+      <c r="BF47" s="20"/>
+      <c r="BG47" s="22">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BI47" s="20"/>
+      <c r="BJ47" s="20"/>
+      <c r="BK47" s="20"/>
+      <c r="BL47" s="20"/>
+      <c r="BM47" s="20"/>
+      <c r="BN47" s="20"/>
+      <c r="BO47" s="20"/>
+      <c r="BP47" s="20"/>
+      <c r="BQ47" s="20"/>
+      <c r="BR47" s="20"/>
+      <c r="BS47" s="20"/>
+      <c r="BT47" s="20"/>
+      <c r="BU47" s="22">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BW47" s="20"/>
+      <c r="BX47" s="20"/>
+      <c r="BY47" s="20"/>
+      <c r="BZ47" s="20"/>
+      <c r="CA47" s="20"/>
+      <c r="CB47" s="20"/>
+      <c r="CC47" s="20"/>
+      <c r="CD47" s="20"/>
+      <c r="CE47" s="20"/>
+      <c r="CF47" s="20"/>
+      <c r="CG47" s="20"/>
+      <c r="CH47" s="20"/>
+      <c r="CI47" s="22">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="CK47" s="20"/>
+      <c r="CL47" s="20"/>
+      <c r="CM47" s="20"/>
+      <c r="CN47" s="20"/>
+      <c r="CO47" s="20"/>
+      <c r="CP47" s="20"/>
+      <c r="CQ47" s="20"/>
+      <c r="CR47" s="20"/>
+      <c r="CS47" s="20"/>
+      <c r="CT47" s="20"/>
+      <c r="CU47" s="20"/>
+      <c r="CV47" s="20"/>
+      <c r="CW47" s="22">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:101" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="20"/>
+      <c r="X48" s="20"/>
+      <c r="Y48" s="20"/>
+      <c r="Z48" s="20"/>
+      <c r="AA48" s="20"/>
+      <c r="AB48" s="20"/>
+      <c r="AC48" s="20"/>
+      <c r="AD48" s="20"/>
+      <c r="AE48" s="22">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AG48" s="20"/>
+      <c r="AH48" s="20"/>
+      <c r="AI48" s="20"/>
+      <c r="AJ48" s="20"/>
+      <c r="AK48" s="20"/>
+      <c r="AL48" s="20"/>
+      <c r="AM48" s="20"/>
+      <c r="AN48" s="20"/>
+      <c r="AO48" s="20"/>
+      <c r="AP48" s="20"/>
+      <c r="AQ48" s="20"/>
+      <c r="AR48" s="20"/>
+      <c r="AS48" s="22">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AU48" s="20"/>
+      <c r="AV48" s="20"/>
+      <c r="AW48" s="20"/>
+      <c r="AX48" s="20"/>
+      <c r="AY48" s="20"/>
+      <c r="AZ48" s="20"/>
+      <c r="BA48" s="20"/>
+      <c r="BB48" s="20"/>
+      <c r="BC48" s="20"/>
+      <c r="BD48" s="20"/>
+      <c r="BE48" s="20"/>
+      <c r="BF48" s="20"/>
+      <c r="BG48" s="22">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BI48" s="20"/>
+      <c r="BJ48" s="20"/>
+      <c r="BK48" s="20"/>
+      <c r="BL48" s="20"/>
+      <c r="BM48" s="20"/>
+      <c r="BN48" s="20"/>
+      <c r="BO48" s="20"/>
+      <c r="BP48" s="20"/>
+      <c r="BQ48" s="20"/>
+      <c r="BR48" s="20"/>
+      <c r="BS48" s="20"/>
+      <c r="BT48" s="20"/>
+      <c r="BU48" s="22">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BW48" s="20"/>
+      <c r="BX48" s="20"/>
+      <c r="BY48" s="20"/>
+      <c r="BZ48" s="20"/>
+      <c r="CA48" s="20"/>
+      <c r="CB48" s="20"/>
+      <c r="CC48" s="20"/>
+      <c r="CD48" s="20"/>
+      <c r="CE48" s="20"/>
+      <c r="CF48" s="20"/>
+      <c r="CG48" s="20"/>
+      <c r="CH48" s="20"/>
+      <c r="CI48" s="22">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="CK48" s="20"/>
+      <c r="CL48" s="20"/>
+      <c r="CM48" s="20"/>
+      <c r="CN48" s="20"/>
+      <c r="CO48" s="20"/>
+      <c r="CP48" s="20"/>
+      <c r="CQ48" s="20"/>
+      <c r="CR48" s="20"/>
+      <c r="CS48" s="20"/>
+      <c r="CT48" s="20"/>
+      <c r="CU48" s="20"/>
+      <c r="CV48" s="20"/>
+      <c r="CW48" s="22">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:101" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="20"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="20"/>
+      <c r="X49" s="20"/>
+      <c r="Y49" s="20"/>
+      <c r="Z49" s="20"/>
+      <c r="AA49" s="20"/>
+      <c r="AB49" s="20"/>
+      <c r="AC49" s="20"/>
+      <c r="AD49" s="20"/>
+      <c r="AE49" s="22">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AG49" s="20"/>
+      <c r="AH49" s="20"/>
+      <c r="AI49" s="20"/>
+      <c r="AJ49" s="20"/>
+      <c r="AK49" s="20"/>
+      <c r="AL49" s="20"/>
+      <c r="AM49" s="20"/>
+      <c r="AN49" s="20"/>
+      <c r="AO49" s="20"/>
+      <c r="AP49" s="20"/>
+      <c r="AQ49" s="20"/>
+      <c r="AR49" s="20"/>
+      <c r="AS49" s="22">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AU49" s="20"/>
+      <c r="AV49" s="20"/>
+      <c r="AW49" s="20"/>
+      <c r="AX49" s="20"/>
+      <c r="AY49" s="20"/>
+      <c r="AZ49" s="20"/>
+      <c r="BA49" s="20"/>
+      <c r="BB49" s="20"/>
+      <c r="BC49" s="20"/>
+      <c r="BD49" s="20"/>
+      <c r="BE49" s="20"/>
+      <c r="BF49" s="20"/>
+      <c r="BG49" s="22">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BI49" s="20"/>
+      <c r="BJ49" s="20"/>
+      <c r="BK49" s="20"/>
+      <c r="BL49" s="20"/>
+      <c r="BM49" s="20"/>
+      <c r="BN49" s="20"/>
+      <c r="BO49" s="20"/>
+      <c r="BP49" s="20"/>
+      <c r="BQ49" s="20"/>
+      <c r="BR49" s="20"/>
+      <c r="BS49" s="20"/>
+      <c r="BT49" s="20"/>
+      <c r="BU49" s="22">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BW49" s="20"/>
+      <c r="BX49" s="20"/>
+      <c r="BY49" s="20"/>
+      <c r="BZ49" s="20"/>
+      <c r="CA49" s="20"/>
+      <c r="CB49" s="20"/>
+      <c r="CC49" s="20"/>
+      <c r="CD49" s="20"/>
+      <c r="CE49" s="20"/>
+      <c r="CF49" s="20"/>
+      <c r="CG49" s="20"/>
+      <c r="CH49" s="20"/>
+      <c r="CI49" s="22">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="CK49" s="20"/>
+      <c r="CL49" s="20"/>
+      <c r="CM49" s="20"/>
+      <c r="CN49" s="20"/>
+      <c r="CO49" s="20"/>
+      <c r="CP49" s="20"/>
+      <c r="CQ49" s="20"/>
+      <c r="CR49" s="20"/>
+      <c r="CS49" s="20"/>
+      <c r="CT49" s="20"/>
+      <c r="CU49" s="20"/>
+      <c r="CV49" s="20"/>
+      <c r="CW49" s="22">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:101" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="20"/>
+      <c r="X50" s="20"/>
+      <c r="Y50" s="20"/>
+      <c r="Z50" s="20"/>
+      <c r="AA50" s="20"/>
+      <c r="AB50" s="20"/>
+      <c r="AC50" s="20"/>
+      <c r="AD50" s="20"/>
+      <c r="AE50" s="22">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AG50" s="20"/>
+      <c r="AH50" s="20"/>
+      <c r="AI50" s="20"/>
+      <c r="AJ50" s="20"/>
+      <c r="AK50" s="20"/>
+      <c r="AL50" s="20"/>
+      <c r="AM50" s="20"/>
+      <c r="AN50" s="20"/>
+      <c r="AO50" s="20"/>
+      <c r="AP50" s="20"/>
+      <c r="AQ50" s="20"/>
+      <c r="AR50" s="20"/>
+      <c r="AS50" s="22">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AU50" s="20"/>
+      <c r="AV50" s="20"/>
+      <c r="AW50" s="20"/>
+      <c r="AX50" s="20"/>
+      <c r="AY50" s="20"/>
+      <c r="AZ50" s="20"/>
+      <c r="BA50" s="20"/>
+      <c r="BB50" s="20"/>
+      <c r="BC50" s="20"/>
+      <c r="BD50" s="20"/>
+      <c r="BE50" s="20"/>
+      <c r="BF50" s="20"/>
+      <c r="BG50" s="22">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BI50" s="20"/>
+      <c r="BJ50" s="20"/>
+      <c r="BK50" s="20"/>
+      <c r="BL50" s="20"/>
+      <c r="BM50" s="20"/>
+      <c r="BN50" s="20"/>
+      <c r="BO50" s="20"/>
+      <c r="BP50" s="20"/>
+      <c r="BQ50" s="20"/>
+      <c r="BR50" s="20"/>
+      <c r="BS50" s="20"/>
+      <c r="BT50" s="20"/>
+      <c r="BU50" s="22">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BW50" s="20"/>
+      <c r="BX50" s="20"/>
+      <c r="BY50" s="20"/>
+      <c r="BZ50" s="20"/>
+      <c r="CA50" s="20"/>
+      <c r="CB50" s="20"/>
+      <c r="CC50" s="20"/>
+      <c r="CD50" s="20"/>
+      <c r="CE50" s="20"/>
+      <c r="CF50" s="20"/>
+      <c r="CG50" s="20"/>
+      <c r="CH50" s="20"/>
+      <c r="CI50" s="22">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="CK50" s="20"/>
+      <c r="CL50" s="20"/>
+      <c r="CM50" s="20"/>
+      <c r="CN50" s="20"/>
+      <c r="CO50" s="20"/>
+      <c r="CP50" s="20"/>
+      <c r="CQ50" s="20"/>
+      <c r="CR50" s="20"/>
+      <c r="CS50" s="20"/>
+      <c r="CT50" s="20"/>
+      <c r="CU50" s="20"/>
+      <c r="CV50" s="20"/>
+      <c r="CW50" s="22">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:101" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="20"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="20"/>
+      <c r="X51" s="20"/>
+      <c r="Y51" s="20"/>
+      <c r="Z51" s="20"/>
+      <c r="AA51" s="20"/>
+      <c r="AB51" s="20"/>
+      <c r="AC51" s="20"/>
+      <c r="AD51" s="20"/>
+      <c r="AE51" s="22">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AG51" s="20"/>
+      <c r="AH51" s="20"/>
+      <c r="AI51" s="20"/>
+      <c r="AJ51" s="20"/>
+      <c r="AK51" s="20"/>
+      <c r="AL51" s="20"/>
+      <c r="AM51" s="20"/>
+      <c r="AN51" s="20"/>
+      <c r="AO51" s="20"/>
+      <c r="AP51" s="20"/>
+      <c r="AQ51" s="20"/>
+      <c r="AR51" s="20"/>
+      <c r="AS51" s="22">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AU51" s="20"/>
+      <c r="AV51" s="20"/>
+      <c r="AW51" s="20"/>
+      <c r="AX51" s="20"/>
+      <c r="AY51" s="20"/>
+      <c r="AZ51" s="20"/>
+      <c r="BA51" s="20"/>
+      <c r="BB51" s="20"/>
+      <c r="BC51" s="20"/>
+      <c r="BD51" s="20"/>
+      <c r="BE51" s="20"/>
+      <c r="BF51" s="20"/>
+      <c r="BG51" s="22">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BI51" s="20"/>
+      <c r="BJ51" s="20"/>
+      <c r="BK51" s="20"/>
+      <c r="BL51" s="20"/>
+      <c r="BM51" s="20"/>
+      <c r="BN51" s="20"/>
+      <c r="BO51" s="20"/>
+      <c r="BP51" s="20"/>
+      <c r="BQ51" s="20"/>
+      <c r="BR51" s="20"/>
+      <c r="BS51" s="20"/>
+      <c r="BT51" s="20"/>
+      <c r="BU51" s="22">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BW51" s="20"/>
+      <c r="BX51" s="20"/>
+      <c r="BY51" s="20"/>
+      <c r="BZ51" s="20"/>
+      <c r="CA51" s="20"/>
+      <c r="CB51" s="20"/>
+      <c r="CC51" s="20"/>
+      <c r="CD51" s="20"/>
+      <c r="CE51" s="20"/>
+      <c r="CF51" s="20"/>
+      <c r="CG51" s="20"/>
+      <c r="CH51" s="20"/>
+      <c r="CI51" s="22">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="CK51" s="20"/>
+      <c r="CL51" s="20"/>
+      <c r="CM51" s="20"/>
+      <c r="CN51" s="20"/>
+      <c r="CO51" s="20"/>
+      <c r="CP51" s="20"/>
+      <c r="CQ51" s="20"/>
+      <c r="CR51" s="20"/>
+      <c r="CS51" s="20"/>
+      <c r="CT51" s="20"/>
+      <c r="CU51" s="20"/>
+      <c r="CV51" s="20"/>
+      <c r="CW51" s="22">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:101" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="20"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="20"/>
+      <c r="X52" s="20"/>
+      <c r="Y52" s="20"/>
+      <c r="Z52" s="20"/>
+      <c r="AA52" s="20"/>
+      <c r="AB52" s="20"/>
+      <c r="AC52" s="20"/>
+      <c r="AD52" s="20"/>
+      <c r="AE52" s="22">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AG52" s="20"/>
+      <c r="AH52" s="20"/>
+      <c r="AI52" s="20"/>
+      <c r="AJ52" s="20"/>
+      <c r="AK52" s="20"/>
+      <c r="AL52" s="20"/>
+      <c r="AM52" s="20"/>
+      <c r="AN52" s="20"/>
+      <c r="AO52" s="20"/>
+      <c r="AP52" s="20"/>
+      <c r="AQ52" s="20"/>
+      <c r="AR52" s="20"/>
+      <c r="AS52" s="22">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AU52" s="20"/>
+      <c r="AV52" s="20"/>
+      <c r="AW52" s="20"/>
+      <c r="AX52" s="20"/>
+      <c r="AY52" s="20"/>
+      <c r="AZ52" s="20"/>
+      <c r="BA52" s="20"/>
+      <c r="BB52" s="20"/>
+      <c r="BC52" s="20"/>
+      <c r="BD52" s="20"/>
+      <c r="BE52" s="20"/>
+      <c r="BF52" s="20"/>
+      <c r="BG52" s="22">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BI52" s="20"/>
+      <c r="BJ52" s="20"/>
+      <c r="BK52" s="20"/>
+      <c r="BL52" s="20"/>
+      <c r="BM52" s="20"/>
+      <c r="BN52" s="20"/>
+      <c r="BO52" s="20"/>
+      <c r="BP52" s="20"/>
+      <c r="BQ52" s="20"/>
+      <c r="BR52" s="20"/>
+      <c r="BS52" s="20"/>
+      <c r="BT52" s="20"/>
+      <c r="BU52" s="22">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BW52" s="20"/>
+      <c r="BX52" s="20"/>
+      <c r="BY52" s="20"/>
+      <c r="BZ52" s="20"/>
+      <c r="CA52" s="20"/>
+      <c r="CB52" s="20"/>
+      <c r="CC52" s="20"/>
+      <c r="CD52" s="20"/>
+      <c r="CE52" s="20"/>
+      <c r="CF52" s="20"/>
+      <c r="CG52" s="20"/>
+      <c r="CH52" s="20"/>
+      <c r="CI52" s="22">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="CK52" s="20"/>
+      <c r="CL52" s="20"/>
+      <c r="CM52" s="20"/>
+      <c r="CN52" s="20"/>
+      <c r="CO52" s="20"/>
+      <c r="CP52" s="20"/>
+      <c r="CQ52" s="20"/>
+      <c r="CR52" s="20"/>
+      <c r="CS52" s="20"/>
+      <c r="CT52" s="20"/>
+      <c r="CU52" s="20"/>
+      <c r="CV52" s="20"/>
+      <c r="CW52" s="22">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:101" x14ac:dyDescent="0.3">
+      <c r="C53" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="21" cm="1">
+        <f t="array" aca="1" ref="E53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="F53" s="21" cm="1">
+        <f t="array" aca="1" ref="F53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="21" cm="1">
+        <f t="array" aca="1" ref="G53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="H53" s="21" cm="1">
+        <f t="array" aca="1" ref="H53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="21" cm="1">
+        <f t="array" aca="1" ref="I53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="21" cm="1">
+        <f t="array" aca="1" ref="J53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="21" cm="1">
+        <f t="array" aca="1" ref="K53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="L53" s="21" cm="1">
+        <f t="array" aca="1" ref="L53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="21" cm="1">
+        <f t="array" aca="1" ref="M53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="21" cm="1">
+        <f t="array" aca="1" ref="N53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="O53" s="21" cm="1">
+        <f t="array" aca="1" ref="O53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="P53" s="21" cm="1">
+        <f t="array" aca="1" ref="P53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="21" cm="1">
+        <f t="array" aca="1" ref="Q53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="R53" s="33" cm="1">
+        <f t="array" aca="1" ref="R53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="S53" s="21" cm="1">
+        <f t="array" aca="1" ref="S53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>31</v>
+      </c>
+      <c r="T53" s="21" cm="1">
+        <f t="array" aca="1" ref="T53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="U53" s="21" cm="1">
+        <f t="array" aca="1" ref="U53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>-5</v>
+      </c>
+      <c r="V53" s="21" cm="1">
+        <f t="array" aca="1" ref="V53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="W53" s="21" cm="1">
+        <f t="array" aca="1" ref="W53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="X53" s="21" cm="1">
+        <f t="array" aca="1" ref="X53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="Y53" s="21" cm="1">
+        <f t="array" aca="1" ref="Y53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="Z53" s="21" cm="1">
+        <f t="array" aca="1" ref="Z53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AA53" s="21" cm="1">
+        <f t="array" aca="1" ref="AA53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AB53" s="21" cm="1">
+        <f t="array" aca="1" ref="AB53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AC53" s="21" cm="1">
+        <f t="array" aca="1" ref="AC53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AD53" s="21" cm="1">
+        <f t="array" aca="1" ref="AD53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AE53" s="21" cm="1">
+        <f t="array" aca="1" ref="AE53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>26</v>
+      </c>
+      <c r="AG53" s="21" cm="1">
+        <f t="array" aca="1" ref="AG53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>31</v>
+      </c>
+      <c r="AH53" s="21" cm="1">
+        <f t="array" aca="1" ref="AH53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AI53" s="21" cm="1">
+        <f t="array" aca="1" ref="AI53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>-5</v>
+      </c>
+      <c r="AJ53" s="21" cm="1">
+        <f t="array" aca="1" ref="AJ53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AK53" s="21" cm="1">
+        <f t="array" aca="1" ref="AK53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AL53" s="21" cm="1">
+        <f t="array" aca="1" ref="AL53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AM53" s="21" cm="1">
+        <f t="array" aca="1" ref="AM53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AN53" s="21" cm="1">
+        <f t="array" aca="1" ref="AN53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AO53" s="21" cm="1">
+        <f t="array" aca="1" ref="AO53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AP53" s="21" cm="1">
+        <f t="array" aca="1" ref="AP53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ53" s="21" cm="1">
+        <f t="array" aca="1" ref="AQ53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AR53" s="21" cm="1">
+        <f t="array" aca="1" ref="AR53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AS53" s="21" cm="1">
+        <f t="array" aca="1" ref="AS53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>26</v>
+      </c>
+      <c r="AU53" s="21" cm="1">
+        <f t="array" aca="1" ref="AU53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>31</v>
+      </c>
+      <c r="AV53" s="21" cm="1">
+        <f t="array" aca="1" ref="AV53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AW53" s="21" cm="1">
+        <f t="array" aca="1" ref="AW53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>-5</v>
+      </c>
+      <c r="AX53" s="21" cm="1">
+        <f t="array" aca="1" ref="AX53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AY53" s="21" cm="1">
+        <f t="array" aca="1" ref="AY53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="AZ53" s="21" cm="1">
+        <f t="array" aca="1" ref="AZ53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BA53" s="21" cm="1">
+        <f t="array" aca="1" ref="BA53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BB53" s="21" cm="1">
+        <f t="array" aca="1" ref="BB53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BC53" s="21" cm="1">
+        <f t="array" aca="1" ref="BC53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BD53" s="21" cm="1">
+        <f t="array" aca="1" ref="BD53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BE53" s="21" cm="1">
+        <f t="array" aca="1" ref="BE53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BF53" s="21" cm="1">
+        <f t="array" aca="1" ref="BF53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BG53" s="21" cm="1">
+        <f t="array" aca="1" ref="BG53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>26</v>
+      </c>
+      <c r="BI53" s="21" cm="1">
+        <f t="array" aca="1" ref="BI53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>31</v>
+      </c>
+      <c r="BJ53" s="21" cm="1">
+        <f t="array" aca="1" ref="BJ53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BK53" s="21" cm="1">
+        <f t="array" aca="1" ref="BK53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>-5</v>
+      </c>
+      <c r="BL53" s="21" cm="1">
+        <f t="array" aca="1" ref="BL53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BM53" s="21" cm="1">
+        <f t="array" aca="1" ref="BM53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BN53" s="21" cm="1">
+        <f t="array" aca="1" ref="BN53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BO53" s="21" cm="1">
+        <f t="array" aca="1" ref="BO53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BP53" s="21" cm="1">
+        <f t="array" aca="1" ref="BP53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BQ53" s="21" cm="1">
+        <f t="array" aca="1" ref="BQ53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BR53" s="21" cm="1">
+        <f t="array" aca="1" ref="BR53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BS53" s="21" cm="1">
+        <f t="array" aca="1" ref="BS53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BT53" s="21" cm="1">
+        <f t="array" aca="1" ref="BT53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BU53" s="21" cm="1">
+        <f t="array" aca="1" ref="BU53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>26</v>
+      </c>
+      <c r="BW53" s="21" cm="1">
+        <f t="array" aca="1" ref="BW53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>31</v>
+      </c>
+      <c r="BX53" s="21" cm="1">
+        <f t="array" aca="1" ref="BX53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="BY53" s="21" cm="1">
+        <f t="array" aca="1" ref="BY53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>-5</v>
+      </c>
+      <c r="BZ53" s="21" cm="1">
+        <f t="array" aca="1" ref="BZ53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CA53" s="21" cm="1">
+        <f t="array" aca="1" ref="CA53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CB53" s="21" cm="1">
+        <f t="array" aca="1" ref="CB53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CC53" s="21" cm="1">
+        <f t="array" aca="1" ref="CC53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CD53" s="21" cm="1">
+        <f t="array" aca="1" ref="CD53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CE53" s="21" cm="1">
+        <f t="array" aca="1" ref="CE53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CF53" s="21" cm="1">
+        <f t="array" aca="1" ref="CF53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CG53" s="21" cm="1">
+        <f t="array" aca="1" ref="CG53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CH53" s="21" cm="1">
+        <f t="array" aca="1" ref="CH53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CI53" s="21" cm="1">
+        <f t="array" aca="1" ref="CI53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>26</v>
+      </c>
+      <c r="CK53" s="21" cm="1">
+        <f t="array" aca="1" ref="CK53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>31</v>
+      </c>
+      <c r="CL53" s="21" cm="1">
+        <f t="array" aca="1" ref="CL53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CM53" s="21" cm="1">
+        <f t="array" aca="1" ref="CM53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>-5</v>
+      </c>
+      <c r="CN53" s="21" cm="1">
+        <f t="array" aca="1" ref="CN53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CO53" s="21" cm="1">
+        <f t="array" aca="1" ref="CO53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CP53" s="21" cm="1">
+        <f t="array" aca="1" ref="CP53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CQ53" s="21" cm="1">
+        <f t="array" aca="1" ref="CQ53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CR53" s="21" cm="1">
+        <f t="array" aca="1" ref="CR53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CS53" s="21" cm="1">
+        <f t="array" aca="1" ref="CS53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CT53" s="21" cm="1">
+        <f t="array" aca="1" ref="CT53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CU53" s="21" cm="1">
+        <f t="array" aca="1" ref="CU53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CV53" s="21" cm="1">
+        <f t="array" aca="1" ref="CV53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="CW53" s="21" cm="1">
+        <f t="array" aca="1" ref="CW53" ca="1">SUM(INDIRECT(ADDRESS(savings_min_row,COLUMN())&amp;":"&amp; ADDRESS(savings_max_row,COLUMN())))</f>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
+    <mergeCell ref="BW4:CI4"/>
+    <mergeCell ref="CK4:CW4"/>
     <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="S4:AE4"/>
+    <mergeCell ref="AG4:AS4"/>
+    <mergeCell ref="AU4:BG4"/>
+    <mergeCell ref="BI4:BU4"/>
   </mergeCells>
-  <conditionalFormatting sqref="C9:C20 E9:Q20">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <conditionalFormatting sqref="C9:C20 E9:Q20 S9:AE20">
+    <cfRule type="expression" dxfId="40" priority="36">
       <formula>ROW(A9)&lt;=income_max_row</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C36 E25:Q36 S25:AE36">
+    <cfRule type="expression" dxfId="39" priority="35">
+      <formula>ROW(A25)&lt;=expenses_max_row</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C44 E41:Q52 S41:AE52">
+    <cfRule type="expression" dxfId="38" priority="34">
+      <formula>ROW(A41)&lt;=savings_max_row</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:Q6 S5:AE6">
+    <cfRule type="expression" dxfId="37" priority="31" stopIfTrue="1">
+      <formula>AND(E$21=0,E$37=0,E$53=0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="32" stopIfTrue="1">
+      <formula>E$6&lt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="33">
+      <formula>E$6&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG5:AS6">
+    <cfRule type="expression" dxfId="34" priority="25" stopIfTrue="1">
+      <formula>AND(AG$21=0,AG$37=0,AG$53=0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="26" stopIfTrue="1">
+      <formula>AG$6&lt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="27">
+      <formula>AG$6&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG9:AS20">
+    <cfRule type="expression" dxfId="31" priority="30">
+      <formula>ROW(AE9)&lt;=income_max_row</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG25:AS36">
+    <cfRule type="expression" dxfId="30" priority="29">
+      <formula>ROW(AE25)&lt;=expenses_max_row</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG41:AS52">
+    <cfRule type="expression" dxfId="29" priority="28">
+      <formula>ROW(AE41)&lt;=savings_max_row</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU5:BG6">
+    <cfRule type="expression" dxfId="28" priority="19" stopIfTrue="1">
+      <formula>AND(AU$21=0,AU$37=0,AU$53=0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="20" stopIfTrue="1">
+      <formula>AU$6&lt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="21">
+      <formula>AU$6&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU9:BG20">
+    <cfRule type="expression" dxfId="25" priority="24">
+      <formula>ROW(AS9)&lt;=income_max_row</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU25:BG36">
+    <cfRule type="expression" dxfId="24" priority="23">
+      <formula>ROW(AS25)&lt;=expenses_max_row</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU41:BG52">
+    <cfRule type="expression" dxfId="23" priority="22">
+      <formula>ROW(AS41)&lt;=savings_max_row</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BI5:BU6">
+    <cfRule type="expression" dxfId="22" priority="13" stopIfTrue="1">
+      <formula>AND(BI$21=0,BI$37=0,BI$53=0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="14" stopIfTrue="1">
+      <formula>BI$6&lt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="15">
+      <formula>BI$6&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BI9:BU20">
+    <cfRule type="expression" dxfId="19" priority="18">
+      <formula>ROW(BG9)&lt;=income_max_row</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BI25:BU36">
+    <cfRule type="expression" dxfId="18" priority="17">
+      <formula>ROW(BG25)&lt;=expenses_max_row</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BI41:BU52">
+    <cfRule type="expression" dxfId="17" priority="16">
+      <formula>ROW(BG41)&lt;=savings_max_row</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BW5:CI6">
+    <cfRule type="expression" dxfId="16" priority="7" stopIfTrue="1">
+      <formula>AND(BW$21=0,BW$37=0,BW$53=0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="8" stopIfTrue="1">
+      <formula>BW$6&lt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="9">
+      <formula>BW$6&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BW9:CI20">
+    <cfRule type="expression" dxfId="13" priority="12">
+      <formula>ROW(BU9)&lt;=income_max_row</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BW25:CI36">
+    <cfRule type="expression" dxfId="12" priority="11">
+      <formula>ROW(BU25)&lt;=expenses_max_row</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BW41:CI52">
+    <cfRule type="expression" dxfId="11" priority="10">
+      <formula>ROW(BU41)&lt;=savings_max_row</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CK5:CW6">
+    <cfRule type="expression" dxfId="10" priority="1" stopIfTrue="1">
+      <formula>AND(CK$21=0,CK$37=0,CK$53=0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="2" stopIfTrue="1">
+      <formula>CK$6&lt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="3">
+      <formula>CK$6&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CK9:CW20">
+    <cfRule type="expression" dxfId="7" priority="6">
+      <formula>ROW(CI9)&lt;=income_max_row</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CK25:CW36">
+    <cfRule type="expression" dxfId="6" priority="5">
+      <formula>ROW(CI25)&lt;=expenses_max_row</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CK41:CW52">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>ROW(CI41)&lt;=savings_max_row</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1240FA41-9684-4DA2-9553-0FE54F2C8EC9}">
-  <dimension ref="C1"/>
+  <dimension ref="C1:J14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="2.88671875" customWidth="1"/>
+    <col min="3" max="4" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="43.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:3" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="19" t="s">
+    <row r="1" spans="3:10" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="14" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J9" s="52"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="38">
+        <v>45287</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="39">
+        <v>1200</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="H12" s="42" cm="1">
+        <f t="array" ref="H12">SUMPRODUCT(Table1[Amount],--(Table1[Date]&lt;=Table1[[#This Row],[Date]]),(Table1[Type]&lt;&gt;"Income")*(-1) +(Table1[Type]="Income"))</f>
+        <v>1200</v>
+      </c>
+      <c r="I12" s="53">
+        <f>IF(AND(Table1[[#This Row],[Type]]="Income",shift_late_income_status="Active",DAY(Table1[[#This Row],[Date]])&gt;=shift_late_income_starting_date),DATE(YEAR(Table1[[#This Row],[Date]]),MONTH(Table1[[#This Row],[Date]])+1,1),Table1[[#This Row],[Date]])</f>
+        <v>45287</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="38">
+        <v>45293</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="39">
+        <v>340</v>
+      </c>
+      <c r="G13" s="40"/>
+      <c r="H13" s="42" cm="1">
+        <f t="array" ref="H13">SUMPRODUCT(Table1[Amount],--(Table1[Date]&lt;=Table1[[#This Row],[Date]]),(Table1[Type]&lt;&gt;"Income")*(-1) +(Table1[Type]="Income"))</f>
+        <v>860</v>
+      </c>
+      <c r="I13" s="53">
+        <f>IF(AND(Table1[[#This Row],[Type]]="Income",shift_late_income_status="Active",DAY(Table1[[#This Row],[Date]])&gt;=shift_late_income_starting_date),DATE(YEAR(Table1[[#This Row],[Date]]),MONTH(Table1[[#This Row],[Date]])+1,1),Table1[[#This Row],[Date]])</f>
+        <v>45293</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="38">
+        <v>45294</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="39">
+        <v>300</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="H14" s="42" cm="1">
+        <f t="array" ref="H14">SUMPRODUCT(Table1[Amount],--(Table1[Date]&lt;=Table1[[#This Row],[Date]]),(Table1[Type]&lt;&gt;"Income")*(-1) +(Table1[Type]="Income"))</f>
+        <v>560</v>
+      </c>
+      <c r="I14" s="53">
+        <f>IF(AND(Table1[[#This Row],[Type]]="Income",shift_late_income_status="Active",DAY(Table1[[#This Row],[Date]])&gt;=shift_late_income_starting_date),DATE(YEAR(Table1[[#This Row],[Date]]),MONTH(Table1[[#This Row],[Date]])+1,1),Table1[[#This Row],[Date]])</f>
+        <v>45294</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E12:E14">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>ISNA(MATCH(E12, INDIRECT(D12),0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:F14">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>D12="Income"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Date" error="Please enter a valid date." sqref="C12:C14" xr:uid="{1361BD68-496B-4309-8C97-11F076AEFC0E}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid type" error="Please select a valid choice from list." sqref="D12:D14" xr:uid="{D08B882D-37EA-4477-A14A-168EE4E9F1C8}">
+      <formula1>"Income, Expenses, Savings"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Category" error="Please select valid category from list." sqref="E12:E14" xr:uid="{01DB064E-CA28-4759-9473-90E78D310011}">
+      <formula1>INDIRECT(D12)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Type" error="Please enter valid number," sqref="F12:F14" xr:uid="{40CA93A7-9145-4584-96BF-C8E6D404D36F}">
+      <formula1>ISNUMBER(F12)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1512,7 +9843,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:3" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1535,7 +9866,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:3" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1558,7 +9889,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:3" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="13" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deven\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4857CE2F-C8E6-4D50-B9F6-84DA5B1A9EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0077A856-9D2D-41A0-9DA2-94FB3EFAE402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{7A5C3E06-9109-4415-A31A-FCDDF2E0260C}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <sheet name="Dropdown Data" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="current_date">DATE(2024,8,3)</definedName>
     <definedName name="expenses_header_row">ROW(Expenses[[#Headers],[Expenses]])</definedName>
     <definedName name="expenses_max_row">MAX(ROW(Expenses[]))</definedName>
     <definedName name="expenses_min_row">MIN(ROW(Expenses[]))</definedName>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
   <si>
     <t>Settings</t>
   </si>
@@ -200,10 +201,16 @@
     <t xml:space="preserve">Active </t>
   </si>
   <si>
-    <t>Startting on day x in month:</t>
+    <t>Activate this option to treat late income received on or after a certain day of month as income for next month.This is recommended if you receive paycheck at end of month.prefer this as disposable income for next month.</t>
   </si>
   <si>
-    <t>Activate this option to treat late income received on or after a certain day of month as income for next month.This is recommended if you receive paycheck at end of month.prefer this as disposable income for next month.</t>
+    <t>Starting on day x in month:</t>
+  </si>
+  <si>
+    <t>Worksheet : Budget Tracking</t>
+  </si>
+  <si>
+    <t>Today:</t>
   </si>
 </sst>
 </file>
@@ -215,7 +222,7 @@
     <numFmt numFmtId="164" formatCode="mmm"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +363,14 @@
       <b/>
       <sz val="12"/>
       <color theme="5" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -598,7 +613,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -667,12 +682,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -694,8 +703,7 @@
     <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -704,14 +712,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="15" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -737,32 +757,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FF00B050"/>
@@ -772,6 +766,141 @@
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
@@ -851,7 +980,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF00B050"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -861,7 +990,22 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
@@ -896,153 +1040,29 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1137,70 +1157,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1410,6 +1366,70 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1527,10 +1547,10 @@
       <tableStyleElement type="headerRow" dxfId="61"/>
     </tableStyle>
     <tableStyle name="Tracking table style" pivot="0" count="4" xr9:uid="{86EC194D-5430-4AB6-A2C4-C16AB6EB4BD1}">
-      <tableStyleElement type="wholeTable" dxfId="51"/>
-      <tableStyleElement type="headerRow" dxfId="50"/>
-      <tableStyleElement type="firstRowStripe" dxfId="49"/>
-      <tableStyleElement type="secondRowStripe" dxfId="48"/>
+      <tableStyleElement type="wholeTable" dxfId="60"/>
+      <tableStyleElement type="headerRow" dxfId="59"/>
+      <tableStyleElement type="firstRowStripe" dxfId="58"/>
+      <tableStyleElement type="secondRowStripe" dxfId="57"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1545,55 +1565,62 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EFC4D99F-BC14-4919-93CD-DA1414200B57}" name="Income" displayName="Income" ref="C8:C12" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EFC4D99F-BC14-4919-93CD-DA1414200B57}" name="Income" displayName="Income" ref="C8:C12" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
   <autoFilter ref="C8:C12" xr:uid="{EFC4D99F-BC14-4919-93CD-DA1414200B57}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{EE7D3E22-4D20-4608-9AC7-666336B439A7}" name="Income" dataDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{EE7D3E22-4D20-4608-9AC7-666336B439A7}" name="Income" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="Income Table Style1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0880E43B-35FA-4643-AE18-06C62E37CF71}" name="Expenses" displayName="Expenses" ref="C24:C28" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0880E43B-35FA-4643-AE18-06C62E37CF71}" name="Expenses" displayName="Expenses" ref="C24:C28" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="C24:C28" xr:uid="{0880E43B-35FA-4643-AE18-06C62E37CF71}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{9FF8006E-641D-4245-BF69-9B6997542C28}" name="Expenses" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{9FF8006E-641D-4245-BF69-9B6997542C28}" name="Expenses" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="Expense Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{85D18FEA-ABEE-4A12-BA2A-0C017D65D635}" name="Savings" displayName="Savings" ref="C40:C44" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{85D18FEA-ABEE-4A12-BA2A-0C017D65D635}" name="Savings" displayName="Savings" ref="C40:C44" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
   <autoFilter ref="C40:C44" xr:uid="{85D18FEA-ABEE-4A12-BA2A-0C017D65D635}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{662A2D9C-6457-4651-B635-93FB5EB8289F}" name="Savings" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{662A2D9C-6457-4651-B635-93FB5EB8289F}" name="Savings" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="Savings Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15260CEE-AFAD-4667-B352-DF97F7B3DB8B}" name="Table1" displayName="Table1" ref="C11:I14" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15260CEE-AFAD-4667-B352-DF97F7B3DB8B}" name="Tracking" displayName="Tracking" ref="C11:I14" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="C11:I14" xr:uid="{15260CEE-AFAD-4667-B352-DF97F7B3DB8B}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{54F4823D-83FE-4699-83A2-D2A113876861}" name="Date" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{025E3FA5-5B8A-43A0-844F-25257305FEA6}" name="Type" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{54F4823D-83FE-4699-83A2-D2A113876861}" name="Date" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{025E3FA5-5B8A-43A0-844F-25257305FEA6}" name="Type" dataDxfId="44"/>
     <tableColumn id="3" xr3:uid="{2141A36F-F703-45FF-A64D-093E70D7EF8B}" name="Category" dataDxfId="43"/>
     <tableColumn id="4" xr3:uid="{133095F4-E6AA-4D7F-BBCE-ABB9339E2910}" name="Amount" dataDxfId="42" dataCellStyle="Comma"/>
     <tableColumn id="5" xr3:uid="{9BCC9512-A40A-4DED-AA19-41DCAFEBE48E}" name="Details" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{6DEBC14F-239B-4833-8E9C-CAC2B729AF2D}" name="Balance" dataDxfId="1" dataCellStyle="Comma">
-      <calculatedColumnFormula array="1">SUMPRODUCT(Table1[Amount],--(Table1[Date]&lt;=Table1[[#This Row],[Date]]),(Table1[Type]&lt;&gt;"Income")*(-1) +(Table1[Type]="Income"))</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{6DEBC14F-239B-4833-8E9C-CAC2B729AF2D}" name="Balance" dataDxfId="40" dataCellStyle="Comma">
+      <calculatedColumnFormula array="1">SUMPRODUCT(Tracking[Amount],--(Tracking[Date]&lt;=Tracking[[#This Row],[Date]]),(Tracking[Type]&lt;&gt;"Income")*(-1) +(Tracking[Type]="Income"))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{14F6F0F5-FD4F-467B-BCD3-18F6583C690B}" name="Effective Date" dataDxfId="0" dataCellStyle="Comma">
-      <calculatedColumnFormula>IF(AND(Table1[[#This Row],[Type]]="Income",shift_late_income_status="Active",DAY(Table1[[#This Row],[Date]])&gt;=shift_late_income_starting_date),DATE(YEAR(Table1[[#This Row],[Date]]),MONTH(Table1[[#This Row],[Date]])+1,1),Table1[[#This Row],[Date]])</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(
+  AND(
+    Tracking[[#This Row],[Type]] = "Income",
+    shift_late_income_status = "Active",
+    DAY(Tracking[[#This Row],[Date]]) &gt;= shift_late_income_starting_date  ),
+  EOMONTH(Tracking[[#This Row],[Date]], 0) + 1,
+  Tracking[[#This Row],[Date]]
+)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Tracking table style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1900,7 +1927,7 @@
   <dimension ref="C1:H22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1920,14 +1947,14 @@
       </c>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="5"/>
@@ -1959,14 +1986,14 @@
       <c r="H7" s="11"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="5"/>
@@ -1978,102 +2005,71 @@
     </row>
     <row r="12" spans="3:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="3:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="42" t="s">
         <v>38</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="51" t="s">
-        <v>41</v>
+      <c r="G14" s="52" t="s">
+        <v>40</v>
       </c>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="3:8" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="46"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="47"/>
+      <c r="C15" s="43"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="44"/>
     </row>
     <row r="16" spans="3:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="46"/>
-      <c r="D16" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="C16" s="43"/>
+      <c r="D16" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="50">
         <v>20</v>
       </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="47"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="44"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="46"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="47"/>
+      <c r="C17" s="43"/>
+      <c r="H17" s="44"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="46"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="47"/>
+      <c r="C18" s="43"/>
+      <c r="H18" s="44"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="46"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="47"/>
+      <c r="C19" s="43"/>
+      <c r="H19" s="44"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="46"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="47"/>
+      <c r="C20" s="43"/>
+      <c r="H20" s="44"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="46"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="47"/>
+      <c r="C21" s="43"/>
+      <c r="H21" s="44"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="48"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="50"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2082,7 +2078,7 @@
     <mergeCell ref="G14:G16"/>
   </mergeCells>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="39" priority="1">
       <formula>shift_late_income_status="Inactive"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2100,7 +2096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71143E16-495D-40B9-BE9F-59CF5F496BCC}">
   <dimension ref="C1:CW53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -2109,8 +2105,9 @@
     <col min="2" max="2" width="2.88671875" customWidth="1"/>
     <col min="3" max="3" width="26.109375" customWidth="1"/>
     <col min="4" max="4" width="1.6640625" customWidth="1"/>
-    <col min="5" max="13" width="8.88671875" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="16" width="9.5546875" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="13" width="8.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="16" width="9.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="8.88671875" collapsed="1"/>
     <col min="18" max="18" width="1.5546875" customWidth="1"/>
     <col min="19" max="27" width="8.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="28" max="30" width="9.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -2147,118 +2144,118 @@
       <c r="C4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="53">
         <f>starting_year</f>
         <v>2024</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="S4" s="35">
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="S4" s="53">
         <f>E4+1</f>
         <v>2025</v>
       </c>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AG4" s="35">
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="53"/>
+      <c r="AG4" s="53">
         <f>S4+1</f>
         <v>2026</v>
       </c>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35"/>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="35"/>
-      <c r="AU4" s="35">
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="53"/>
+      <c r="AL4" s="53"/>
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="53"/>
+      <c r="AQ4" s="53"/>
+      <c r="AR4" s="53"/>
+      <c r="AS4" s="53"/>
+      <c r="AU4" s="53">
         <f>AG4+1</f>
         <v>2027</v>
       </c>
-      <c r="AV4" s="35"/>
-      <c r="AW4" s="35"/>
-      <c r="AX4" s="35"/>
-      <c r="AY4" s="35"/>
-      <c r="AZ4" s="35"/>
-      <c r="BA4" s="35"/>
-      <c r="BB4" s="35"/>
-      <c r="BC4" s="35"/>
-      <c r="BD4" s="35"/>
-      <c r="BE4" s="35"/>
-      <c r="BF4" s="35"/>
-      <c r="BG4" s="35"/>
-      <c r="BI4" s="35">
+      <c r="AV4" s="53"/>
+      <c r="AW4" s="53"/>
+      <c r="AX4" s="53"/>
+      <c r="AY4" s="53"/>
+      <c r="AZ4" s="53"/>
+      <c r="BA4" s="53"/>
+      <c r="BB4" s="53"/>
+      <c r="BC4" s="53"/>
+      <c r="BD4" s="53"/>
+      <c r="BE4" s="53"/>
+      <c r="BF4" s="53"/>
+      <c r="BG4" s="53"/>
+      <c r="BI4" s="53">
         <f>AU4+1</f>
         <v>2028</v>
       </c>
-      <c r="BJ4" s="35"/>
-      <c r="BK4" s="35"/>
-      <c r="BL4" s="35"/>
-      <c r="BM4" s="35"/>
-      <c r="BN4" s="35"/>
-      <c r="BO4" s="35"/>
-      <c r="BP4" s="35"/>
-      <c r="BQ4" s="35"/>
-      <c r="BR4" s="35"/>
-      <c r="BS4" s="35"/>
-      <c r="BT4" s="35"/>
-      <c r="BU4" s="35"/>
-      <c r="BW4" s="35">
+      <c r="BJ4" s="53"/>
+      <c r="BK4" s="53"/>
+      <c r="BL4" s="53"/>
+      <c r="BM4" s="53"/>
+      <c r="BN4" s="53"/>
+      <c r="BO4" s="53"/>
+      <c r="BP4" s="53"/>
+      <c r="BQ4" s="53"/>
+      <c r="BR4" s="53"/>
+      <c r="BS4" s="53"/>
+      <c r="BT4" s="53"/>
+      <c r="BU4" s="53"/>
+      <c r="BW4" s="53">
         <f>BI4+1</f>
         <v>2029</v>
       </c>
-      <c r="BX4" s="35"/>
-      <c r="BY4" s="35"/>
-      <c r="BZ4" s="35"/>
-      <c r="CA4" s="35"/>
-      <c r="CB4" s="35"/>
-      <c r="CC4" s="35"/>
-      <c r="CD4" s="35"/>
-      <c r="CE4" s="35"/>
-      <c r="CF4" s="35"/>
-      <c r="CG4" s="35"/>
-      <c r="CH4" s="35"/>
-      <c r="CI4" s="35"/>
-      <c r="CK4" s="35">
+      <c r="BX4" s="53"/>
+      <c r="BY4" s="53"/>
+      <c r="BZ4" s="53"/>
+      <c r="CA4" s="53"/>
+      <c r="CB4" s="53"/>
+      <c r="CC4" s="53"/>
+      <c r="CD4" s="53"/>
+      <c r="CE4" s="53"/>
+      <c r="CF4" s="53"/>
+      <c r="CG4" s="53"/>
+      <c r="CH4" s="53"/>
+      <c r="CI4" s="53"/>
+      <c r="CK4" s="53">
         <f>BW4+1</f>
         <v>2030</v>
       </c>
-      <c r="CL4" s="35"/>
-      <c r="CM4" s="35"/>
-      <c r="CN4" s="35"/>
-      <c r="CO4" s="35"/>
-      <c r="CP4" s="35"/>
-      <c r="CQ4" s="35"/>
-      <c r="CR4" s="35"/>
-      <c r="CS4" s="35"/>
-      <c r="CT4" s="35"/>
-      <c r="CU4" s="35"/>
-      <c r="CV4" s="35"/>
-      <c r="CW4" s="35"/>
+      <c r="CL4" s="53"/>
+      <c r="CM4" s="53"/>
+      <c r="CN4" s="53"/>
+      <c r="CO4" s="53"/>
+      <c r="CP4" s="53"/>
+      <c r="CQ4" s="53"/>
+      <c r="CR4" s="53"/>
+      <c r="CS4" s="53"/>
+      <c r="CT4" s="53"/>
+      <c r="CU4" s="53"/>
+      <c r="CV4" s="53"/>
+      <c r="CW4" s="53"/>
     </row>
     <row r="5" spans="3:101" x14ac:dyDescent="0.3">
       <c r="C5" s="30" t="s">
@@ -9517,158 +9514,158 @@
     <mergeCell ref="BI4:BU4"/>
   </mergeCells>
   <conditionalFormatting sqref="C9:C20 E9:Q20 S9:AE20">
-    <cfRule type="expression" dxfId="40" priority="36">
+    <cfRule type="expression" dxfId="38" priority="36">
       <formula>ROW(A9)&lt;=income_max_row</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C36 E25:Q36 S25:AE36">
-    <cfRule type="expression" dxfId="39" priority="35">
+    <cfRule type="expression" dxfId="37" priority="35">
       <formula>ROW(A25)&lt;=expenses_max_row</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C44 E41:Q52 S41:AE52">
-    <cfRule type="expression" dxfId="38" priority="34">
+    <cfRule type="expression" dxfId="36" priority="34">
       <formula>ROW(A41)&lt;=savings_max_row</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:Q6 S5:AE6">
-    <cfRule type="expression" dxfId="37" priority="31" stopIfTrue="1">
-      <formula>AND(E$21=0,E$37=0,E$53=0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="32" stopIfTrue="1">
-      <formula>E$6&lt;0</formula>
-    </cfRule>
     <cfRule type="expression" dxfId="35" priority="33">
       <formula>E$6&gt;0</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="34" priority="32" stopIfTrue="1">
+      <formula>E$6&lt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="31" stopIfTrue="1">
+      <formula>AND(E$21=0,E$37=0,E$53=0)</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG5:AS6">
-    <cfRule type="expression" dxfId="34" priority="25" stopIfTrue="1">
-      <formula>AND(AG$21=0,AG$37=0,AG$53=0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="26" stopIfTrue="1">
-      <formula>AG$6&lt;0</formula>
-    </cfRule>
     <cfRule type="expression" dxfId="32" priority="27">
       <formula>AG$6&gt;0</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="31" priority="26" stopIfTrue="1">
+      <formula>AG$6&lt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="25" stopIfTrue="1">
+      <formula>AND(AG$21=0,AG$37=0,AG$53=0)</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG9:AS20">
-    <cfRule type="expression" dxfId="31" priority="30">
+    <cfRule type="expression" dxfId="29" priority="30">
       <formula>ROW(AE9)&lt;=income_max_row</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG25:AS36">
-    <cfRule type="expression" dxfId="30" priority="29">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>ROW(AE25)&lt;=expenses_max_row</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG41:AS52">
-    <cfRule type="expression" dxfId="29" priority="28">
+    <cfRule type="expression" dxfId="27" priority="28">
       <formula>ROW(AE41)&lt;=savings_max_row</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU5:BG6">
-    <cfRule type="expression" dxfId="28" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="19" stopIfTrue="1">
       <formula>AND(AU$21=0,AU$37=0,AU$53=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="20" stopIfTrue="1">
       <formula>AU$6&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="21">
+    <cfRule type="expression" dxfId="24" priority="21">
       <formula>AU$6&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU9:BG20">
-    <cfRule type="expression" dxfId="25" priority="24">
+    <cfRule type="expression" dxfId="23" priority="24">
       <formula>ROW(AS9)&lt;=income_max_row</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU25:BG36">
-    <cfRule type="expression" dxfId="24" priority="23">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>ROW(AS25)&lt;=expenses_max_row</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU41:BG52">
-    <cfRule type="expression" dxfId="23" priority="22">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>ROW(AS41)&lt;=savings_max_row</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI5:BU6">
-    <cfRule type="expression" dxfId="22" priority="13" stopIfTrue="1">
-      <formula>AND(BI$21=0,BI$37=0,BI$53=0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="14" stopIfTrue="1">
-      <formula>BI$6&lt;0</formula>
-    </cfRule>
     <cfRule type="expression" dxfId="20" priority="15">
       <formula>BI$6&gt;0</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="19" priority="14" stopIfTrue="1">
+      <formula>BI$6&lt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="13" stopIfTrue="1">
+      <formula>AND(BI$21=0,BI$37=0,BI$53=0)</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI9:BU20">
-    <cfRule type="expression" dxfId="19" priority="18">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>ROW(BG9)&lt;=income_max_row</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI25:BU36">
-    <cfRule type="expression" dxfId="18" priority="17">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>ROW(BG25)&lt;=expenses_max_row</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI41:BU52">
-    <cfRule type="expression" dxfId="17" priority="16">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>ROW(BG41)&lt;=savings_max_row</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW5:CI6">
-    <cfRule type="expression" dxfId="16" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
       <formula>AND(BW$21=0,BW$37=0,BW$53=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="9">
+      <formula>BW$6&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="8" stopIfTrue="1">
       <formula>BW$6&lt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="9">
-      <formula>BW$6&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW9:CI20">
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>ROW(BU9)&lt;=income_max_row</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW25:CI36">
-    <cfRule type="expression" dxfId="12" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>ROW(BU25)&lt;=expenses_max_row</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW41:CI52">
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>ROW(BU41)&lt;=savings_max_row</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CK5:CW6">
-    <cfRule type="expression" dxfId="10" priority="1" stopIfTrue="1">
-      <formula>AND(CK$21=0,CK$37=0,CK$53=0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
       <formula>CK$6&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>CK$6&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
+      <formula>AND(CK$21=0,CK$37=0,CK$53=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CK9:CW20">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>ROW(CI9)&lt;=income_max_row</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CK25:CW36">
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>ROW(CI25)&lt;=expenses_max_row</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CK41:CW52">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>ROW(CI41)&lt;=savings_max_row</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9687,7 +9684,7 @@
   <dimension ref="C1:J14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9707,104 +9704,129 @@
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="J9" s="52"/>
+      <c r="J9" s="48"/>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="39" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C12" s="38">
-        <v>45287</v>
-      </c>
-      <c r="D12" s="37" t="s">
+      <c r="C12" s="36">
+        <v>45313</v>
+      </c>
+      <c r="D12" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="37">
         <v>1200</v>
       </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="42" cm="1">
-        <f t="array" ref="H12">SUMPRODUCT(Table1[Amount],--(Table1[Date]&lt;=Table1[[#This Row],[Date]]),(Table1[Type]&lt;&gt;"Income")*(-1) +(Table1[Type]="Income"))</f>
-        <v>1200</v>
-      </c>
-      <c r="I12" s="53">
-        <f>IF(AND(Table1[[#This Row],[Type]]="Income",shift_late_income_status="Active",DAY(Table1[[#This Row],[Date]])&gt;=shift_late_income_starting_date),DATE(YEAR(Table1[[#This Row],[Date]]),MONTH(Table1[[#This Row],[Date]])+1,1),Table1[[#This Row],[Date]])</f>
-        <v>45287</v>
+      <c r="G12" s="38"/>
+      <c r="H12" s="40" cm="1">
+        <f t="array" ref="H12">SUMPRODUCT(Tracking[Amount],--(Tracking[Date]&lt;=Tracking[[#This Row],[Date]]),(Tracking[Type]&lt;&gt;"Income")*(-1) +(Tracking[Type]="Income"))</f>
+        <v>1840</v>
+      </c>
+      <c r="I12" s="49">
+        <f>IF(
+  AND(
+    Tracking[[#This Row],[Type]] = "Income",
+    shift_late_income_status = "Active",
+    DAY(Tracking[[#This Row],[Date]]) &gt;= shift_late_income_starting_date  ),
+  EOMONTH(Tracking[[#This Row],[Date]], 0) + 1,
+  Tracking[[#This Row],[Date]]
+)</f>
+        <v>45313</v>
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C13" s="38">
-        <v>45293</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="39">
+      <c r="C13" s="36">
+        <v>45313</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="37">
         <v>340</v>
       </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="42" cm="1">
-        <f t="array" ref="H13">SUMPRODUCT(Table1[Amount],--(Table1[Date]&lt;=Table1[[#This Row],[Date]]),(Table1[Type]&lt;&gt;"Income")*(-1) +(Table1[Type]="Income"))</f>
-        <v>860</v>
-      </c>
-      <c r="I13" s="53">
-        <f>IF(AND(Table1[[#This Row],[Type]]="Income",shift_late_income_status="Active",DAY(Table1[[#This Row],[Date]])&gt;=shift_late_income_starting_date),DATE(YEAR(Table1[[#This Row],[Date]]),MONTH(Table1[[#This Row],[Date]])+1,1),Table1[[#This Row],[Date]])</f>
-        <v>45293</v>
+      <c r="G13" s="38"/>
+      <c r="H13" s="40" cm="1">
+        <f t="array" ref="H13">SUMPRODUCT(Tracking[Amount],--(Tracking[Date]&lt;=Tracking[[#This Row],[Date]]),(Tracking[Type]&lt;&gt;"Income")*(-1) +(Tracking[Type]="Income"))</f>
+        <v>1840</v>
+      </c>
+      <c r="I13" s="49">
+        <f>IF(
+  AND(
+    Tracking[[#This Row],[Type]] = "Income",
+    shift_late_income_status = "Active",
+    DAY(Tracking[[#This Row],[Date]]) &gt;= shift_late_income_starting_date  ),
+  EOMONTH(Tracking[[#This Row],[Date]], 0) + 1,
+  Tracking[[#This Row],[Date]]
+)</f>
+        <v>45313</v>
       </c>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C14" s="38">
-        <v>45294</v>
-      </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="39">
+      <c r="C14" s="36">
+        <v>45293</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="37">
         <v>300</v>
       </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="42" cm="1">
-        <f t="array" ref="H14">SUMPRODUCT(Table1[Amount],--(Table1[Date]&lt;=Table1[[#This Row],[Date]]),(Table1[Type]&lt;&gt;"Income")*(-1) +(Table1[Type]="Income"))</f>
-        <v>560</v>
-      </c>
-      <c r="I14" s="53">
-        <f>IF(AND(Table1[[#This Row],[Type]]="Income",shift_late_income_status="Active",DAY(Table1[[#This Row],[Date]])&gt;=shift_late_income_starting_date),DATE(YEAR(Table1[[#This Row],[Date]]),MONTH(Table1[[#This Row],[Date]])+1,1),Table1[[#This Row],[Date]])</f>
-        <v>45294</v>
+      <c r="G14" s="38"/>
+      <c r="H14" s="40" cm="1">
+        <f t="array" ref="H14">SUMPRODUCT(Tracking[Amount],--(Tracking[Date]&lt;=Tracking[[#This Row],[Date]]),(Tracking[Type]&lt;&gt;"Income")*(-1) +(Tracking[Type]="Income"))</f>
+        <v>300</v>
+      </c>
+      <c r="I14" s="49">
+        <f>IF(
+  AND(
+    Tracking[[#This Row],[Type]] = "Income",
+    shift_late_income_status = "Active",
+    DAY(Tracking[[#This Row],[Date]]) &gt;= shift_late_income_starting_date  ),
+  EOMONTH(Tracking[[#This Row],[Date]], 0) + 1,
+  Tracking[[#This Row],[Date]]
+)</f>
+        <v>45293</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E12:E14">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>ISNA(MATCH(E12, INDIRECT(D12),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F14">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>D12="Income"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9854,23 +9876,42 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCEF244-F0FB-4867-9A5E-E5B321EB9BE3}">
-  <dimension ref="C1"/>
+  <dimension ref="C1:F8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="2.88671875" customWidth="1"/>
+    <col min="3" max="3" width="3.109375" customWidth="1"/>
+    <col min="4" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:3" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:6" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C6:F6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
